--- a/Base/Teams/Seahawks/Team Data.xlsx
+++ b/Base/Teams/Seahawks/Team Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Seahawks/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_FFE31D21D8CAA0903D3BAFF1C7CA0E62E2192052" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{302BC4A0-0153-48BD-ADED-219397A85F48}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YDS" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
     <sheet name="TURNS" sheetId="7" r:id="rId7"/>
     <sheet name="PEN" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -35,16 +41,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>4 5 28 0 9 2 4 11 2 2 -2 4 12 1 -3 1 3 1 1 4 7 5 6 2 21 3 5 0 1 9 2 0 5 10 3 5 13 7 3 6 8 2 6 3 3 5 6 3 12 2 23 2 -1 1 4 11 1 1 0 0 9 1 4 -1 8 4 5 0 2 7 4 13 2 2 7 7 2 1 -1 2 6 7 8 0 4 8 9 2 3 18 -4 8 8 2 1 4 3 3 5 1 19 5 4 7 12 3 6 0 6 29 6 3 1 1 0 17 10 5 8 4 7 3 2 1 7 34 24 22 13 5 6 12 5 1 6 -1 2 3 4 3 9 3 1 7 0 -6 -3 5 -1 13 4 3 5 -1 21 9 4 2 1 0 6 15 4 0 0 1 4 4 1 6 1 9 8 10 0 4 3 -3 0 8 4 -2 -3 4 5 -2 11 2 5 13 1 1 9 -1 5 11 3 3 3 5 5 7 2 0 3 2 5 14 15 5 2 5 -1 9 3 0 5 1 5 5 12 17 1 6 7 13 10 3 15 2 4 15 3 4 2 4 9 0 0 4 1 6 3 1 2 1 1 1 -3 0 7 8 16 2 9 4 0 5 10 -1 -2 -2 -3 -2 1 4 11 11 0 7 12 4 7 2 0 7 3 1 19 11 3 0 1 1 1 5 2 3 4 9 10 19 4 6 15 18 1 -1 1 2 5 5 6 -4 4 -1 4 28 8 0 5 1 2 4 2 0 1 0 15 5 0 -2 -1 10 11 5 5 10 5 5 -3 4 3 4 1 6 38 3 13 9 50 0 6 0 3 -4 4 1 3 10 1 5 11 4 6 6 2 1 3 4 0 6 3 15 0 3 3 4 1 -2 3 3 7 2 0 1 4 5 2 2 2 1 9 1 9 5 11 3 16 9 1 6 6 8 8 2 14 6 10 4 5 3 4 6 17 1 0 7 2 10 1 3 6 3 1 4 0 5 -1 4 2 11 5 4 33 4 5 4 4 2 13 3 2 0 5 9 1 1 4 6 9 5 4 -3 6 -3 2 7 5 1 0 2 4 4 2 25 1 8 1 -3 -1 5 2 12 2 7 4 2 2 1 8 8 1 11 8 3 3 30 5 6 1 4 2 4 2 -2 -1 5 4 3 5 2 12 -1 6 8 6 16 1 6 4 3 -2 4 14 0 1 5 3 13 1 4 4 0 7 4 2 3 4 4 3 6 -4 5 4 2 2 6 2 1 5 12 7 7 6 -1 5 11 21 5 7 7 5 0 2 0 3 1 14 3 26 5 10 -1 -1 6 1 -4 3 6 0 0 1 8 12 3 -3 1 1 5 12 2 14 3 6 1 4 5 0 1 -1 5 4 -1 -1 12 9 2 5 0 0 0 2 7 5 -5 4 3 -5 2 2 3 7 6 4 2 -2 -2 7 2 7 10 6 0 5 4 5 1 4 7 1 12 5 2 4 18 4 5 2 3 11 4 0 4 9 2 0 1 2 -4 7 15 2 1 -1 2 7 5 0 0 1 3 0 1 12 4</t>
-  </si>
-  <si>
-    <t>15 9 9 6 7 3 13 19 3 5 6 5 1 3 7 9 3 10 7 16 20 3 10 10 17 4 37 4 18 9 6 9 16 6 4 9 7 7 12 54 9 4 1 9 38 14 21 9 19 8 18 7 43 13 62 4 10 2 15 1 2 5 9 8 16 1 1 -1 8 11 16 6 6 4 21 5 29 5 37 5 23 14 4 19 18 1 4 9 11 6 11 57 4 3 21 11 9 30 9 17 32 7 13 2 3 12 -6 9 13 20 19 2 13 8 1 17 7 17 15 34 17 4 7 3 17 16 -1 13 9 18 4 28 16 47 6 10 5 10 16 8 5 4 8 8 18 10 11 -4 14 -3 7 5 7 3 9 12 46 11 15 35 6 2 4 3 7 2 9 6 14 12 5 8 17 6 9 4 5 8 14 12 1 8 3 41 11 16 19 7 6 27 13 10 5 11 26 9 55 8 50 3 11 2 2 7 22 21 8 6 7 10 6 39 5 2 12 10 13 9 19 16 11 4 9 4 8 10 9 4 10 25 5 7 11 10 11 2 3 10 8 22 10 5 -1 7 10 7 9 3 12 13 10 8 7 11 18 52 1 6 2 17 3 0 9 19 8 -2 3 31 7 5 6 24 6 6 6 4 12 18 6 21 -6 5 14 1 5 3 10 11 9 5 21 12 28 6 15 10 14 19 13 10 15 5 9 3 8 6 9 4 20 3 9 7 3 10 17 19 3 10 14 3 6 6 3 5 1 15 7 6 6 9 3 10 3 3 4 15 11 7 7 6 9 4 12 4 15 6 4 17 7 1 45 18 7 11 11 24 3 8 13 5 5 6 8 2 29 26 5 4 4 7 10 9 5 20 6 12 9 5 1 24 19 51 9 5 1 15 9 28 12 23 11 6 22 9 16 4 6 69 4 12 5 3 9 30 6 4 15 51 4 9 4 5 16 63 11 8 12 8 1 14 10 11 1 7 68 3 7 3 27 17 5 28 10 10 12 9 5 21 7 39 7 12 11 31 5 14 6 -3 19 7 17 15 -2 5 3 2 28 28 12 1 19 9 2 13 16 6 2 5 25 4 25 14 19 29 9 8 13 5 1 17 8 3 21 23 7 5 14 20 13 -1 2 27 12 -3 12 14 0 9 14 41 1 3 -4 7 7 7 2 11 7 12 21 10 84 5 -4 5 10 10 1 7 12 9 28 0 9 27 1 5 8 5 9 5 8 16 7 28 5 4 8 5 28 5 9 3 12 -6 6 28 1 9 9 7 5 7 18 8 6 -4 4 8 10 8 9 6 9 25 14 36 4 12 16 6 16 48 2 10 3 2 55 6 13 9 39 13 8 2 7 6 1 12 1 4 13 13 4 7 32</t>
-  </si>
-  <si>
-    <t>5 15 -1 5 9 -2 10 4 -1 1 2 1 4 4 10 -1 2 2 1 0 3 3 5 1 1 2 5 1 1 8 2 1 4 3 0 -1 6 2 0 -4 13 1 12 -1 7 -3 1 -1 4 4 0 1 1 7 3 2 3 1 9 9 5 6 3 2 4 4 0 7 3 5 2 11 7 4 11 -1 -1 3 10 9 5 7 -2 2 10 -2 1 3 10 8 2 10 10 3 0 0 8 3 4 2 0 6 7 6 3 16 2 3 2 3 20 7 3 4 12 -2 2 1 25 6 4 4 12 3 2 9 -1 0 0 8 4 9 5 1 -1 0 2 3 3 5 7 0 5 3 18 9 0 0 2 15 12 32 9 6 -5 3 4 5 -3 4 12 3 3 2 3 2 -1 3 1 1 3 4 1 14 2 1 6 7 7 -1 5 2 -6 1 3 2 0 1 5 3 1 1 6 3 7 -1 7 -1 1 1 17 13 6 -1 7 16 13 4 5 3 1 4 0 5 3 1 -4 2 3 6 3 3 4 2 2 3 -2 -3 8 1 2 2 12 0 0 11 0 1 8 0 20 5 13 6 6 2 1 1 0 7 2 5 4 1 -1 6 4 5 3 3 0 5 9 2 3 60 13 4 3 13 23 3 4 0 3 1 5 3 6 -1 11 4 6 0 1 -2 2 2 3 2 2 12 -3 9 -5 3 3 3 2 5 3 2 4 3 11 -1 4 9 1 2 2 4 1 4 12 -1 1 6 7 2 5 9 3 4 3 4 3 3 3 3 -2 0 1 1 7 2 14 7 23 3 4 2 5 5 -2 3 0 3 -1 8 12 6 0 7 7 0 0 3 7 8 2 -1 3 18 -4 4 3 -1 2 1 5 7 4 4 1 4 5 2 9 8 7 8 2 3 0 2 3 2 -1 -3 20 5 -3 15 5 3 4 2 2 6 6 1 8 4 5 1 1 3 6 0 6 6 5 1 0 1 6 7 4 8 9 2 -3 3 2 3 1 1 2 4 3 2 -2 4 9 4 8 3 12 1 1 7 3 8 1 -2 2 7 0 1 4 7 3 2 4 8 4 1 11 3 4 -2 9 2 6 7 0 60 3 6 2 19 0 3 8 4 4 1 0 12 4 1 4 7 1 3 1 4 8 2 2 12 2 2 9 3 4 3 6 3 -1 5 0 2 24 9 2 3 4 13 2 0 1 1 -2 2 3 5 6 9 2 7 4 2 8 4 5 5 -1 5 15 7 -1 1 6 7 2 4 3 3 6 1 7 7 1 4 3 -3 10 2 6 15 3 6 0 1 3 -1 7 5 29 8 -1 0 2 12 0 2 -1 0 4 1 5 0 -2 1 6 1 25 2 4 1 4 4 5 0 1 6 -1 10 11 2 1 4 9 3 10 5 4 -3 5 4 2 3 1 3 4 3 2 0 0 2 18 3 -1 6 2 5 -3 3 9 1 7 1 12 4 -2 4 14 4 1 3 2 4 4 3 4 8 8 1 4 3 7 4 5 3 11 5 -1 3 7 5 8 1 2 0 2 0 5 4 7 2 1 6 2 2 5 4 3 4 2 2 5 2 0 2 2 0 7 0 8 4 2 1 2 2 5 2 0 7 -1 3 0 0 6 1 2 5 4 2 7 6 3 11 4 1 2 6 7 3 8 4 5 1 0 4 3 4 4 3 1 1 0 1 5 7 3 4 4 3 10 10 2 1 6 3 0 0 7 4 1 7 5 17 1 2 0 2 2</t>
-  </si>
-  <si>
-    <t>19 12 28 0 27 15 16 11 4 5 13 10 4 44 1 11 7 19 8 12 18 18 15 13 7 4 24 4 10 12 1 2 12 -1 7 16 15 14 8 19 18 -2 16 7 26 12 17 4 9 2 49 16 3 1 20 8 -2 12 16 33 13 3 17 18 12 6 5 4 7 28 0 28 28 -6 13 22 40 5 10 -4 10 1 52 42 20 10 9 43 19 -2 10 8 3 6 2 10 6 2 4 8 8 14 9 5 9 18 15 15 26 11 17 9 3 12 21 6 5 12 1 4 17 4 9 -4 16 9 11 10 18 18 8 23 11 5 13 7 7 9 9 7 10 8 14 9 3 -5 3 25 9 10 14 3 12 11 11 6 10 0 -2 16 35 19 1 12 2 13 41 7 9 12 15 6 5 21 -4 7 18 7 8 18 13 3 6 3 11 8 11 16 7 9 7 19 8 9 13 6 2 10 14 3 -6 6 12 9 25 12 4 9 9 33 2 20 11 14 17 29 7 3 6 14 25 15 13 9 7 22 5 1 18 9 10 5 12 3 18 21 21 11 4 4 23 6 39 -2 20 25 11 33 7 8 5 11 31 39 14 16 8 9 9 11 10 9 15 7 11 8 5 17 21 5 7 9 7 -3 8 5 3 1 7 25 18 5 13 11 6 7 13 14 4 6 3 8 4 11 2 19 4 23 18 3 6 6 6 12 11 3 1 6 10 8 2 3 3 9 9 17 16 0 5 3 7 3 5 11 10 6 27 -1 8 17 33 9 22 16 14 11 3 7 -2 3 6 8 6 14 9 17 3 16 6 8 14 6 5 34 4 3 -2 9 -2 0 0 9 1 11 2 11 20 13 3 10 4 18 -2 5 30 5 1 0 9 7 17 17 3 12 13 5 10 9 6 6 5 2 10 9 5 11 5 9 12 19 11 8 6 6 13 11 2 5 3 13 2 4 22 9 6 11 26 8 13 3 3 1 -5 45 4 14 2 4 9 3 6 41 27 5 13 12 5 5 19 21 8 12 14 3 1 15 13 44 6 4 44 20 6 7 9 15 10 6 10 7 24 6 10 14 10 8 4 5 7 15 16 8 9 7 8 13 7 1 16 11 19 10 6 14 13 5 17 51 15 15 19 6 15 15 22 12 12 5 15 16 10 14 4 9 12 4 5 6 20 17 8 10 7 6 23 26 7 15 7 4 7 9 16 3 -4 15 5 8 9 -1 21 11 28 4 14 15 2 11 9 8 21 9 18 21 7 15 14 26 7 10 8 8 14 10 12 12 7 8 -1 16 11 9 4 17 17 25 5 9 5 8 6 7 9 68 20 20 13 3 23 1 24 33 13 7 9 2 7 9 12 6 4 12 5 6 5 12 9 6 5 2 1 15 14 23 6 12 4 12 7 12 2 3 13 8 6 23 7 14 5 9 14 6 31 15 -5 6 7 13 8 11 13 6 1 7 5 17 9 10 13 7 7 10 3 9 7 0 7 6 3 6 11 9 8 11 7 4 5 9 10 9 5 8 3 41 9 4 6 12 6 34 3 4 14 8 10 6 4 23 24 4 7 8 5 50 7 4 8 17 5 7 11 1 -5 31 7 1 12 25 2 10 20 6 11 4 21 6 -2 14 7 5 16 5 3 10 9 15 7 3 12 20 5 4 15 2 8 6 0 1 1 12 9 8 14 9 16 10 20 2 9 11 11 6 3 12 6 8</t>
+    <t>4 5 28 0 9 2 4 11 2 2 -2 4 12 1 -3 1 3 1 1 4 7 5 6 2 21 3 5 0 1 9 2 0 5 10 3 5 13 7 3 6 8 2 6 3 3 5 6 3 12 2 23 2 -1 1 4 11 1 1 0 0 9 1 4 -1 8 4 5 0 2 7 4 13 2 2 7 7 2 1 -1 2 6 7 8 0 4 8 9 2 3 18 -4 8 8 2 1 4 3 3 5 1 19 5 4 7 12 3 6 0 6 29 6 3 1 1 0 17 10 5 8 4 7 3 2 1 7 34 24 22 13 5 6 12 5 1 6 -1 2 3 4 3 9 3 1 7 0 -6 -3 5 -1 13 4 3 5 -1 21 9 4 2 1 0 6 15 4 0 0 1 4 4 1 6 1 9 8 10 0 4 3 -3 0 8 4 -2 -3 4 5 -2 11 2 5 13 1 1 9 -1 5 11 3 3 3 5 5 7 2 0 3 2 5 14 15 5 2 5 -1 9 3 0 5 1 5 5 12 17 1 6 7 13 10 3 15 2 4 15 3 4 2 4 9 0 0 4 1 6 3 1 2 1 1 1 -3 0 7 8 16 2 9 4 0 5 10 -1 -2 -2 -3 -2 1 4 11 11 0 7 12 4 7 2 0 7 3 1 19 11 3 0 1 1 1 5 2 3 4 9 10 19 4 6 15 18 1 -1 1 2 5 5 6 -4 4 -1 4 28 8 0 5 1 2 4 2 0 1 0 15 5 0 -2 -1 10 11 5 5 10 5 5 -3 4 3 4 1 6 38 3 13 9 50 0 6 0 3 -4 4 1 3 10 1 5 11 4 6 6 2 1 3 4 0 6 3 15 0 3 3 4 1 -2 3 3 7 2 0 1 4 5 2 2 2 1 9 1 9 5 11 3 16 9 1 6 6 8 8 2 14 6 10 4 5 3 4 6 17 1 0 7 2 10 1 3 6 3 1 4 0 5 -1 4 2 11 5 4 33 4 5 4 4 2 13 3 2 0 5 9 1 1 4 6 9 5 4 -3 6 -3 2 7 5 1 0 2 4 4 2 25 1 8 1 -3 -1 5 2 12 2 7 4 2 2 1 8 8 1 11 8 3 3 30 5 6 1 4 2 4 2 -2 -1 5 4 3 5 2 12 -1 6 8 6 16 1 6 4 3 -2 4 14 0 1 5 3 13 1 4 4 0 7 4 2 3 4 4 3 6 -4 5 4 2 2 6 2 1 5 12 7 7 6 -1 5 11 21 5 7 7 5 0 2 0 3 1 14 3 26 5 10 -1 -1 6 1 -4 3 6 0 0 1 8 12 3 -3 1 1 5 12 2 14 3 6 1 4 5 0 1 -1 5 4 -1 -1 12 9 2 5 0 0 0 2 7 5 -5 4 3 -5 2 2 3 7 6 4 2 -2 -2 7 2 7 10 6 0 5 4 5 1 4 7 1 12 5 2 4 18 4 5 2 3 11 4 0 4 9 2 0 1 2 -4 7 15 2 1 -1 2 7 5 0 0 1 3 0 1 12 4 -5 0 11 12 0 7 4 2 1 4 2 3 3 3 3 2 0 4 1 10 4 2 0 -1</t>
+  </si>
+  <si>
+    <t>15 9 9 6 7 3 13 19 3 5 6 5 1 3 7 9 3 10 7 16 20 3 10 10 17 4 37 4 18 9 6 9 16 6 4 9 7 7 12 54 9 4 1 9 38 14 21 9 19 8 18 7 43 13 62 4 10 2 15 1 2 5 9 8 16 1 1 -1 8 11 16 6 6 4 21 5 29 5 37 5 23 14 4 19 18 1 4 9 11 6 11 57 4 3 21 11 9 30 9 17 32 7 13 2 3 12 -6 9 13 20 19 2 13 8 1 17 7 17 15 34 17 4 7 3 17 16 -1 13 9 18 4 28 16 47 6 10 5 10 16 8 5 4 8 8 18 10 11 -4 14 -3 7 5 7 3 9 12 46 11 15 35 6 2 4 3 7 2 9 6 14 12 5 8 17 6 9 4 5 8 14 12 1 8 3 41 11 16 19 7 6 27 13 10 5 11 26 9 55 8 50 3 11 2 2 7 22 21 8 6 7 10 6 39 5 2 12 10 13 9 19 16 11 4 9 4 8 10 9 4 10 25 5 7 11 10 11 2 3 10 8 22 10 5 -1 7 10 7 9 3 12 13 10 8 7 11 18 52 1 6 2 17 3 0 9 19 8 -2 3 31 7 5 6 24 6 6 6 4 12 18 6 21 -6 5 14 1 5 3 10 11 9 5 21 12 28 6 15 10 14 19 13 10 15 5 9 3 8 6 9 4 20 3 9 7 3 10 17 19 3 10 14 3 6 6 3 5 1 15 7 6 6 9 3 10 3 3 4 15 11 7 7 6 9 4 12 4 15 6 4 17 7 1 45 18 7 11 11 24 3 8 13 5 5 6 8 2 29 26 5 4 4 7 10 9 5 20 6 12 9 5 1 24 19 51 9 5 1 15 9 28 12 23 11 6 22 9 16 4 6 69 4 12 5 3 9 30 6 4 15 51 4 9 4 5 16 63 11 8 12 8 1 14 10 11 1 7 68 3 7 3 27 17 5 28 10 10 12 9 5 21 7 39 7 12 11 31 5 14 6 -3 19 7 17 15 -2 5 3 2 28 28 12 1 19 9 2 13 16 6 2 5 25 4 25 14 19 29 9 8 13 5 1 17 8 3 21 23 7 5 14 20 13 -1 2 27 12 -3 12 14 0 9 14 41 1 3 -4 7 7 7 2 11 7 12 21 10 84 5 -4 5 10 10 1 7 12 9 28 0 9 27 1 5 8 5 9 5 8 16 7 28 5 4 8 5 28 5 9 3 12 -6 6 28 1 9 9 7 5 7 18 8 6 -4 4 8 10 8 9 6 9 25 14 36 4 12 16 6 16 48 2 10 3 2 55 6 13 9 39 13 8 2 7 6 1 12 1 4 13 13 4 7 32 -1 4 1 0 8 10 7 12 -1 33 5 9 2 4 11 7 6 7 16 17 5 7 2 12 11 5 2 27 3 0</t>
+  </si>
+  <si>
+    <t>5 15 -1 5 9 -2 10 4 -1 1 2 1 4 4 10 -1 2 2 1 0 3 3 5 1 1 2 5 1 1 8 2 1 4 3 0 -1 6 2 0 -4 13 1 12 -1 7 -3 1 -1 4 4 0 1 1 7 3 2 3 1 9 9 5 6 3 2 4 4 0 7 3 5 2 11 7 4 11 -1 -1 3 10 9 5 7 -2 2 10 -2 1 3 10 8 2 10 10 3 0 0 8 3 4 2 0 6 7 6 3 16 2 3 2 3 20 7 3 4 12 -2 2 1 25 6 4 4 12 3 2 9 -1 0 0 8 4 9 5 1 -1 0 2 3 3 5 7 0 5 3 18 9 0 0 2 15 12 32 9 6 -5 3 4 5 -3 4 12 3 3 2 3 2 -1 3 1 1 3 4 1 14 2 1 6 7 7 -1 5 2 -6 1 3 2 0 1 5 3 1 1 6 3 7 -1 7 -1 1 1 17 13 6 -1 7 16 13 4 5 3 1 4 0 5 3 1 -4 2 3 6 3 3 4 2 2 3 -2 -3 8 1 2 2 12 0 0 11 0 1 8 0 20 5 13 6 6 2 1 1 0 7 2 5 4 1 -1 6 4 5 3 3 0 5 9 2 3 60 13 4 3 13 23 3 4 0 3 1 5 3 6 -1 11 4 6 0 1 -2 2 2 3 2 2 12 -3 9 -5 3 3 3 2 5 3 2 4 3 11 -1 4 9 1 2 2 4 1 4 12 -1 1 6 7 2 5 9 3 4 3 4 3 3 3 3 -2 0 1 1 7 2 14 7 23 3 4 2 5 5 -2 3 0 3 -1 8 12 6 0 7 7 0 0 3 7 8 2 -1 3 18 -4 4 3 -1 2 1 5 7 4 4 1 4 5 2 9 8 7 8 2 3 0 2 3 2 -1 -3 20 5 -3 15 5 3 4 2 2 6 6 1 8 4 5 1 1 3 6 0 6 6 5 1 0 1 6 7 4 8 9 2 -3 3 2 3 1 1 2 4 3 2 -2 4 9 4 8 3 12 1 1 7 3 8 1 -2 2 7 0 1 4 7 3 2 4 8 4 1 11 3 4 -2 9 2 6 7 0 60 3 6 2 19 0 3 8 4 4 1 0 12 4 1 4 7 1 3 1 4 8 2 2 12 2 2 9 3 4 3 6 3 -1 5 0 2 24 9 2 3 4 13 2 0 1 1 -2 2 3 5 6 9 2 7 4 2 8 4 5 5 -1 5 15 7 -1 1 6 7 2 4 3 3 6 1 7 7 1 4 3 -3 10 2 6 15 3 6 0 1 3 -1 7 5 29 8 -1 0 2 12 0 2 -1 0 4 1 5 0 -2 1 6 1 25 2 4 1 4 4 5 0 1 6 -1 10 11 2 1 4 9 3 10 5 4 -3 5 4 2 3 1 3 4 3 2 0 0 2 18 3 -1 6 2 5 -3 3 9 1 7 1 12 4 -2 4 14 4 1 3 2 4 4 3 4 8 8 1 4 3 7 4 5 3 11 5 -1 3 7 5 8 1 2 0 2 0 5 4 7 2 1 6 2 2 5 4 3 4 2 2 5 2 0 2 2 0 7 0 8 4 2 1 2 2 5 2 0 7 -1 3 0 0 6 1 2 5 4 2 7 6 3 11 4 1 2 6 7 3 8 4 5 1 0 4 3 4 4 3 1 1 0 1 5 7 3 4 4 3 10 10 2 1 6 3 0 0 7 4 1 7 5 17 1 2 0 2 2 1 -1 4 5 0 6 2 7 5 2 9 2 4 0 2 2 5 4 0 2 6 3 1</t>
+  </si>
+  <si>
+    <t>19 12 28 0 27 15 16 11 4 5 13 10 4 44 1 11 7 19 8 12 18 18 15 13 7 4 24 4 10 12 1 2 12 -1 7 16 15 14 8 19 18 -2 16 7 26 12 17 4 9 2 49 16 3 1 20 8 -2 12 16 33 13 3 17 18 12 6 5 4 7 28 0 28 28 -6 13 22 40 5 10 -4 10 1 52 42 20 10 9 43 19 -2 10 8 3 6 2 10 6 2 4 8 8 14 9 5 9 18 15 15 26 11 17 9 3 12 21 6 5 12 1 4 17 4 9 -4 16 9 11 10 18 18 8 23 11 5 13 7 7 9 9 7 10 8 14 9 3 -5 3 25 9 10 14 3 12 11 11 6 10 0 -2 16 35 19 1 12 2 13 41 7 9 12 15 6 5 21 -4 7 18 7 8 18 13 3 6 3 11 8 11 16 7 9 7 19 8 9 13 6 2 10 14 3 -6 6 12 9 25 12 4 9 9 33 2 20 11 14 17 29 7 3 6 14 25 15 13 9 7 22 5 1 18 9 10 5 12 3 18 21 21 11 4 4 23 6 39 -2 20 25 11 33 7 8 5 11 31 39 14 16 8 9 9 11 10 9 15 7 11 8 5 17 21 5 7 9 7 -3 8 5 3 1 7 25 18 5 13 11 6 7 13 14 4 6 3 8 4 11 2 19 4 23 18 3 6 6 6 12 11 3 1 6 10 8 2 3 3 9 9 17 16 0 5 3 7 3 5 11 10 6 27 -1 8 17 33 9 22 16 14 11 3 7 -2 3 6 8 6 14 9 17 3 16 6 8 14 6 5 34 4 3 -2 9 -2 0 0 9 1 11 2 11 20 13 3 10 4 18 -2 5 30 5 1 0 9 7 17 17 3 12 13 5 10 9 6 6 5 2 10 9 5 11 5 9 12 19 11 8 6 6 13 11 2 5 3 13 2 4 22 9 6 11 26 8 13 3 3 1 -5 45 4 14 2 4 9 3 6 41 27 5 13 12 5 5 19 21 8 12 14 3 1 15 13 44 6 4 44 20 6 7 9 15 10 6 10 7 24 6 10 14 10 8 4 5 7 15 16 8 9 7 8 13 7 1 16 11 19 10 6 14 13 5 17 51 15 15 19 6 15 15 22 12 12 5 15 16 10 14 4 9 12 4 5 6 20 17 8 10 7 6 23 26 7 15 7 4 7 9 16 3 -4 15 5 8 9 -1 21 11 28 4 14 15 2 11 9 8 21 9 18 21 7 15 14 26 7 10 8 8 14 10 12 12 7 8 -1 16 11 9 4 17 17 25 5 9 5 8 6 7 9 68 20 20 13 3 23 1 24 33 13 7 9 2 7 9 12 6 4 12 5 6 5 12 9 6 5 2 1 15 14 23 6 12 4 12 7 12 2 3 13 8 6 23 7 14 5 9 14 6 31 15 -5 6 7 13 8 11 13 6 1 7 5 17 9 10 13 7 7 10 3 9 7 0 7 6 3 6 11 9 8 11 7 4 5 9 10 9 5 8 3 41 9 4 6 12 6 34 3 4 14 8 10 6 4 23 24 4 7 8 5 50 7 4 8 17 5 7 11 1 -5 31 7 1 12 25 2 10 20 6 11 4 21 6 -2 14 7 5 16 5 3 10 9 15 7 3 12 20 5 4 15 2 8 6 0 1 1 12 9 8 14 9 16 10 20 2 9 11 11 6 3 12 6 8 24 8 28 12 4 7 9 8 9 48 3 21 13 29 11 18 14 10 7 16</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +167,19 @@
     <t>RM</t>
   </si>
   <si>
-    <t>67 67 66 70 36 62 59 69 67 62 64 62 70 67 62 64 64 66 66 66 64 66 62 60 63 65 68 61 45 61 63 62 59 61 60 58 63 63 60 70 65 69 63 68 51 64 63 65 66 66 61 55 65 66 58 55 65 66 65 66 69 64 39 68 62 61 68 60 59 55 65</t>
-  </si>
-  <si>
-    <t>30 24 17 28 5 20 17 21 20 18 20 16 60 20 20 17 24 25 20 11 20 20 17 18 40 23 18 66 11 20 22 20 14 26 22 11 18 26 36 22 19 19 14 19 13 19 16 24 16 26 7 21 16 25 20 12 37 19 17 33 20 15 13 25 22 32 26 0 27 12 31</t>
-  </si>
-  <si>
-    <t>19 24 24 44 21 9 17 6 29 20 9 21 17 17 22 32 33 49 25 20 21 25 22 23 18 28 26 27 58 24 22 7 18 21 33 18 24 22 0 0 34 38 25 17 23 13 21 24 32 23 20 27 27 27</t>
-  </si>
-  <si>
-    <t>53 44 46 48 33 54 63 50 56 52 64 52 67 45 47 34 58 35 46 48 37 39 66 48 64 39 65 48 53 40 50 57 45 49 42 38 57 56 43 46 33 37 60 66 43 40 55 40 51 57 36 52 56 51 48 47 63 61 43 52 47 53 48 59 56 57 55 71 25 49 40 36 35 66 52 40 59 46 47 43 45 50 60 34 55 62 51 50 43 31 51 52 68 57 43 24 47 42 39 65 47 65 51 32 44 50 48 44 34 41 59 46 45 36 35 51 61 53 42 60 50 52 48 55 54 38 54 50 48</t>
-  </si>
-  <si>
-    <t>0 0 0 8 0 0 12 0 7 19 0 0 6 1 0 0 11 0 0 9 0 0 0 10 20 0 0 0 11 0 0 15 6 2 0 0 7 12 0 0 0 0 0 0 11 0 0 0 11 -1 0 1 0 6 1 5 0 5 21 5 0 0 0 0 0 0 9 0 0 7 0 0 0 0 0 0 10 13 9 13 -1 10 10 0 10 12 0 0 0 0 0 11 0 6 0 0 0 0 0 14 9 0 2 0 0 0 0 13 0 0 4 9 0 0 4 0 16 8 0 0 12 0 0 0 0 0 0 8 0</t>
-  </si>
-  <si>
-    <t>15 0 0 20 0 0 0 0 15 0 0 0 0 15 9 6 0 0 0 0 0 0 11 0 0 2 0 6 12 7 5 13 0 0 0 0 14 0 0 0 0 15 3 0 12 0 0 0 0 0 7 7 0 0 10 0 8 0 0 8 6 0 9 0 0 0 0 0 0 0 0 11 0 13 0 0 0 0 0 3 14 0 0 3 0 8 0 0 0 0 11 0 0 20 0 0 0 0 0 6 3 0 0 0 0 0 0</t>
+    <t>67 67 66 70 36 62 59 69 67 62 64 62 70 67 62 64 64 66 66 66 64 66 62 60 63 65 68 61 45 61 63 62 59 61 60 58 63 63 60 70 65 69 63 68 51 64 63 65 66 66 61 55 65 66 58 55 65 66 65 66 69 64 39 68 62 61 68 60 59 55 65 62 55 58</t>
+  </si>
+  <si>
+    <t>30 24 17 28 5 20 17 21 20 18 20 16 60 20 20 17 24 25 20 11 20 20 17 18 40 23 18 66 11 20 22 20 14 26 22 11 18 26 36 22 19 19 14 19 13 19 16 24 16 26 7 21 16 25 20 12 37 19 17 33 20 15 13 25 22 32 26 0 27 12 31 12 12 23</t>
+  </si>
+  <si>
+    <t>19 24 24 44 21 9 17 6 29 20 9 21 17 17 22 32 33 49 25 20 21 25 22 23 18 28 26 27 58 24 22 7 18 21 33 18 24 22 0 0 34 38 25 17 23 13 21 24 32 23 20 27 27 27 22 23 25 33 26 19</t>
+  </si>
+  <si>
+    <t>53 44 46 48 33 54 63 50 56 52 64 52 67 45 47 34 58 35 46 48 37 39 66 48 64 39 65 48 53 40 50 57 45 49 42 38 57 56 43 46 33 37 60 66 43 40 55 40 51 57 36 52 56 51 48 47 63 61 43 52 47 53 48 59 56 57 55 71 25 49 40 36 35 66 52 40 59 46 47 43 45 50 60 34 55 62 51 50 43 31 51 52 68 57 43 24 47 42 39 65 47 65 51 32 44 50 48 44 34 41 59 46 45 36 35 51 61 53 42 60 50 52 48 55 54 38 54 50 48 50 65 36 54</t>
+  </si>
+  <si>
+    <t>0 0 0 8 0 0 12 0 7 19 0 0 6 1 0 0 11 0 0 9 0 0 0 10 20 0 0 0 11 0 0 15 6 2 0 0 7 12 0 0 0 0 0 0 11 0 0 0 11 -1 0 1 0 6 1 5 0 5 21 5 0 0 0 0 0 0 9 0 0 7 0 0 0 0 0 0 10 13 9 13 -1 10 10 0 10 12 0 0 0 0 0 11 0 6 0 0 0 0 0 14 9 0 2 0 0 0 0 13 0 0 4 9 0 0 4 0 16 8 0 0 12 0 0 0 0 0 0 8 0 0 22 0 -4</t>
   </si>
   <si>
     <t>INT</t>
@@ -204,13 +207,16 @@
   </si>
   <si>
     <t>Offside</t>
+  </si>
+  <si>
+    <t>0 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +279,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -319,7 +333,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,9 +365,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,6 +417,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -560,14 +610,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -586,7 +636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -603,14 +653,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -660,7 +710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -668,81 +718,81 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="D2">
+        <v>22</v>
+      </c>
+      <c r="E2">
         <v>20</v>
       </c>
-      <c r="E2">
-        <v>17</v>
-      </c>
       <c r="F2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2">
         <v>10</v>
       </c>
       <c r="J2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="M2">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="N2">
         <v>39</v>
       </c>
       <c r="O2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q2">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F3">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="G3">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H3">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I3">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J3">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +804,7 @@
         <v>315</v>
       </c>
       <c r="N3">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -772,14 +822,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -808,7 +858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -840,7 +890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -878,14 +928,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -935,7 +985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -943,7 +993,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="D2">
         <v>23</v>
@@ -952,10 +1002,10 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -964,60 +1014,60 @@
         <v>13</v>
       </c>
       <c r="J2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>548</v>
+        <v>578</v>
       </c>
       <c r="M2">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="N2">
         <v>35</v>
       </c>
       <c r="O2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q2">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="E3">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F3">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G3">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="J3">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1079,7 @@
         <v>403</v>
       </c>
       <c r="N3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1047,14 +1097,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1083,7 +1133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1115,7 +1165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1153,14 +1203,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1210,27 +1262,27 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -1251,7 +1303,7 @@
         <v>51</v>
       </c>
       <c r="N2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O2">
         <v>22</v>
@@ -1263,12 +1315,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1277,7 +1329,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -1291,7 +1343,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1302,10 +1354,10 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -1319,45 +1371,45 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1368,7 +1420,7 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -1380,14 +1432,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1398,51 +1450,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>3</v>

--- a/Base/Teams/Seahawks/Team Data.xlsx
+++ b/Base/Teams/Seahawks/Team Data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Seahawks/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_FFE31D21D8CAA0903D3BAFF1C7CA0E62E2192052" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{302BC4A0-0153-48BD-ADED-219397A85F48}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="YDS" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
     <sheet name="TURNS" sheetId="7" r:id="rId7"/>
     <sheet name="PEN" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -41,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>4 5 28 0 9 2 4 11 2 2 -2 4 12 1 -3 1 3 1 1 4 7 5 6 2 21 3 5 0 1 9 2 0 5 10 3 5 13 7 3 6 8 2 6 3 3 5 6 3 12 2 23 2 -1 1 4 11 1 1 0 0 9 1 4 -1 8 4 5 0 2 7 4 13 2 2 7 7 2 1 -1 2 6 7 8 0 4 8 9 2 3 18 -4 8 8 2 1 4 3 3 5 1 19 5 4 7 12 3 6 0 6 29 6 3 1 1 0 17 10 5 8 4 7 3 2 1 7 34 24 22 13 5 6 12 5 1 6 -1 2 3 4 3 9 3 1 7 0 -6 -3 5 -1 13 4 3 5 -1 21 9 4 2 1 0 6 15 4 0 0 1 4 4 1 6 1 9 8 10 0 4 3 -3 0 8 4 -2 -3 4 5 -2 11 2 5 13 1 1 9 -1 5 11 3 3 3 5 5 7 2 0 3 2 5 14 15 5 2 5 -1 9 3 0 5 1 5 5 12 17 1 6 7 13 10 3 15 2 4 15 3 4 2 4 9 0 0 4 1 6 3 1 2 1 1 1 -3 0 7 8 16 2 9 4 0 5 10 -1 -2 -2 -3 -2 1 4 11 11 0 7 12 4 7 2 0 7 3 1 19 11 3 0 1 1 1 5 2 3 4 9 10 19 4 6 15 18 1 -1 1 2 5 5 6 -4 4 -1 4 28 8 0 5 1 2 4 2 0 1 0 15 5 0 -2 -1 10 11 5 5 10 5 5 -3 4 3 4 1 6 38 3 13 9 50 0 6 0 3 -4 4 1 3 10 1 5 11 4 6 6 2 1 3 4 0 6 3 15 0 3 3 4 1 -2 3 3 7 2 0 1 4 5 2 2 2 1 9 1 9 5 11 3 16 9 1 6 6 8 8 2 14 6 10 4 5 3 4 6 17 1 0 7 2 10 1 3 6 3 1 4 0 5 -1 4 2 11 5 4 33 4 5 4 4 2 13 3 2 0 5 9 1 1 4 6 9 5 4 -3 6 -3 2 7 5 1 0 2 4 4 2 25 1 8 1 -3 -1 5 2 12 2 7 4 2 2 1 8 8 1 11 8 3 3 30 5 6 1 4 2 4 2 -2 -1 5 4 3 5 2 12 -1 6 8 6 16 1 6 4 3 -2 4 14 0 1 5 3 13 1 4 4 0 7 4 2 3 4 4 3 6 -4 5 4 2 2 6 2 1 5 12 7 7 6 -1 5 11 21 5 7 7 5 0 2 0 3 1 14 3 26 5 10 -1 -1 6 1 -4 3 6 0 0 1 8 12 3 -3 1 1 5 12 2 14 3 6 1 4 5 0 1 -1 5 4 -1 -1 12 9 2 5 0 0 0 2 7 5 -5 4 3 -5 2 2 3 7 6 4 2 -2 -2 7 2 7 10 6 0 5 4 5 1 4 7 1 12 5 2 4 18 4 5 2 3 11 4 0 4 9 2 0 1 2 -4 7 15 2 1 -1 2 7 5 0 0 1 3 0 1 12 4 -5 0 11 12 0 7 4 2 1 4 2 3 3 3 3 2 0 4 1 10 4 2 0 -1</t>
-  </si>
-  <si>
-    <t>15 9 9 6 7 3 13 19 3 5 6 5 1 3 7 9 3 10 7 16 20 3 10 10 17 4 37 4 18 9 6 9 16 6 4 9 7 7 12 54 9 4 1 9 38 14 21 9 19 8 18 7 43 13 62 4 10 2 15 1 2 5 9 8 16 1 1 -1 8 11 16 6 6 4 21 5 29 5 37 5 23 14 4 19 18 1 4 9 11 6 11 57 4 3 21 11 9 30 9 17 32 7 13 2 3 12 -6 9 13 20 19 2 13 8 1 17 7 17 15 34 17 4 7 3 17 16 -1 13 9 18 4 28 16 47 6 10 5 10 16 8 5 4 8 8 18 10 11 -4 14 -3 7 5 7 3 9 12 46 11 15 35 6 2 4 3 7 2 9 6 14 12 5 8 17 6 9 4 5 8 14 12 1 8 3 41 11 16 19 7 6 27 13 10 5 11 26 9 55 8 50 3 11 2 2 7 22 21 8 6 7 10 6 39 5 2 12 10 13 9 19 16 11 4 9 4 8 10 9 4 10 25 5 7 11 10 11 2 3 10 8 22 10 5 -1 7 10 7 9 3 12 13 10 8 7 11 18 52 1 6 2 17 3 0 9 19 8 -2 3 31 7 5 6 24 6 6 6 4 12 18 6 21 -6 5 14 1 5 3 10 11 9 5 21 12 28 6 15 10 14 19 13 10 15 5 9 3 8 6 9 4 20 3 9 7 3 10 17 19 3 10 14 3 6 6 3 5 1 15 7 6 6 9 3 10 3 3 4 15 11 7 7 6 9 4 12 4 15 6 4 17 7 1 45 18 7 11 11 24 3 8 13 5 5 6 8 2 29 26 5 4 4 7 10 9 5 20 6 12 9 5 1 24 19 51 9 5 1 15 9 28 12 23 11 6 22 9 16 4 6 69 4 12 5 3 9 30 6 4 15 51 4 9 4 5 16 63 11 8 12 8 1 14 10 11 1 7 68 3 7 3 27 17 5 28 10 10 12 9 5 21 7 39 7 12 11 31 5 14 6 -3 19 7 17 15 -2 5 3 2 28 28 12 1 19 9 2 13 16 6 2 5 25 4 25 14 19 29 9 8 13 5 1 17 8 3 21 23 7 5 14 20 13 -1 2 27 12 -3 12 14 0 9 14 41 1 3 -4 7 7 7 2 11 7 12 21 10 84 5 -4 5 10 10 1 7 12 9 28 0 9 27 1 5 8 5 9 5 8 16 7 28 5 4 8 5 28 5 9 3 12 -6 6 28 1 9 9 7 5 7 18 8 6 -4 4 8 10 8 9 6 9 25 14 36 4 12 16 6 16 48 2 10 3 2 55 6 13 9 39 13 8 2 7 6 1 12 1 4 13 13 4 7 32 -1 4 1 0 8 10 7 12 -1 33 5 9 2 4 11 7 6 7 16 17 5 7 2 12 11 5 2 27 3 0</t>
-  </si>
-  <si>
-    <t>5 15 -1 5 9 -2 10 4 -1 1 2 1 4 4 10 -1 2 2 1 0 3 3 5 1 1 2 5 1 1 8 2 1 4 3 0 -1 6 2 0 -4 13 1 12 -1 7 -3 1 -1 4 4 0 1 1 7 3 2 3 1 9 9 5 6 3 2 4 4 0 7 3 5 2 11 7 4 11 -1 -1 3 10 9 5 7 -2 2 10 -2 1 3 10 8 2 10 10 3 0 0 8 3 4 2 0 6 7 6 3 16 2 3 2 3 20 7 3 4 12 -2 2 1 25 6 4 4 12 3 2 9 -1 0 0 8 4 9 5 1 -1 0 2 3 3 5 7 0 5 3 18 9 0 0 2 15 12 32 9 6 -5 3 4 5 -3 4 12 3 3 2 3 2 -1 3 1 1 3 4 1 14 2 1 6 7 7 -1 5 2 -6 1 3 2 0 1 5 3 1 1 6 3 7 -1 7 -1 1 1 17 13 6 -1 7 16 13 4 5 3 1 4 0 5 3 1 -4 2 3 6 3 3 4 2 2 3 -2 -3 8 1 2 2 12 0 0 11 0 1 8 0 20 5 13 6 6 2 1 1 0 7 2 5 4 1 -1 6 4 5 3 3 0 5 9 2 3 60 13 4 3 13 23 3 4 0 3 1 5 3 6 -1 11 4 6 0 1 -2 2 2 3 2 2 12 -3 9 -5 3 3 3 2 5 3 2 4 3 11 -1 4 9 1 2 2 4 1 4 12 -1 1 6 7 2 5 9 3 4 3 4 3 3 3 3 -2 0 1 1 7 2 14 7 23 3 4 2 5 5 -2 3 0 3 -1 8 12 6 0 7 7 0 0 3 7 8 2 -1 3 18 -4 4 3 -1 2 1 5 7 4 4 1 4 5 2 9 8 7 8 2 3 0 2 3 2 -1 -3 20 5 -3 15 5 3 4 2 2 6 6 1 8 4 5 1 1 3 6 0 6 6 5 1 0 1 6 7 4 8 9 2 -3 3 2 3 1 1 2 4 3 2 -2 4 9 4 8 3 12 1 1 7 3 8 1 -2 2 7 0 1 4 7 3 2 4 8 4 1 11 3 4 -2 9 2 6 7 0 60 3 6 2 19 0 3 8 4 4 1 0 12 4 1 4 7 1 3 1 4 8 2 2 12 2 2 9 3 4 3 6 3 -1 5 0 2 24 9 2 3 4 13 2 0 1 1 -2 2 3 5 6 9 2 7 4 2 8 4 5 5 -1 5 15 7 -1 1 6 7 2 4 3 3 6 1 7 7 1 4 3 -3 10 2 6 15 3 6 0 1 3 -1 7 5 29 8 -1 0 2 12 0 2 -1 0 4 1 5 0 -2 1 6 1 25 2 4 1 4 4 5 0 1 6 -1 10 11 2 1 4 9 3 10 5 4 -3 5 4 2 3 1 3 4 3 2 0 0 2 18 3 -1 6 2 5 -3 3 9 1 7 1 12 4 -2 4 14 4 1 3 2 4 4 3 4 8 8 1 4 3 7 4 5 3 11 5 -1 3 7 5 8 1 2 0 2 0 5 4 7 2 1 6 2 2 5 4 3 4 2 2 5 2 0 2 2 0 7 0 8 4 2 1 2 2 5 2 0 7 -1 3 0 0 6 1 2 5 4 2 7 6 3 11 4 1 2 6 7 3 8 4 5 1 0 4 3 4 4 3 1 1 0 1 5 7 3 4 4 3 10 10 2 1 6 3 0 0 7 4 1 7 5 17 1 2 0 2 2 1 -1 4 5 0 6 2 7 5 2 9 2 4 0 2 2 5 4 0 2 6 3 1</t>
-  </si>
-  <si>
-    <t>19 12 28 0 27 15 16 11 4 5 13 10 4 44 1 11 7 19 8 12 18 18 15 13 7 4 24 4 10 12 1 2 12 -1 7 16 15 14 8 19 18 -2 16 7 26 12 17 4 9 2 49 16 3 1 20 8 -2 12 16 33 13 3 17 18 12 6 5 4 7 28 0 28 28 -6 13 22 40 5 10 -4 10 1 52 42 20 10 9 43 19 -2 10 8 3 6 2 10 6 2 4 8 8 14 9 5 9 18 15 15 26 11 17 9 3 12 21 6 5 12 1 4 17 4 9 -4 16 9 11 10 18 18 8 23 11 5 13 7 7 9 9 7 10 8 14 9 3 -5 3 25 9 10 14 3 12 11 11 6 10 0 -2 16 35 19 1 12 2 13 41 7 9 12 15 6 5 21 -4 7 18 7 8 18 13 3 6 3 11 8 11 16 7 9 7 19 8 9 13 6 2 10 14 3 -6 6 12 9 25 12 4 9 9 33 2 20 11 14 17 29 7 3 6 14 25 15 13 9 7 22 5 1 18 9 10 5 12 3 18 21 21 11 4 4 23 6 39 -2 20 25 11 33 7 8 5 11 31 39 14 16 8 9 9 11 10 9 15 7 11 8 5 17 21 5 7 9 7 -3 8 5 3 1 7 25 18 5 13 11 6 7 13 14 4 6 3 8 4 11 2 19 4 23 18 3 6 6 6 12 11 3 1 6 10 8 2 3 3 9 9 17 16 0 5 3 7 3 5 11 10 6 27 -1 8 17 33 9 22 16 14 11 3 7 -2 3 6 8 6 14 9 17 3 16 6 8 14 6 5 34 4 3 -2 9 -2 0 0 9 1 11 2 11 20 13 3 10 4 18 -2 5 30 5 1 0 9 7 17 17 3 12 13 5 10 9 6 6 5 2 10 9 5 11 5 9 12 19 11 8 6 6 13 11 2 5 3 13 2 4 22 9 6 11 26 8 13 3 3 1 -5 45 4 14 2 4 9 3 6 41 27 5 13 12 5 5 19 21 8 12 14 3 1 15 13 44 6 4 44 20 6 7 9 15 10 6 10 7 24 6 10 14 10 8 4 5 7 15 16 8 9 7 8 13 7 1 16 11 19 10 6 14 13 5 17 51 15 15 19 6 15 15 22 12 12 5 15 16 10 14 4 9 12 4 5 6 20 17 8 10 7 6 23 26 7 15 7 4 7 9 16 3 -4 15 5 8 9 -1 21 11 28 4 14 15 2 11 9 8 21 9 18 21 7 15 14 26 7 10 8 8 14 10 12 12 7 8 -1 16 11 9 4 17 17 25 5 9 5 8 6 7 9 68 20 20 13 3 23 1 24 33 13 7 9 2 7 9 12 6 4 12 5 6 5 12 9 6 5 2 1 15 14 23 6 12 4 12 7 12 2 3 13 8 6 23 7 14 5 9 14 6 31 15 -5 6 7 13 8 11 13 6 1 7 5 17 9 10 13 7 7 10 3 9 7 0 7 6 3 6 11 9 8 11 7 4 5 9 10 9 5 8 3 41 9 4 6 12 6 34 3 4 14 8 10 6 4 23 24 4 7 8 5 50 7 4 8 17 5 7 11 1 -5 31 7 1 12 25 2 10 20 6 11 4 21 6 -2 14 7 5 16 5 3 10 9 15 7 3 12 20 5 4 15 2 8 6 0 1 1 12 9 8 14 9 16 10 20 2 9 11 11 6 3 12 6 8 24 8 28 12 4 7 9 8 9 48 3 21 13 29 11 18 14 10 7 16</t>
+    <t>4 5 28 0 9 2 4 11 2 2 -2 4 12 1 -3 1 3 1 1 4 7 5 6 2 21 3 5 0 1 9 2 0 5 10 3 5 13 7 3 6 8 2 6 3 3 5 6 3 12 2 23 2 -1 1 4 11 1 1 0 0 9 1 4 -1 8 4 5 0 2 7 4 13 2 2 7 7 2 1 -1 2 6 7 8 0 4 8 9 2 3 18 -4 8 8 2 1 4 3 3 5 1 19 5 4 7 12 3 6 0 6 29 6 3 1 1 0 17 10 5 8 4 7 3 2 1 7 34 24 22 13 5 6 12 5 1 6 -1 2 3 4 3 9 3 1 7 0 -6 -3 5 -1 13 4 3 5 -1 21 9 4 2 1 0 6 15 4 0 0 1 4 4 1 6 1 9 8 10 0 4 3 -3 0 8 4 -2 -3 4 5 -2 11 2 5 13 1 1 9 -1 5 11 3 3 3 5 5 7 2 0 3 2 5 14 15 5 2 5 -1 9 3 0 5 1 5 5 12 17 1 6 7 13 10 3 15 2 4 15 3 4 2 4 9 0 0 4 1 6 3 1 2 1 1 1 -3 0 7 8 16 2 9 4 0 5 10 -1 -2 -2 -3 -2 1 4 11 11 0 7 12 4 7 2 0 7 3 1 19 11 3 0 1 1 1 5 2 3 4 9 10 19 4 6 15 18 1 -1 1 2 5 5 6 -4 4 -1 4 28 8 0 5 1 2 4 2 0 1 0 15 5 0 -2 -1 10 11 5 5 10 5 5 -3 4 3 4 1 6 38 3 13 9 50 0 6 0 3 -4 4 1 3 10 1 5 11 4 6 6 2 1 3 4 0 6 3 15 0 3 3 4 1 -2 3 3 7 2 0 1 4 5 2 2 2 1 9 1 9 5 11 3 16 9 1 6 6 8 8 2 14 6 10 4 5 3 4 6 17 1 0 7 2 10 1 3 6 3 1 4 0 5 -1 4 2 11 5 4 33 4 5 4 4 2 13 3 2 0 5 9 1 1 4 6 9 5 4 -3 6 -3 2 7 5 1 0 2 4 4 2 25 1 8 1 -3 -1 5 2 12 2 7 4 2 2 1 8 8 1 11 8 3 3 30 5 6 1 4 2 4 2 -2 -1 5 4 3 5 2 12 -1 6 8 6 16 1 6 4 3 -2 4 14 0 1 5 3 13 1 4 4 0 7 4 2 3 4 4 3 6 -4 5 4 2 2 6 2 1 5 12 7 7 6 -1 5 11 21 5 7 7 5 0 2 0 3 1 14 3 26 5 10 -1 -1 6 1 -4 3 6 0 0 1 8 12 3 -3 1 1 5 12 2 14 3 6 1 4 5 0 1 -1 5 4 -1 -1 12 9 2 5 0 0 0 2 7 5 -5 4 3 -5 2 2 3 7 6 4 2 -2 -2 7 2 7 10 6 0 5 4 5 1 4 7 1 12 5 2 4 18 4 5 2 3 11 4 0 4 9 2 0 1 2 -4 7 15 2 1 -1 2 7 5 0 0 1 3 0 1 12 4 -5 0 11 12 0 7 4 2 1 4 2 3 3 3 3 2 0 4 1 10 4 2 0 -1 9 13 -1 3 -3 5 3 32 7 -3 8 5 9 3 13 -1 3 13 3 0 3 6 3 47 4 3 0 4 2</t>
+  </si>
+  <si>
+    <t>15 9 9 6 7 3 13 19 3 5 6 5 1 3 7 9 3 10 7 16 20 3 10 10 17 4 37 4 18 9 6 9 16 6 4 9 7 7 12 54 9 4 1 9 38 14 21 9 19 8 18 7 43 13 62 4 10 2 15 1 2 5 9 8 16 1 1 -1 8 11 16 6 6 4 21 5 29 5 37 5 23 14 4 19 18 1 4 9 11 6 11 57 4 3 21 11 9 30 9 17 32 7 13 2 3 12 -6 9 13 20 19 2 13 8 1 17 7 17 15 34 17 4 7 3 17 16 -1 13 9 18 4 28 16 47 6 10 5 10 16 8 5 4 8 8 18 10 11 -4 14 -3 7 5 7 3 9 12 46 11 15 35 6 2 4 3 7 2 9 6 14 12 5 8 17 6 9 4 5 8 14 12 1 8 3 41 11 16 19 7 6 27 13 10 5 11 26 9 55 8 50 3 11 2 2 7 22 21 8 6 7 10 6 39 5 2 12 10 13 9 19 16 11 4 9 4 8 10 9 4 10 25 5 7 11 10 11 2 3 10 8 22 10 5 -1 7 10 7 9 3 12 13 10 8 7 11 18 52 1 6 2 17 3 0 9 19 8 -2 3 31 7 5 6 24 6 6 6 4 12 18 6 21 -6 5 14 1 5 3 10 11 9 5 21 12 28 6 15 10 14 19 13 10 15 5 9 3 8 6 9 4 20 3 9 7 3 10 17 19 3 10 14 3 6 6 3 5 1 15 7 6 6 9 3 10 3 3 4 15 11 7 7 6 9 4 12 4 15 6 4 17 7 1 45 18 7 11 11 24 3 8 13 5 5 6 8 2 29 26 5 4 4 7 10 9 5 20 6 12 9 5 1 24 19 51 9 5 1 15 9 28 12 23 11 6 22 9 16 4 6 69 4 12 5 3 9 30 6 4 15 51 4 9 4 5 16 63 11 8 12 8 1 14 10 11 1 7 68 3 7 3 27 17 5 28 10 10 12 9 5 21 7 39 7 12 11 31 5 14 6 -3 19 7 17 15 -2 5 3 2 28 28 12 1 19 9 2 13 16 6 2 5 25 4 25 14 19 29 9 8 13 5 1 17 8 3 21 23 7 5 14 20 13 -1 2 27 12 -3 12 14 0 9 14 41 1 3 -4 7 7 7 2 11 7 12 21 10 84 5 -4 5 10 10 1 7 12 9 28 0 9 27 1 5 8 5 9 5 8 16 7 28 5 4 8 5 28 5 9 3 12 -6 6 28 1 9 9 7 5 7 18 8 6 -4 4 8 10 8 9 6 9 25 14 36 4 12 16 6 16 48 2 10 3 2 55 6 13 9 39 13 8 2 7 6 1 12 1 4 13 13 4 7 32 -1 4 1 0 8 10 7 12 -1 33 5 9 2 4 11 7 6 7 16 17 5 7 2 12 11 5 2 27 3 0 1 29 5 8 24 25 16 55 7 13 22 14 1 29 6 1 4</t>
+  </si>
+  <si>
+    <t>5 15 -1 5 9 -2 10 4 -1 1 2 1 4 4 10 -1 2 2 1 0 3 3 5 1 1 2 5 1 1 8 2 1 4 3 0 -1 6 2 0 -4 13 1 12 -1 7 -3 1 -1 4 4 0 1 1 7 3 2 3 1 9 9 5 6 3 2 4 4 0 7 3 5 2 11 7 4 11 -1 -1 3 10 9 5 7 -2 2 10 -2 1 3 10 8 2 10 10 3 0 0 8 3 4 2 0 6 7 6 3 16 2 3 2 3 20 7 3 4 12 -2 2 1 25 6 4 4 12 3 2 9 -1 0 0 8 4 9 5 1 -1 0 2 3 3 5 7 0 5 3 18 9 0 0 2 15 12 32 9 6 -5 3 4 5 -3 4 12 3 3 2 3 2 -1 3 1 1 3 4 1 14 2 1 6 7 7 -1 5 2 -6 1 3 2 0 1 5 3 1 1 6 3 7 -1 7 -1 1 1 17 13 6 -1 7 16 13 4 5 3 1 4 0 5 3 1 -4 2 3 6 3 3 4 2 2 3 -2 -3 8 1 2 2 12 0 0 11 0 1 8 0 20 5 13 6 6 2 1 1 0 7 2 5 4 1 -1 6 4 5 3 3 0 5 9 2 3 60 13 4 3 13 23 3 4 0 3 1 5 3 6 -1 11 4 6 0 1 -2 2 2 3 2 2 12 -3 9 -5 3 3 3 2 5 3 2 4 3 11 -1 4 9 1 2 2 4 1 4 12 -1 1 6 7 2 5 9 3 4 3 4 3 3 3 3 -2 0 1 1 7 2 14 7 23 3 4 2 5 5 -2 3 0 3 -1 8 12 6 0 7 7 0 0 3 7 8 2 -1 3 18 -4 4 3 -1 2 1 5 7 4 4 1 4 5 2 9 8 7 8 2 3 0 2 3 2 -1 -3 20 5 -3 15 5 3 4 2 2 6 6 1 8 4 5 1 1 3 6 0 6 6 5 1 0 1 6 7 4 8 9 2 -3 3 2 3 1 1 2 4 3 2 -2 4 9 4 8 3 12 1 1 7 3 8 1 -2 2 7 0 1 4 7 3 2 4 8 4 1 11 3 4 -2 9 2 6 7 0 60 3 6 2 19 0 3 8 4 4 1 0 12 4 1 4 7 1 3 1 4 8 2 2 12 2 2 9 3 4 3 6 3 -1 5 0 2 24 9 2 3 4 13 2 0 1 1 -2 2 3 5 6 9 2 7 4 2 8 4 5 5 -1 5 15 7 -1 1 6 7 2 4 3 3 6 1 7 7 1 4 3 -3 10 2 6 15 3 6 0 1 3 -1 7 5 29 8 -1 0 2 12 0 2 -1 0 4 1 5 0 -2 1 6 1 25 2 4 1 4 4 5 0 1 6 -1 10 11 2 1 4 9 3 10 5 4 -3 5 4 2 3 1 3 4 3 2 0 0 2 18 3 -1 6 2 5 -3 3 9 1 7 1 12 4 -2 4 14 4 1 3 2 4 4 3 4 8 8 1 4 3 7 4 5 3 11 5 -1 3 7 5 8 1 2 0 2 0 5 4 7 2 1 6 2 2 5 4 3 4 2 2 5 2 0 2 2 0 7 0 8 4 2 1 2 2 5 2 0 7 -1 3 0 0 6 1 2 5 4 2 7 6 3 11 4 1 2 6 7 3 8 4 5 1 0 4 3 4 4 3 1 1 0 1 5 7 3 4 4 3 10 10 2 1 6 3 0 0 7 4 1 7 5 17 1 2 0 2 2 1 -1 4 5 0 6 2 7 5 2 9 2 4 0 2 2 5 4 0 2 6 3 1 -1 4 0 1 6 5 -6 2 10 0 2 2 -1 5 2 9 0 -3 0 8 3 5 -4 7 4 3</t>
+  </si>
+  <si>
+    <t>19 12 28 0 27 15 16 11 4 5 13 10 4 44 1 11 7 19 8 12 18 18 15 13 7 4 24 4 10 12 1 2 12 -1 7 16 15 14 8 19 18 -2 16 7 26 12 17 4 9 2 49 16 3 1 20 8 -2 12 16 33 13 3 17 18 12 6 5 4 7 28 0 28 28 -6 13 22 40 5 10 -4 10 1 52 42 20 10 9 43 19 -2 10 8 3 6 2 10 6 2 4 8 8 14 9 5 9 18 15 15 26 11 17 9 3 12 21 6 5 12 1 4 17 4 9 -4 16 9 11 10 18 18 8 23 11 5 13 7 7 9 9 7 10 8 14 9 3 -5 3 25 9 10 14 3 12 11 11 6 10 0 -2 16 35 19 1 12 2 13 41 7 9 12 15 6 5 21 -4 7 18 7 8 18 13 3 6 3 11 8 11 16 7 9 7 19 8 9 13 6 2 10 14 3 -6 6 12 9 25 12 4 9 9 33 2 20 11 14 17 29 7 3 6 14 25 15 13 9 7 22 5 1 18 9 10 5 12 3 18 21 21 11 4 4 23 6 39 -2 20 25 11 33 7 8 5 11 31 39 14 16 8 9 9 11 10 9 15 7 11 8 5 17 21 5 7 9 7 -3 8 5 3 1 7 25 18 5 13 11 6 7 13 14 4 6 3 8 4 11 2 19 4 23 18 3 6 6 6 12 11 3 1 6 10 8 2 3 3 9 9 17 16 0 5 3 7 3 5 11 10 6 27 -1 8 17 33 9 22 16 14 11 3 7 -2 3 6 8 6 14 9 17 3 16 6 8 14 6 5 34 4 3 -2 9 -2 0 0 9 1 11 2 11 20 13 3 10 4 18 -2 5 30 5 1 0 9 7 17 17 3 12 13 5 10 9 6 6 5 2 10 9 5 11 5 9 12 19 11 8 6 6 13 11 2 5 3 13 2 4 22 9 6 11 26 8 13 3 3 1 -5 45 4 14 2 4 9 3 6 41 27 5 13 12 5 5 19 21 8 12 14 3 1 15 13 44 6 4 44 20 6 7 9 15 10 6 10 7 24 6 10 14 10 8 4 5 7 15 16 8 9 7 8 13 7 1 16 11 19 10 6 14 13 5 17 51 15 15 19 6 15 15 22 12 12 5 15 16 10 14 4 9 12 4 5 6 20 17 8 10 7 6 23 26 7 15 7 4 7 9 16 3 -4 15 5 8 9 -1 21 11 28 4 14 15 2 11 9 8 21 9 18 21 7 15 14 26 7 10 8 8 14 10 12 12 7 8 -1 16 11 9 4 17 17 25 5 9 5 8 6 7 9 68 20 20 13 3 23 1 24 33 13 7 9 2 7 9 12 6 4 12 5 6 5 12 9 6 5 2 1 15 14 23 6 12 4 12 7 12 2 3 13 8 6 23 7 14 5 9 14 6 31 15 -5 6 7 13 8 11 13 6 1 7 5 17 9 10 13 7 7 10 3 9 7 0 7 6 3 6 11 9 8 11 7 4 5 9 10 9 5 8 3 41 9 4 6 12 6 34 3 4 14 8 10 6 4 23 24 4 7 8 5 50 7 4 8 17 5 7 11 1 -5 31 7 1 12 25 2 10 20 6 11 4 21 6 -2 14 7 5 16 5 3 10 9 15 7 3 12 20 5 4 15 2 8 6 0 1 1 12 9 8 14 9 16 10 20 2 9 11 11 6 3 12 6 8 24 8 28 12 4 7 9 8 9 48 3 21 13 29 11 18 14 10 7 16 7 17 13 30 5 10 7 0 15 8 11 15 15 12 6 9 18 7 11 -2 19 10 7 11 9 11 12 4 17 6 18 7 2 6 8</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -167,19 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>67 67 66 70 36 62 59 69 67 62 64 62 70 67 62 64 64 66 66 66 64 66 62 60 63 65 68 61 45 61 63 62 59 61 60 58 63 63 60 70 65 69 63 68 51 64 63 65 66 66 61 55 65 66 58 55 65 66 65 66 69 64 39 68 62 61 68 60 59 55 65 62 55 58</t>
-  </si>
-  <si>
-    <t>30 24 17 28 5 20 17 21 20 18 20 16 60 20 20 17 24 25 20 11 20 20 17 18 40 23 18 66 11 20 22 20 14 26 22 11 18 26 36 22 19 19 14 19 13 19 16 24 16 26 7 21 16 25 20 12 37 19 17 33 20 15 13 25 22 32 26 0 27 12 31 12 12 23</t>
-  </si>
-  <si>
-    <t>19 24 24 44 21 9 17 6 29 20 9 21 17 17 22 32 33 49 25 20 21 25 22 23 18 28 26 27 58 24 22 7 18 21 33 18 24 22 0 0 34 38 25 17 23 13 21 24 32 23 20 27 27 27 22 23 25 33 26 19</t>
-  </si>
-  <si>
-    <t>53 44 46 48 33 54 63 50 56 52 64 52 67 45 47 34 58 35 46 48 37 39 66 48 64 39 65 48 53 40 50 57 45 49 42 38 57 56 43 46 33 37 60 66 43 40 55 40 51 57 36 52 56 51 48 47 63 61 43 52 47 53 48 59 56 57 55 71 25 49 40 36 35 66 52 40 59 46 47 43 45 50 60 34 55 62 51 50 43 31 51 52 68 57 43 24 47 42 39 65 47 65 51 32 44 50 48 44 34 41 59 46 45 36 35 51 61 53 42 60 50 52 48 55 54 38 54 50 48 50 65 36 54</t>
-  </si>
-  <si>
-    <t>0 0 0 8 0 0 12 0 7 19 0 0 6 1 0 0 11 0 0 9 0 0 0 10 20 0 0 0 11 0 0 15 6 2 0 0 7 12 0 0 0 0 0 0 11 0 0 0 11 -1 0 1 0 6 1 5 0 5 21 5 0 0 0 0 0 0 9 0 0 7 0 0 0 0 0 0 10 13 9 13 -1 10 10 0 10 12 0 0 0 0 0 11 0 6 0 0 0 0 0 14 9 0 2 0 0 0 0 13 0 0 4 9 0 0 4 0 16 8 0 0 12 0 0 0 0 0 0 8 0 0 22 0 -4</t>
+    <t>67 67 66 70 36 62 59 69 67 62 64 62 70 67 62 64 64 66 66 66 64 66 62 60 63 65 68 61 45 61 63 62 59 61 60 58 63 63 60 70 65 69 63 68 51 64 63 65 66 66 61 55 65 66 58 55 65 66 65 66 69 64 39 68 62 61 68 60 59 55 65 62 55 58 66 61 50</t>
+  </si>
+  <si>
+    <t>30 24 17 28 5 20 17 21 20 18 20 16 60 20 20 17 24 25 20 11 20 20 17 18 40 23 18 66 11 20 22 20 14 26 22 11 18 26 36 22 19 19 14 19 13 19 16 24 16 26 7 21 16 25 20 12 37 19 17 33 20 15 13 25 22 32 26 0 27 12 31 12 12 23 13 24 11</t>
+  </si>
+  <si>
+    <t>19 24 24 44 21 9 17 6 29 20 9 21 17 17 22 32 33 49 25 20 21 25 22 23 18 28 26 27 58 24 22 7 18 21 33 18 24 22 0 0 34 38 25 17 23 13 21 24 32 23 20 27 27 27 22 23 25 33 26 19 15 18 25</t>
+  </si>
+  <si>
+    <t>53 44 46 48 33 54 63 50 56 52 64 52 67 45 47 34 58 35 46 48 37 39 66 48 64 39 65 48 53 40 50 57 45 49 42 38 57 56 43 46 33 37 60 66 43 40 55 40 51 57 36 52 56 51 48 47 63 61 43 52 47 53 48 59 56 57 55 71 25 49 40 36 35 66 52 40 59 46 47 43 45 50 60 34 55 62 51 50 43 31 51 52 68 57 43 24 47 42 39 65 47 65 51 32 44 50 48 44 34 41 59 46 45 36 35 51 61 53 42 60 50 52 48 55 54 38 54 50 48 50 65 36 54 41 48 48 32</t>
+  </si>
+  <si>
+    <t>0 0 0 8 0 0 12 0 7 19 0 0 6 1 0 0 11 0 0 9 0 0 0 10 20 0 0 0 11 0 0 15 6 2 0 0 7 12 0 0 0 0 0 0 11 0 0 0 11 -1 0 1 0 6 1 5 0 5 21 5 0 0 0 0 0 0 9 0 0 7 0 0 0 0 0 0 10 13 9 13 -1 10 10 0 10 12 0 0 0 0 0 11 0 6 0 0 0 0 0 14 9 0 2 0 0 0 0 13 0 0 4 9 0 0 4 0 16 8 0 0 12 0 0 0 0 0 0 8 0 0 22 0 -4 0 2 0 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 9 22</t>
   </si>
   <si>
     <t>INT</t>
@@ -207,16 +204,13 @@
   </si>
   <si>
     <t>Offside</t>
-  </si>
-  <si>
-    <t>0 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,14 +273,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -333,7 +319,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,27 +351,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,24 +385,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -610,14 +560,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,7 +575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -636,7 +586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -653,14 +603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -710,7 +660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -718,28 +668,28 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="D2">
         <v>22</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G2">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -763,45 +713,45 @@
         <v>901</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F3">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G3">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H3">
         <v>36</v>
       </c>
       <c r="I3">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J3">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>469</v>
+        <v>497</v>
       </c>
       <c r="M3">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="N3">
         <v>52</v>
@@ -813,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>820</v>
+        <v>881</v>
       </c>
     </row>
   </sheetData>
@@ -822,14 +772,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,7 +808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -890,7 +840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -928,14 +878,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -985,7 +935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -993,28 +943,28 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G2">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H2">
         <v>6</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -1026,10 +976,10 @@
         <v>372</v>
       </c>
       <c r="N2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P2">
         <v>20</v>
@@ -1038,7 +988,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1046,37 +996,37 @@
         <v>22</v>
       </c>
       <c r="C3">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F3">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="G3">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H3">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J3">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>583</v>
+        <v>633</v>
       </c>
       <c r="M3">
-        <v>403</v>
+        <v>438</v>
       </c>
       <c r="N3">
         <v>33</v>
@@ -1088,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>992</v>
+        <v>1074</v>
       </c>
     </row>
   </sheetData>
@@ -1097,14 +1047,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1133,7 +1083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1165,7 +1115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1203,16 +1153,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1262,39 +1210,39 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B2">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L2">
         <v>60</v>
@@ -1315,12 +1263,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1329,7 +1277,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -1343,7 +1291,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1354,10 +1302,10 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -1371,28 +1319,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1409,7 +1357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1420,7 +1368,7 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -1432,14 +1380,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1450,51 +1398,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>3</v>

--- a/Base/Teams/Seahawks/Team Data.xlsx
+++ b/Base/Teams/Seahawks/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>4 5 28 0 9 2 4 11 2 2 -2 4 12 1 -3 1 3 1 1 4 7 5 6 2 21 3 5 0 1 9 2 0 5 10 3 5 13 7 3 6 8 2 6 3 3 5 6 3 12 2 23 2 -1 1 4 11 1 1 0 0 9 1 4 -1 8 4 5 0 2 7 4 13 2 2 7 7 2 1 -1 2 6 7 8 0 4 8 9 2 3 18 -4 8 8 2 1 4 3 3 5 1 19 5 4 7 12 3 6 0 6 29 6 3 1 1 0 17 10 5 8 4 7 3 2 1 7 34 24 22 13 5 6 12 5 1 6 -1 2 3 4 3 9 3 1 7 0 -6 -3 5 -1 13 4 3 5 -1 21 9 4 2 1 0 6 15 4 0 0 1 4 4 1 6 1 9 8 10 0 4 3 -3 0 8 4 -2 -3 4 5 -2 11 2 5 13 1 1 9 -1 5 11 3 3 3 5 5 7 2 0 3 2 5 14 15 5 2 5 -1 9 3 0 5 1 5 5 12 17 1 6 7 13 10 3 15 2 4 15 3 4 2 4 9 0 0 4 1 6 3 1 2 1 1 1 -3 0 7 8 16 2 9 4 0 5 10 -1 -2 -2 -3 -2 1 4 11 11 0 7 12 4 7 2 0 7 3 1 19 11 3 0 1 1 1 5 2 3 4 9 10 19 4 6 15 18 1 -1 1 2 5 5 6 -4 4 -1 4 28 8 0 5 1 2 4 2 0 1 0 15 5 0 -2 -1 10 11 5 5 10 5 5 -3 4 3 4 1 6 38 3 13 9 50 0 6 0 3 -4 4 1 3 10 1 5 11 4 6 6 2 1 3 4 0 6 3 15 0 3 3 4 1 -2 3 3 7 2 0 1 4 5 2 2 2 1 9 1 9 5 11 3 16 9 1 6 6 8 8 2 14 6 10 4 5 3 4 6 17 1 0 7 2 10 1 3 6 3 1 4 0 5 -1 4 2 11 5 4 33 4 5 4 4 2 13 3 2 0 5 9 1 1 4 6 9 5 4 -3 6 -3 2 7 5 1 0 2 4 4 2 25 1 8 1 -3 -1 5 2 12 2 7 4 2 2 1 8 8 1 11 8 3 3 30 5 6 1 4 2 4 2 -2 -1 5 4 3 5 2 12 -1 6 8 6 16 1 6 4 3 -2 4 14 0 1 5 3 13 1 4 4 0 7 4 2 3 4 4 3 6 -4 5 4 2 2 6 2 1 5 12 7 7 6 -1 5 11 21 5 7 7 5 0 2 0 3 1 14 3 26 5 10 -1 -1 6 1 -4 3 6 0 0 1 8 12 3 -3 1 1 5 12 2 14 3 6 1 4 5 0 1 -1 5 4 -1 -1 12 9 2 5 0 0 0 2 7 5 -5 4 3 -5 2 2 3 7 6 4 2 -2 -2 7 2 7 10 6 0 5 4 5 1 4 7 1 12 5 2 4 18 4 5 2 3 11 4 0 4 9 2 0 1 2 -4 7 15 2 1 -1 2 7 5 0 0 1 3 0 1 12 4 -5 0 11 12 0 7 4 2 1 4 2 3 3 3 3 2 0 4 1 10 4 2 0 -1 9 13 -1 3 -3 5 3 32 7 -3 8 5 9 3 13 -1 3 13 3 0 3 6 3 47 4 3 0 4 2</t>
-  </si>
-  <si>
-    <t>15 9 9 6 7 3 13 19 3 5 6 5 1 3 7 9 3 10 7 16 20 3 10 10 17 4 37 4 18 9 6 9 16 6 4 9 7 7 12 54 9 4 1 9 38 14 21 9 19 8 18 7 43 13 62 4 10 2 15 1 2 5 9 8 16 1 1 -1 8 11 16 6 6 4 21 5 29 5 37 5 23 14 4 19 18 1 4 9 11 6 11 57 4 3 21 11 9 30 9 17 32 7 13 2 3 12 -6 9 13 20 19 2 13 8 1 17 7 17 15 34 17 4 7 3 17 16 -1 13 9 18 4 28 16 47 6 10 5 10 16 8 5 4 8 8 18 10 11 -4 14 -3 7 5 7 3 9 12 46 11 15 35 6 2 4 3 7 2 9 6 14 12 5 8 17 6 9 4 5 8 14 12 1 8 3 41 11 16 19 7 6 27 13 10 5 11 26 9 55 8 50 3 11 2 2 7 22 21 8 6 7 10 6 39 5 2 12 10 13 9 19 16 11 4 9 4 8 10 9 4 10 25 5 7 11 10 11 2 3 10 8 22 10 5 -1 7 10 7 9 3 12 13 10 8 7 11 18 52 1 6 2 17 3 0 9 19 8 -2 3 31 7 5 6 24 6 6 6 4 12 18 6 21 -6 5 14 1 5 3 10 11 9 5 21 12 28 6 15 10 14 19 13 10 15 5 9 3 8 6 9 4 20 3 9 7 3 10 17 19 3 10 14 3 6 6 3 5 1 15 7 6 6 9 3 10 3 3 4 15 11 7 7 6 9 4 12 4 15 6 4 17 7 1 45 18 7 11 11 24 3 8 13 5 5 6 8 2 29 26 5 4 4 7 10 9 5 20 6 12 9 5 1 24 19 51 9 5 1 15 9 28 12 23 11 6 22 9 16 4 6 69 4 12 5 3 9 30 6 4 15 51 4 9 4 5 16 63 11 8 12 8 1 14 10 11 1 7 68 3 7 3 27 17 5 28 10 10 12 9 5 21 7 39 7 12 11 31 5 14 6 -3 19 7 17 15 -2 5 3 2 28 28 12 1 19 9 2 13 16 6 2 5 25 4 25 14 19 29 9 8 13 5 1 17 8 3 21 23 7 5 14 20 13 -1 2 27 12 -3 12 14 0 9 14 41 1 3 -4 7 7 7 2 11 7 12 21 10 84 5 -4 5 10 10 1 7 12 9 28 0 9 27 1 5 8 5 9 5 8 16 7 28 5 4 8 5 28 5 9 3 12 -6 6 28 1 9 9 7 5 7 18 8 6 -4 4 8 10 8 9 6 9 25 14 36 4 12 16 6 16 48 2 10 3 2 55 6 13 9 39 13 8 2 7 6 1 12 1 4 13 13 4 7 32 -1 4 1 0 8 10 7 12 -1 33 5 9 2 4 11 7 6 7 16 17 5 7 2 12 11 5 2 27 3 0 1 29 5 8 24 25 16 55 7 13 22 14 1 29 6 1 4</t>
-  </si>
-  <si>
-    <t>5 15 -1 5 9 -2 10 4 -1 1 2 1 4 4 10 -1 2 2 1 0 3 3 5 1 1 2 5 1 1 8 2 1 4 3 0 -1 6 2 0 -4 13 1 12 -1 7 -3 1 -1 4 4 0 1 1 7 3 2 3 1 9 9 5 6 3 2 4 4 0 7 3 5 2 11 7 4 11 -1 -1 3 10 9 5 7 -2 2 10 -2 1 3 10 8 2 10 10 3 0 0 8 3 4 2 0 6 7 6 3 16 2 3 2 3 20 7 3 4 12 -2 2 1 25 6 4 4 12 3 2 9 -1 0 0 8 4 9 5 1 -1 0 2 3 3 5 7 0 5 3 18 9 0 0 2 15 12 32 9 6 -5 3 4 5 -3 4 12 3 3 2 3 2 -1 3 1 1 3 4 1 14 2 1 6 7 7 -1 5 2 -6 1 3 2 0 1 5 3 1 1 6 3 7 -1 7 -1 1 1 17 13 6 -1 7 16 13 4 5 3 1 4 0 5 3 1 -4 2 3 6 3 3 4 2 2 3 -2 -3 8 1 2 2 12 0 0 11 0 1 8 0 20 5 13 6 6 2 1 1 0 7 2 5 4 1 -1 6 4 5 3 3 0 5 9 2 3 60 13 4 3 13 23 3 4 0 3 1 5 3 6 -1 11 4 6 0 1 -2 2 2 3 2 2 12 -3 9 -5 3 3 3 2 5 3 2 4 3 11 -1 4 9 1 2 2 4 1 4 12 -1 1 6 7 2 5 9 3 4 3 4 3 3 3 3 -2 0 1 1 7 2 14 7 23 3 4 2 5 5 -2 3 0 3 -1 8 12 6 0 7 7 0 0 3 7 8 2 -1 3 18 -4 4 3 -1 2 1 5 7 4 4 1 4 5 2 9 8 7 8 2 3 0 2 3 2 -1 -3 20 5 -3 15 5 3 4 2 2 6 6 1 8 4 5 1 1 3 6 0 6 6 5 1 0 1 6 7 4 8 9 2 -3 3 2 3 1 1 2 4 3 2 -2 4 9 4 8 3 12 1 1 7 3 8 1 -2 2 7 0 1 4 7 3 2 4 8 4 1 11 3 4 -2 9 2 6 7 0 60 3 6 2 19 0 3 8 4 4 1 0 12 4 1 4 7 1 3 1 4 8 2 2 12 2 2 9 3 4 3 6 3 -1 5 0 2 24 9 2 3 4 13 2 0 1 1 -2 2 3 5 6 9 2 7 4 2 8 4 5 5 -1 5 15 7 -1 1 6 7 2 4 3 3 6 1 7 7 1 4 3 -3 10 2 6 15 3 6 0 1 3 -1 7 5 29 8 -1 0 2 12 0 2 -1 0 4 1 5 0 -2 1 6 1 25 2 4 1 4 4 5 0 1 6 -1 10 11 2 1 4 9 3 10 5 4 -3 5 4 2 3 1 3 4 3 2 0 0 2 18 3 -1 6 2 5 -3 3 9 1 7 1 12 4 -2 4 14 4 1 3 2 4 4 3 4 8 8 1 4 3 7 4 5 3 11 5 -1 3 7 5 8 1 2 0 2 0 5 4 7 2 1 6 2 2 5 4 3 4 2 2 5 2 0 2 2 0 7 0 8 4 2 1 2 2 5 2 0 7 -1 3 0 0 6 1 2 5 4 2 7 6 3 11 4 1 2 6 7 3 8 4 5 1 0 4 3 4 4 3 1 1 0 1 5 7 3 4 4 3 10 10 2 1 6 3 0 0 7 4 1 7 5 17 1 2 0 2 2 1 -1 4 5 0 6 2 7 5 2 9 2 4 0 2 2 5 4 0 2 6 3 1 -1 4 0 1 6 5 -6 2 10 0 2 2 -1 5 2 9 0 -3 0 8 3 5 -4 7 4 3</t>
-  </si>
-  <si>
-    <t>19 12 28 0 27 15 16 11 4 5 13 10 4 44 1 11 7 19 8 12 18 18 15 13 7 4 24 4 10 12 1 2 12 -1 7 16 15 14 8 19 18 -2 16 7 26 12 17 4 9 2 49 16 3 1 20 8 -2 12 16 33 13 3 17 18 12 6 5 4 7 28 0 28 28 -6 13 22 40 5 10 -4 10 1 52 42 20 10 9 43 19 -2 10 8 3 6 2 10 6 2 4 8 8 14 9 5 9 18 15 15 26 11 17 9 3 12 21 6 5 12 1 4 17 4 9 -4 16 9 11 10 18 18 8 23 11 5 13 7 7 9 9 7 10 8 14 9 3 -5 3 25 9 10 14 3 12 11 11 6 10 0 -2 16 35 19 1 12 2 13 41 7 9 12 15 6 5 21 -4 7 18 7 8 18 13 3 6 3 11 8 11 16 7 9 7 19 8 9 13 6 2 10 14 3 -6 6 12 9 25 12 4 9 9 33 2 20 11 14 17 29 7 3 6 14 25 15 13 9 7 22 5 1 18 9 10 5 12 3 18 21 21 11 4 4 23 6 39 -2 20 25 11 33 7 8 5 11 31 39 14 16 8 9 9 11 10 9 15 7 11 8 5 17 21 5 7 9 7 -3 8 5 3 1 7 25 18 5 13 11 6 7 13 14 4 6 3 8 4 11 2 19 4 23 18 3 6 6 6 12 11 3 1 6 10 8 2 3 3 9 9 17 16 0 5 3 7 3 5 11 10 6 27 -1 8 17 33 9 22 16 14 11 3 7 -2 3 6 8 6 14 9 17 3 16 6 8 14 6 5 34 4 3 -2 9 -2 0 0 9 1 11 2 11 20 13 3 10 4 18 -2 5 30 5 1 0 9 7 17 17 3 12 13 5 10 9 6 6 5 2 10 9 5 11 5 9 12 19 11 8 6 6 13 11 2 5 3 13 2 4 22 9 6 11 26 8 13 3 3 1 -5 45 4 14 2 4 9 3 6 41 27 5 13 12 5 5 19 21 8 12 14 3 1 15 13 44 6 4 44 20 6 7 9 15 10 6 10 7 24 6 10 14 10 8 4 5 7 15 16 8 9 7 8 13 7 1 16 11 19 10 6 14 13 5 17 51 15 15 19 6 15 15 22 12 12 5 15 16 10 14 4 9 12 4 5 6 20 17 8 10 7 6 23 26 7 15 7 4 7 9 16 3 -4 15 5 8 9 -1 21 11 28 4 14 15 2 11 9 8 21 9 18 21 7 15 14 26 7 10 8 8 14 10 12 12 7 8 -1 16 11 9 4 17 17 25 5 9 5 8 6 7 9 68 20 20 13 3 23 1 24 33 13 7 9 2 7 9 12 6 4 12 5 6 5 12 9 6 5 2 1 15 14 23 6 12 4 12 7 12 2 3 13 8 6 23 7 14 5 9 14 6 31 15 -5 6 7 13 8 11 13 6 1 7 5 17 9 10 13 7 7 10 3 9 7 0 7 6 3 6 11 9 8 11 7 4 5 9 10 9 5 8 3 41 9 4 6 12 6 34 3 4 14 8 10 6 4 23 24 4 7 8 5 50 7 4 8 17 5 7 11 1 -5 31 7 1 12 25 2 10 20 6 11 4 21 6 -2 14 7 5 16 5 3 10 9 15 7 3 12 20 5 4 15 2 8 6 0 1 1 12 9 8 14 9 16 10 20 2 9 11 11 6 3 12 6 8 24 8 28 12 4 7 9 8 9 48 3 21 13 29 11 18 14 10 7 16 7 17 13 30 5 10 7 0 15 8 11 15 15 12 6 9 18 7 11 -2 19 10 7 11 9 11 12 4 17 6 18 7 2 6 8</t>
+    <t>4 5 28 0 9 2 4 11 2 2 -2 4 12 1 -3 1 3 1 1 4 7 5 6 2 21 3 5 0 1 9 2 0 5 10 3 5 13 7 3 6 8 2 6 3 3 5 6 3 12 2 23 2 -1 1 4 11 1 1 0 0 9 1 4 -1 8 4 5 0 2 7 4 13 2 2 7 7 2 1 -1 2 6 7 8 0 4 8 9 2 3 18 -4 8 8 2 1 4 3 3 5 1 19 5 4 7 12 3 6 0 6 29 6 3 1 1 0 17 10 5 8 4 7 3 2 1 7 34 24 22 13 5 6 12 5 1 6 -1 2 3 4 3 9 3 1 7 0 -6 -3 5 -1 13 4 3 5 -1 21 9 4 2 1 0 6 15 4 0 0 1 4 4 1 6 1 9 8 10 0 4 3 -3 0 8 4 -2 -3 4 5 -2 11 2 5 13 1 1 9 -1 5 11 3 3 3 5 5 7 2 0 3 2 5 14 15 5 2 5 -1 9 3 0 5 1 5 5 12 17 1 6 7 13 10 3 15 2 4 15 3 4 2 4 9 0 0 4 1 6 3 1 2 1 1 1 -3 0 7 8 16 2 9 4 0 5 10 -1 -2 -2 -3 -2 1 4 11 11 0 7 12 4 7 2 0 7 3 1 19 11 3 0 1 1 1 5 2 3 4 9 10 19 4 6 15 18 1 -1 1 2 5 5 6 -4 4 -1 4 28 8 0 5 1 2 4 2 0 1 0 15 5 0 -2 -1 10 11 5 5 10 5 5 -3 4 3 4 1 6 38 3 13 9 50 0 6 0 3 -4 4 1 3 10 1 5 11 4 6 6 2 1 3 4 0 6 3 15 0 3 3 4 1 -2 3 3 7 2 0 1 4 5 2 2 2 1 9 1 9 5 11 3 16 9 1 6 6 8 8 2 14 6 10 4 5 3 4 6 17 1 0 7 2 10 1 3 6 3 1 4 0 5 -1 4 2 11 5 4 33 4 5 4 4 2 13 3 2 0 5 9 1 1 4 6 9 5 4 -3 6 -3 2 7 5 1 0 2 4 4 2 25 1 8 1 -3 -1 5 2 12 2 7 4 2 2 1 8 8 1 11 8 3 3 30 5 6 1 4 2 4 2 -2 -1 5 4 3 5 2 12 -1 6 8 6 16 1 6 4 3 -2 4 14 0 1 5 3 13 1 4 4 0 7 4 2 3 4 4 3 6 -4 5 4 2 2 6 2 1 5 12 7 7 6 -1 5 11 21 5 7 7 5 0 2 0 3 1 14 3 26 5 10 -1 -1 6 1 -4 3 6 0 0 1 8 12 3 -3 1 1 5 12 2 14 3 6 1 4 5 0 1 -1 5 4 -1 -1 12 9 2 5 0 0 0 2 7 5 -5 4 3 -5 2 2 3 7 6 4 2 -2 -2 7 2 7 10 6 0 5 4 5 1 4 7 1 12 5 2 4 18 4 5 2 3 11 4 0 4 9 2 0 1 2 -4 7 15 2 1 -1 2 7 5 0 0 1 3 0 1 12 4 -5 0 11 12 0 7 4 2 1 4 2 3 3 3 3 2 0 4 1 10 4 2 0 -1 9 13 -1 3 -3 5 3 32 7 -3 8 5 9 3 13 -1 3 13 3 0 3 6 3 47 4 3 0 4 2 10 2 2 1 7 6 7 6 1 8 4 2 8 4 2 2 4 5 -1</t>
+  </si>
+  <si>
+    <t>15 9 9 6 7 3 13 19 3 5 6 5 1 3 7 9 3 10 7 16 20 3 10 10 17 4 37 4 18 9 6 9 16 6 4 9 7 7 12 54 9 4 1 9 38 14 21 9 19 8 18 7 43 13 62 4 10 2 15 1 2 5 9 8 16 1 1 -1 8 11 16 6 6 4 21 5 29 5 37 5 23 14 4 19 18 1 4 9 11 6 11 57 4 3 21 11 9 30 9 17 32 7 13 2 3 12 -6 9 13 20 19 2 13 8 1 17 7 17 15 34 17 4 7 3 17 16 -1 13 9 18 4 28 16 47 6 10 5 10 16 8 5 4 8 8 18 10 11 -4 14 -3 7 5 7 3 9 12 46 11 15 35 6 2 4 3 7 2 9 6 14 12 5 8 17 6 9 4 5 8 14 12 1 8 3 41 11 16 19 7 6 27 13 10 5 11 26 9 55 8 50 3 11 2 2 7 22 21 8 6 7 10 6 39 5 2 12 10 13 9 19 16 11 4 9 4 8 10 9 4 10 25 5 7 11 10 11 2 3 10 8 22 10 5 -1 7 10 7 9 3 12 13 10 8 7 11 18 52 1 6 2 17 3 0 9 19 8 -2 3 31 7 5 6 24 6 6 6 4 12 18 6 21 -6 5 14 1 5 3 10 11 9 5 21 12 28 6 15 10 14 19 13 10 15 5 9 3 8 6 9 4 20 3 9 7 3 10 17 19 3 10 14 3 6 6 3 5 1 15 7 6 6 9 3 10 3 3 4 15 11 7 7 6 9 4 12 4 15 6 4 17 7 1 45 18 7 11 11 24 3 8 13 5 5 6 8 2 29 26 5 4 4 7 10 9 5 20 6 12 9 5 1 24 19 51 9 5 1 15 9 28 12 23 11 6 22 9 16 4 6 69 4 12 5 3 9 30 6 4 15 51 4 9 4 5 16 63 11 8 12 8 1 14 10 11 1 7 68 3 7 3 27 17 5 28 10 10 12 9 5 21 7 39 7 12 11 31 5 14 6 -3 19 7 17 15 -2 5 3 2 28 28 12 1 19 9 2 13 16 6 2 5 25 4 25 14 19 29 9 8 13 5 1 17 8 3 21 23 7 5 14 20 13 -1 2 27 12 -3 12 14 0 9 14 41 1 3 -4 7 7 7 2 11 7 12 21 10 84 5 -4 5 10 10 1 7 12 9 28 0 9 27 1 5 8 5 9 5 8 16 7 28 5 4 8 5 28 5 9 3 12 -6 6 28 1 9 9 7 5 7 18 8 6 -4 4 8 10 8 9 6 9 25 14 36 4 12 16 6 16 48 2 10 3 2 55 6 13 9 39 13 8 2 7 6 1 12 1 4 13 13 4 7 32 -1 4 1 0 8 10 7 12 -1 33 5 9 2 4 11 7 6 7 16 17 5 7 2 12 11 5 2 27 3 0 1 29 5 8 24 25 16 55 7 13 22 14 1 29 6 1 4 6 7 -5 9 4 11 9 34 9 25 12 3 3 2 9 7 11</t>
+  </si>
+  <si>
+    <t>5 15 -1 5 9 -2 10 4 -1 1 2 1 4 4 10 -1 2 2 1 0 3 3 5 1 1 2 5 1 1 8 2 1 4 3 0 -1 6 2 0 -4 13 1 12 -1 7 -3 1 -1 4 4 0 1 1 7 3 2 3 1 9 9 5 6 3 2 4 4 0 7 3 5 2 11 7 4 11 -1 -1 3 10 9 5 7 -2 2 10 -2 1 3 10 8 2 10 10 3 0 0 8 3 4 2 0 6 7 6 3 16 2 3 2 3 20 7 3 4 12 -2 2 1 25 6 4 4 12 3 2 9 -1 0 0 8 4 9 5 1 -1 0 2 3 3 5 7 0 5 3 18 9 0 0 2 15 12 32 9 6 -5 3 4 5 -3 4 12 3 3 2 3 2 -1 3 1 1 3 4 1 14 2 1 6 7 7 -1 5 2 -6 1 3 2 0 1 5 3 1 1 6 3 7 -1 7 -1 1 1 17 13 6 -1 7 16 13 4 5 3 1 4 0 5 3 1 -4 2 3 6 3 3 4 2 2 3 -2 -3 8 1 2 2 12 0 0 11 0 1 8 0 20 5 13 6 6 2 1 1 0 7 2 5 4 1 -1 6 4 5 3 3 0 5 9 2 3 60 13 4 3 13 23 3 4 0 3 1 5 3 6 -1 11 4 6 0 1 -2 2 2 3 2 2 12 -3 9 -5 3 3 3 2 5 3 2 4 3 11 -1 4 9 1 2 2 4 1 4 12 -1 1 6 7 2 5 9 3 4 3 4 3 3 3 3 -2 0 1 1 7 2 14 7 23 3 4 2 5 5 -2 3 0 3 -1 8 12 6 0 7 7 0 0 3 7 8 2 -1 3 18 -4 4 3 -1 2 1 5 7 4 4 1 4 5 2 9 8 7 8 2 3 0 2 3 2 -1 -3 20 5 -3 15 5 3 4 2 2 6 6 1 8 4 5 1 1 3 6 0 6 6 5 1 0 1 6 7 4 8 9 2 -3 3 2 3 1 1 2 4 3 2 -2 4 9 4 8 3 12 1 1 7 3 8 1 -2 2 7 0 1 4 7 3 2 4 8 4 1 11 3 4 -2 9 2 6 7 0 60 3 6 2 19 0 3 8 4 4 1 0 12 4 1 4 7 1 3 1 4 8 2 2 12 2 2 9 3 4 3 6 3 -1 5 0 2 24 9 2 3 4 13 2 0 1 1 -2 2 3 5 6 9 2 7 4 2 8 4 5 5 -1 5 15 7 -1 1 6 7 2 4 3 3 6 1 7 7 1 4 3 -3 10 2 6 15 3 6 0 1 3 -1 7 5 29 8 -1 0 2 12 0 2 -1 0 4 1 5 0 -2 1 6 1 25 2 4 1 4 4 5 0 1 6 -1 10 11 2 1 4 9 3 10 5 4 -3 5 4 2 3 1 3 4 3 2 0 0 2 18 3 -1 6 2 5 -3 3 9 1 7 1 12 4 -2 4 14 4 1 3 2 4 4 3 4 8 8 1 4 3 7 4 5 3 11 5 -1 3 7 5 8 1 2 0 2 0 5 4 7 2 1 6 2 2 5 4 3 4 2 2 5 2 0 2 2 0 7 0 8 4 2 1 2 2 5 2 0 7 -1 3 0 0 6 1 2 5 4 2 7 6 3 11 4 1 2 6 7 3 8 4 5 1 0 4 3 4 4 3 1 1 0 1 5 7 3 4 4 3 10 10 2 1 6 3 0 0 7 4 1 7 5 17 1 2 0 2 2 1 -1 4 5 0 6 2 7 5 2 9 2 4 0 2 2 5 4 0 2 6 3 1 -1 4 0 1 6 5 -6 2 10 0 2 2 -1 5 2 9 0 -3 0 8 3 5 -4 7 4 3 5 2 10 0 -2 1 4 1 2 6 1 2 3 9 39 0 0 6 6 10 3 0 17 1 -4 4</t>
+  </si>
+  <si>
+    <t>19 12 28 0 27 15 16 11 4 5 13 10 4 44 1 11 7 19 8 12 18 18 15 13 7 4 24 4 10 12 1 2 12 -1 7 16 15 14 8 19 18 -2 16 7 26 12 17 4 9 2 49 16 3 1 20 8 -2 12 16 33 13 3 17 18 12 6 5 4 7 28 0 28 28 -6 13 22 40 5 10 -4 10 1 52 42 20 10 9 43 19 -2 10 8 3 6 2 10 6 2 4 8 8 14 9 5 9 18 15 15 26 11 17 9 3 12 21 6 5 12 1 4 17 4 9 -4 16 9 11 10 18 18 8 23 11 5 13 7 7 9 9 7 10 8 14 9 3 -5 3 25 9 10 14 3 12 11 11 6 10 0 -2 16 35 19 1 12 2 13 41 7 9 12 15 6 5 21 -4 7 18 7 8 18 13 3 6 3 11 8 11 16 7 9 7 19 8 9 13 6 2 10 14 3 -6 6 12 9 25 12 4 9 9 33 2 20 11 14 17 29 7 3 6 14 25 15 13 9 7 22 5 1 18 9 10 5 12 3 18 21 21 11 4 4 23 6 39 -2 20 25 11 33 7 8 5 11 31 39 14 16 8 9 9 11 10 9 15 7 11 8 5 17 21 5 7 9 7 -3 8 5 3 1 7 25 18 5 13 11 6 7 13 14 4 6 3 8 4 11 2 19 4 23 18 3 6 6 6 12 11 3 1 6 10 8 2 3 3 9 9 17 16 0 5 3 7 3 5 11 10 6 27 -1 8 17 33 9 22 16 14 11 3 7 -2 3 6 8 6 14 9 17 3 16 6 8 14 6 5 34 4 3 -2 9 -2 0 0 9 1 11 2 11 20 13 3 10 4 18 -2 5 30 5 1 0 9 7 17 17 3 12 13 5 10 9 6 6 5 2 10 9 5 11 5 9 12 19 11 8 6 6 13 11 2 5 3 13 2 4 22 9 6 11 26 8 13 3 3 1 -5 45 4 14 2 4 9 3 6 41 27 5 13 12 5 5 19 21 8 12 14 3 1 15 13 44 6 4 44 20 6 7 9 15 10 6 10 7 24 6 10 14 10 8 4 5 7 15 16 8 9 7 8 13 7 1 16 11 19 10 6 14 13 5 17 51 15 15 19 6 15 15 22 12 12 5 15 16 10 14 4 9 12 4 5 6 20 17 8 10 7 6 23 26 7 15 7 4 7 9 16 3 -4 15 5 8 9 -1 21 11 28 4 14 15 2 11 9 8 21 9 18 21 7 15 14 26 7 10 8 8 14 10 12 12 7 8 -1 16 11 9 4 17 17 25 5 9 5 8 6 7 9 68 20 20 13 3 23 1 24 33 13 7 9 2 7 9 12 6 4 12 5 6 5 12 9 6 5 2 1 15 14 23 6 12 4 12 7 12 2 3 13 8 6 23 7 14 5 9 14 6 31 15 -5 6 7 13 8 11 13 6 1 7 5 17 9 10 13 7 7 10 3 9 7 0 7 6 3 6 11 9 8 11 7 4 5 9 10 9 5 8 3 41 9 4 6 12 6 34 3 4 14 8 10 6 4 23 24 4 7 8 5 50 7 4 8 17 5 7 11 1 -5 31 7 1 12 25 2 10 20 6 11 4 21 6 -2 14 7 5 16 5 3 10 9 15 7 3 12 20 5 4 15 2 8 6 0 1 1 12 9 8 14 9 16 10 20 2 9 11 11 6 3 12 6 8 24 8 28 12 4 7 9 8 9 48 3 21 13 29 11 18 14 10 7 16 7 17 13 30 5 10 7 0 15 8 11 15 15 12 6 9 18 7 11 -2 19 10 7 11 9 11 12 4 17 6 18 7 2 6 8 7 0 1 14 18 5 11 12 9 9 3 2 42 5 32 6 -1 24 5 11 29</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>67 67 66 70 36 62 59 69 67 62 64 62 70 67 62 64 64 66 66 66 64 66 62 60 63 65 68 61 45 61 63 62 59 61 60 58 63 63 60 70 65 69 63 68 51 64 63 65 66 66 61 55 65 66 58 55 65 66 65 66 69 64 39 68 62 61 68 60 59 55 65 62 55 58 66 61 50</t>
-  </si>
-  <si>
-    <t>30 24 17 28 5 20 17 21 20 18 20 16 60 20 20 17 24 25 20 11 20 20 17 18 40 23 18 66 11 20 22 20 14 26 22 11 18 26 36 22 19 19 14 19 13 19 16 24 16 26 7 21 16 25 20 12 37 19 17 33 20 15 13 25 22 32 26 0 27 12 31 12 12 23 13 24 11</t>
+    <t>67 67 66 70 36 62 59 69 67 62 64 62 70 67 62 64 64 66 66 66 64 66 62 60 63 65 68 61 45 61 63 62 59 61 60 58 63 63 60 70 65 69 63 68 51 64 63 65 66 66 61 55 65 66 58 55 65 66 65 66 69 64 39 68 62 61 68 60 59 55 65 62 55 58 66 61 50 63 65</t>
+  </si>
+  <si>
+    <t>30 24 17 28 5 20 17 21 20 18 20 16 60 20 20 17 24 25 20 11 20 20 17 18 40 23 18 66 11 20 22 20 14 26 22 11 18 26 36 22 19 19 14 19 13 19 16 24 16 26 7 21 16 25 20 12 37 19 17 33 20 15 13 25 22 32 26 0 27 12 31 12 12 23 13 24 11 32 14</t>
   </si>
   <si>
     <t>19 24 24 44 21 9 17 6 29 20 9 21 17 17 22 32 33 49 25 20 21 25 22 23 18 28 26 27 58 24 22 7 18 21 33 18 24 22 0 0 34 38 25 17 23 13 21 24 32 23 20 27 27 27 22 23 25 33 26 19 15 18 25</t>
   </si>
   <si>
-    <t>53 44 46 48 33 54 63 50 56 52 64 52 67 45 47 34 58 35 46 48 37 39 66 48 64 39 65 48 53 40 50 57 45 49 42 38 57 56 43 46 33 37 60 66 43 40 55 40 51 57 36 52 56 51 48 47 63 61 43 52 47 53 48 59 56 57 55 71 25 49 40 36 35 66 52 40 59 46 47 43 45 50 60 34 55 62 51 50 43 31 51 52 68 57 43 24 47 42 39 65 47 65 51 32 44 50 48 44 34 41 59 46 45 36 35 51 61 53 42 60 50 52 48 55 54 38 54 50 48 50 65 36 54 41 48 48 32</t>
-  </si>
-  <si>
-    <t>0 0 0 8 0 0 12 0 7 19 0 0 6 1 0 0 11 0 0 9 0 0 0 10 20 0 0 0 11 0 0 15 6 2 0 0 7 12 0 0 0 0 0 0 11 0 0 0 11 -1 0 1 0 6 1 5 0 5 21 5 0 0 0 0 0 0 9 0 0 7 0 0 0 0 0 0 10 13 9 13 -1 10 10 0 10 12 0 0 0 0 0 11 0 6 0 0 0 0 0 14 9 0 2 0 0 0 0 13 0 0 4 9 0 0 4 0 16 8 0 0 12 0 0 0 0 0 0 8 0 0 22 0 -4 0 2 0 0</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 9 22</t>
+    <t>53 44 46 48 33 54 63 50 56 52 64 52 67 45 47 34 58 35 46 48 37 39 66 48 64 39 65 48 53 40 50 57 45 49 42 38 57 56 43 46 33 37 60 66 43 40 55 40 51 57 36 52 56 51 48 47 63 61 43 52 47 53 48 59 56 57 55 71 25 49 40 36 35 66 52 40 59 46 47 43 45 50 60 34 55 62 51 50 43 31 51 52 68 57 43 24 47 42 39 65 47 65 51 32 44 50 48 44 34 41 59 46 45 36 35 51 61 53 42 60 50 52 48 55 54 38 54 50 48 50 65 36 54 41 48 48 32 40 47 54 59 48 49</t>
+  </si>
+  <si>
+    <t>0 0 0 8 0 0 12 0 7 19 0 0 6 1 0 0 11 0 0 9 0 0 0 10 20 0 0 0 11 0 0 15 6 2 0 0 7 12 0 0 0 0 0 0 11 0 0 0 11 -1 0 1 0 6 1 5 0 5 21 5 0 0 0 0 0 0 9 0 0 7 0 0 0 0 0 0 10 13 9 13 -1 10 10 0 10 12 0 0 0 0 0 11 0 6 0 0 0 0 0 14 9 0 2 0 0 0 0 13 0 0 4 9 0 0 4 0 16 8 0 0 12 0 0 0 0 0 0 8 0 0 22 0 -4 0 2 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 9 22 9 5 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="D2">
         <v>22</v>
@@ -677,10 +677,10 @@
         <v>21</v>
       </c>
       <c r="F2">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H2">
         <v>18</v>
@@ -689,7 +689,7 @@
         <v>11</v>
       </c>
       <c r="J2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,10 +701,10 @@
         <v>321</v>
       </c>
       <c r="N2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2">
         <v>12</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F3">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G3">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H3">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I3">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J3">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>497</v>
+        <v>528</v>
       </c>
       <c r="M3">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="N3">
         <v>52</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>881</v>
+        <v>940</v>
       </c>
     </row>
   </sheetData>
@@ -943,28 +943,28 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="D2">
         <v>24</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,10 +976,10 @@
         <v>372</v>
       </c>
       <c r="N2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P2">
         <v>20</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F3">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G3">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H3">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J3">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>633</v>
+        <v>662</v>
       </c>
       <c r="M3">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="N3">
         <v>33</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>1074</v>
+        <v>1136</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -1239,10 +1239,10 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2">
         <v>60</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,13 +1362,13 @@
         <v>26</v>
       </c>
       <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
         <v>11</v>
       </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
       <c r="D3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,13 +1417,13 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Seahawks/Team Data.xlsx
+++ b/Base/Teams/Seahawks/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>4 5 28 0 9 2 4 11 2 2 -2 4 12 1 -3 1 3 1 1 4 7 5 6 2 21 3 5 0 1 9 2 0 5 10 3 5 13 7 3 6 8 2 6 3 3 5 6 3 12 2 23 2 -1 1 4 11 1 1 0 0 9 1 4 -1 8 4 5 0 2 7 4 13 2 2 7 7 2 1 -1 2 6 7 8 0 4 8 9 2 3 18 -4 8 8 2 1 4 3 3 5 1 19 5 4 7 12 3 6 0 6 29 6 3 1 1 0 17 10 5 8 4 7 3 2 1 7 34 24 22 13 5 6 12 5 1 6 -1 2 3 4 3 9 3 1 7 0 -6 -3 5 -1 13 4 3 5 -1 21 9 4 2 1 0 6 15 4 0 0 1 4 4 1 6 1 9 8 10 0 4 3 -3 0 8 4 -2 -3 4 5 -2 11 2 5 13 1 1 9 -1 5 11 3 3 3 5 5 7 2 0 3 2 5 14 15 5 2 5 -1 9 3 0 5 1 5 5 12 17 1 6 7 13 10 3 15 2 4 15 3 4 2 4 9 0 0 4 1 6 3 1 2 1 1 1 -3 0 7 8 16 2 9 4 0 5 10 -1 -2 -2 -3 -2 1 4 11 11 0 7 12 4 7 2 0 7 3 1 19 11 3 0 1 1 1 5 2 3 4 9 10 19 4 6 15 18 1 -1 1 2 5 5 6 -4 4 -1 4 28 8 0 5 1 2 4 2 0 1 0 15 5 0 -2 -1 10 11 5 5 10 5 5 -3 4 3 4 1 6 38 3 13 9 50 0 6 0 3 -4 4 1 3 10 1 5 11 4 6 6 2 1 3 4 0 6 3 15 0 3 3 4 1 -2 3 3 7 2 0 1 4 5 2 2 2 1 9 1 9 5 11 3 16 9 1 6 6 8 8 2 14 6 10 4 5 3 4 6 17 1 0 7 2 10 1 3 6 3 1 4 0 5 -1 4 2 11 5 4 33 4 5 4 4 2 13 3 2 0 5 9 1 1 4 6 9 5 4 -3 6 -3 2 7 5 1 0 2 4 4 2 25 1 8 1 -3 -1 5 2 12 2 7 4 2 2 1 8 8 1 11 8 3 3 30 5 6 1 4 2 4 2 -2 -1 5 4 3 5 2 12 -1 6 8 6 16 1 6 4 3 -2 4 14 0 1 5 3 13 1 4 4 0 7 4 2 3 4 4 3 6 -4 5 4 2 2 6 2 1 5 12 7 7 6 -1 5 11 21 5 7 7 5 0 2 0 3 1 14 3 26 5 10 -1 -1 6 1 -4 3 6 0 0 1 8 12 3 -3 1 1 5 12 2 14 3 6 1 4 5 0 1 -1 5 4 -1 -1 12 9 2 5 0 0 0 2 7 5 -5 4 3 -5 2 2 3 7 6 4 2 -2 -2 7 2 7 10 6 0 5 4 5 1 4 7 1 12 5 2 4 18 4 5 2 3 11 4 0 4 9 2 0 1 2 -4 7 15 2 1 -1 2 7 5 0 0 1 3 0 1 12 4 -5 0 11 12 0 7 4 2 1 4 2 3 3 3 3 2 0 4 1 10 4 2 0 -1 9 13 -1 3 -3 5 3 32 7 -3 8 5 9 3 13 -1 3 13 3 0 3 6 3 47 4 3 0 4 2 10 2 2 1 7 6 7 6 1 8 4 2 8 4 2 2 4 5 -1</t>
-  </si>
-  <si>
-    <t>15 9 9 6 7 3 13 19 3 5 6 5 1 3 7 9 3 10 7 16 20 3 10 10 17 4 37 4 18 9 6 9 16 6 4 9 7 7 12 54 9 4 1 9 38 14 21 9 19 8 18 7 43 13 62 4 10 2 15 1 2 5 9 8 16 1 1 -1 8 11 16 6 6 4 21 5 29 5 37 5 23 14 4 19 18 1 4 9 11 6 11 57 4 3 21 11 9 30 9 17 32 7 13 2 3 12 -6 9 13 20 19 2 13 8 1 17 7 17 15 34 17 4 7 3 17 16 -1 13 9 18 4 28 16 47 6 10 5 10 16 8 5 4 8 8 18 10 11 -4 14 -3 7 5 7 3 9 12 46 11 15 35 6 2 4 3 7 2 9 6 14 12 5 8 17 6 9 4 5 8 14 12 1 8 3 41 11 16 19 7 6 27 13 10 5 11 26 9 55 8 50 3 11 2 2 7 22 21 8 6 7 10 6 39 5 2 12 10 13 9 19 16 11 4 9 4 8 10 9 4 10 25 5 7 11 10 11 2 3 10 8 22 10 5 -1 7 10 7 9 3 12 13 10 8 7 11 18 52 1 6 2 17 3 0 9 19 8 -2 3 31 7 5 6 24 6 6 6 4 12 18 6 21 -6 5 14 1 5 3 10 11 9 5 21 12 28 6 15 10 14 19 13 10 15 5 9 3 8 6 9 4 20 3 9 7 3 10 17 19 3 10 14 3 6 6 3 5 1 15 7 6 6 9 3 10 3 3 4 15 11 7 7 6 9 4 12 4 15 6 4 17 7 1 45 18 7 11 11 24 3 8 13 5 5 6 8 2 29 26 5 4 4 7 10 9 5 20 6 12 9 5 1 24 19 51 9 5 1 15 9 28 12 23 11 6 22 9 16 4 6 69 4 12 5 3 9 30 6 4 15 51 4 9 4 5 16 63 11 8 12 8 1 14 10 11 1 7 68 3 7 3 27 17 5 28 10 10 12 9 5 21 7 39 7 12 11 31 5 14 6 -3 19 7 17 15 -2 5 3 2 28 28 12 1 19 9 2 13 16 6 2 5 25 4 25 14 19 29 9 8 13 5 1 17 8 3 21 23 7 5 14 20 13 -1 2 27 12 -3 12 14 0 9 14 41 1 3 -4 7 7 7 2 11 7 12 21 10 84 5 -4 5 10 10 1 7 12 9 28 0 9 27 1 5 8 5 9 5 8 16 7 28 5 4 8 5 28 5 9 3 12 -6 6 28 1 9 9 7 5 7 18 8 6 -4 4 8 10 8 9 6 9 25 14 36 4 12 16 6 16 48 2 10 3 2 55 6 13 9 39 13 8 2 7 6 1 12 1 4 13 13 4 7 32 -1 4 1 0 8 10 7 12 -1 33 5 9 2 4 11 7 6 7 16 17 5 7 2 12 11 5 2 27 3 0 1 29 5 8 24 25 16 55 7 13 22 14 1 29 6 1 4 6 7 -5 9 4 11 9 34 9 25 12 3 3 2 9 7 11</t>
-  </si>
-  <si>
-    <t>5 15 -1 5 9 -2 10 4 -1 1 2 1 4 4 10 -1 2 2 1 0 3 3 5 1 1 2 5 1 1 8 2 1 4 3 0 -1 6 2 0 -4 13 1 12 -1 7 -3 1 -1 4 4 0 1 1 7 3 2 3 1 9 9 5 6 3 2 4 4 0 7 3 5 2 11 7 4 11 -1 -1 3 10 9 5 7 -2 2 10 -2 1 3 10 8 2 10 10 3 0 0 8 3 4 2 0 6 7 6 3 16 2 3 2 3 20 7 3 4 12 -2 2 1 25 6 4 4 12 3 2 9 -1 0 0 8 4 9 5 1 -1 0 2 3 3 5 7 0 5 3 18 9 0 0 2 15 12 32 9 6 -5 3 4 5 -3 4 12 3 3 2 3 2 -1 3 1 1 3 4 1 14 2 1 6 7 7 -1 5 2 -6 1 3 2 0 1 5 3 1 1 6 3 7 -1 7 -1 1 1 17 13 6 -1 7 16 13 4 5 3 1 4 0 5 3 1 -4 2 3 6 3 3 4 2 2 3 -2 -3 8 1 2 2 12 0 0 11 0 1 8 0 20 5 13 6 6 2 1 1 0 7 2 5 4 1 -1 6 4 5 3 3 0 5 9 2 3 60 13 4 3 13 23 3 4 0 3 1 5 3 6 -1 11 4 6 0 1 -2 2 2 3 2 2 12 -3 9 -5 3 3 3 2 5 3 2 4 3 11 -1 4 9 1 2 2 4 1 4 12 -1 1 6 7 2 5 9 3 4 3 4 3 3 3 3 -2 0 1 1 7 2 14 7 23 3 4 2 5 5 -2 3 0 3 -1 8 12 6 0 7 7 0 0 3 7 8 2 -1 3 18 -4 4 3 -1 2 1 5 7 4 4 1 4 5 2 9 8 7 8 2 3 0 2 3 2 -1 -3 20 5 -3 15 5 3 4 2 2 6 6 1 8 4 5 1 1 3 6 0 6 6 5 1 0 1 6 7 4 8 9 2 -3 3 2 3 1 1 2 4 3 2 -2 4 9 4 8 3 12 1 1 7 3 8 1 -2 2 7 0 1 4 7 3 2 4 8 4 1 11 3 4 -2 9 2 6 7 0 60 3 6 2 19 0 3 8 4 4 1 0 12 4 1 4 7 1 3 1 4 8 2 2 12 2 2 9 3 4 3 6 3 -1 5 0 2 24 9 2 3 4 13 2 0 1 1 -2 2 3 5 6 9 2 7 4 2 8 4 5 5 -1 5 15 7 -1 1 6 7 2 4 3 3 6 1 7 7 1 4 3 -3 10 2 6 15 3 6 0 1 3 -1 7 5 29 8 -1 0 2 12 0 2 -1 0 4 1 5 0 -2 1 6 1 25 2 4 1 4 4 5 0 1 6 -1 10 11 2 1 4 9 3 10 5 4 -3 5 4 2 3 1 3 4 3 2 0 0 2 18 3 -1 6 2 5 -3 3 9 1 7 1 12 4 -2 4 14 4 1 3 2 4 4 3 4 8 8 1 4 3 7 4 5 3 11 5 -1 3 7 5 8 1 2 0 2 0 5 4 7 2 1 6 2 2 5 4 3 4 2 2 5 2 0 2 2 0 7 0 8 4 2 1 2 2 5 2 0 7 -1 3 0 0 6 1 2 5 4 2 7 6 3 11 4 1 2 6 7 3 8 4 5 1 0 4 3 4 4 3 1 1 0 1 5 7 3 4 4 3 10 10 2 1 6 3 0 0 7 4 1 7 5 17 1 2 0 2 2 1 -1 4 5 0 6 2 7 5 2 9 2 4 0 2 2 5 4 0 2 6 3 1 -1 4 0 1 6 5 -6 2 10 0 2 2 -1 5 2 9 0 -3 0 8 3 5 -4 7 4 3 5 2 10 0 -2 1 4 1 2 6 1 2 3 9 39 0 0 6 6 10 3 0 17 1 -4 4</t>
-  </si>
-  <si>
-    <t>19 12 28 0 27 15 16 11 4 5 13 10 4 44 1 11 7 19 8 12 18 18 15 13 7 4 24 4 10 12 1 2 12 -1 7 16 15 14 8 19 18 -2 16 7 26 12 17 4 9 2 49 16 3 1 20 8 -2 12 16 33 13 3 17 18 12 6 5 4 7 28 0 28 28 -6 13 22 40 5 10 -4 10 1 52 42 20 10 9 43 19 -2 10 8 3 6 2 10 6 2 4 8 8 14 9 5 9 18 15 15 26 11 17 9 3 12 21 6 5 12 1 4 17 4 9 -4 16 9 11 10 18 18 8 23 11 5 13 7 7 9 9 7 10 8 14 9 3 -5 3 25 9 10 14 3 12 11 11 6 10 0 -2 16 35 19 1 12 2 13 41 7 9 12 15 6 5 21 -4 7 18 7 8 18 13 3 6 3 11 8 11 16 7 9 7 19 8 9 13 6 2 10 14 3 -6 6 12 9 25 12 4 9 9 33 2 20 11 14 17 29 7 3 6 14 25 15 13 9 7 22 5 1 18 9 10 5 12 3 18 21 21 11 4 4 23 6 39 -2 20 25 11 33 7 8 5 11 31 39 14 16 8 9 9 11 10 9 15 7 11 8 5 17 21 5 7 9 7 -3 8 5 3 1 7 25 18 5 13 11 6 7 13 14 4 6 3 8 4 11 2 19 4 23 18 3 6 6 6 12 11 3 1 6 10 8 2 3 3 9 9 17 16 0 5 3 7 3 5 11 10 6 27 -1 8 17 33 9 22 16 14 11 3 7 -2 3 6 8 6 14 9 17 3 16 6 8 14 6 5 34 4 3 -2 9 -2 0 0 9 1 11 2 11 20 13 3 10 4 18 -2 5 30 5 1 0 9 7 17 17 3 12 13 5 10 9 6 6 5 2 10 9 5 11 5 9 12 19 11 8 6 6 13 11 2 5 3 13 2 4 22 9 6 11 26 8 13 3 3 1 -5 45 4 14 2 4 9 3 6 41 27 5 13 12 5 5 19 21 8 12 14 3 1 15 13 44 6 4 44 20 6 7 9 15 10 6 10 7 24 6 10 14 10 8 4 5 7 15 16 8 9 7 8 13 7 1 16 11 19 10 6 14 13 5 17 51 15 15 19 6 15 15 22 12 12 5 15 16 10 14 4 9 12 4 5 6 20 17 8 10 7 6 23 26 7 15 7 4 7 9 16 3 -4 15 5 8 9 -1 21 11 28 4 14 15 2 11 9 8 21 9 18 21 7 15 14 26 7 10 8 8 14 10 12 12 7 8 -1 16 11 9 4 17 17 25 5 9 5 8 6 7 9 68 20 20 13 3 23 1 24 33 13 7 9 2 7 9 12 6 4 12 5 6 5 12 9 6 5 2 1 15 14 23 6 12 4 12 7 12 2 3 13 8 6 23 7 14 5 9 14 6 31 15 -5 6 7 13 8 11 13 6 1 7 5 17 9 10 13 7 7 10 3 9 7 0 7 6 3 6 11 9 8 11 7 4 5 9 10 9 5 8 3 41 9 4 6 12 6 34 3 4 14 8 10 6 4 23 24 4 7 8 5 50 7 4 8 17 5 7 11 1 -5 31 7 1 12 25 2 10 20 6 11 4 21 6 -2 14 7 5 16 5 3 10 9 15 7 3 12 20 5 4 15 2 8 6 0 1 1 12 9 8 14 9 16 10 20 2 9 11 11 6 3 12 6 8 24 8 28 12 4 7 9 8 9 48 3 21 13 29 11 18 14 10 7 16 7 17 13 30 5 10 7 0 15 8 11 15 15 12 6 9 18 7 11 -2 19 10 7 11 9 11 12 4 17 6 18 7 2 6 8 7 0 1 14 18 5 11 12 9 9 3 2 42 5 32 6 -1 24 5 11 29</t>
+    <t>4 5 28 0 9 2 4 11 2 2 -2 4 12 1 -3 1 3 1 1 4 7 5 6 2 21 3 5 0 1 9 2 0 5 10 3 5 13 7 3 6 8 2 6 3 3 5 6 3 12 2 23 2 -1 1 4 11 1 1 0 0 9 1 4 -1 8 4 5 0 2 7 4 13 2 2 7 7 2 1 -1 2 6 7 8 0 4 8 9 2 3 18 -4 8 8 2 1 4 3 3 5 1 19 5 4 7 12 3 6 0 6 29 6 3 1 1 0 17 10 5 8 4 7 3 2 1 7 34 24 22 13 5 6 12 5 1 6 -1 2 3 4 3 9 3 1 7 0 -6 -3 5 -1 13 4 3 5 -1 21 9 4 2 1 0 6 15 4 0 0 1 4 4 1 6 1 9 8 10 0 4 3 -3 0 8 4 -2 -3 4 5 -2 11 2 5 13 1 1 9 -1 5 11 3 3 3 5 5 7 2 0 3 2 5 14 15 5 2 5 -1 9 3 0 5 1 5 5 12 17 1 6 7 13 10 3 15 2 4 15 3 4 2 4 9 0 0 4 1 6 3 1 2 1 1 1 -3 0 7 8 16 2 9 4 0 5 10 -1 -2 -2 -3 -2 1 4 11 11 0 7 12 4 7 2 0 7 3 1 19 11 3 0 1 1 1 5 2 3 4 9 10 19 4 6 15 18 1 -1 1 2 5 5 6 -4 4 -1 4 28 8 0 5 1 2 4 2 0 1 0 15 5 0 -2 -1 10 11 5 5 10 5 5 -3 4 3 4 1 6 38 3 13 9 50 0 6 0 3 -4 4 1 3 10 1 5 11 4 6 6 2 1 3 4 0 6 3 15 0 3 3 4 1 -2 3 3 7 2 0 1 4 5 2 2 2 1 9 1 9 5 11 3 16 9 1 6 6 8 8 2 14 6 10 4 5 3 4 6 17 1 0 7 2 10 1 3 6 3 1 4 0 5 -1 4 2 11 5 4 33 4 5 4 4 2 13 3 2 0 5 9 1 1 4 6 9 5 4 -3 6 -3 2 7 5 1 0 2 4 4 2 25 1 8 1 -3 -1 5 2 12 2 7 4 2 2 1 8 8 1 11 8 3 3 30 5 6 1 4 2 4 2 -2 -1 5 4 3 5 2 12 -1 6 8 6 16 1 6 4 3 -2 4 14 0 1 5 3 13 1 4 4 0 7 4 2 3 4 4 3 6 -4 5 4 2 2 6 2 1 5 12 7 7 6 -1 5 11 21 5 7 7 5 0 2 0 3 1 14 3 26 5 10 -1 -1 6 1 -4 3 6 0 0 1 8 12 3 -3 1 1 5 12 2 14 3 6 1 4 5 0 1 -1 5 4 -1 -1 12 9 2 5 0 0 0 2 7 5 -5 4 3 -5 2 2 3 7 6 4 2 -2 -2 7 2 7 10 6 0 5 4 5 1 4 7 1 12 5 2 4 18 4 5 2 3 11 4 0 4 9 2 0 1 2 -4 7 15 2 1 -1 2 7 5 0 0 1 3 0 1 12 4 -5 0 11 12 0 7 4 2 1 4 2 3 3 3 3 2 0 4 1 10 4 2 0 -1 9 13 -1 3 -3 5 3 32 7 -3 8 5 9 3 13 -1 3 13 3 0 3 6 3 47 4 3 0 4 2 10 2 2 1 7 6 7 6 1 8 4 2 8 4 2 2 4 5 -1 3 3 -1 25 5 0 2 3 2 6 5 7 3 10 6 2 32 3 7 32 3 3 7 2</t>
+  </si>
+  <si>
+    <t>15 9 9 6 7 3 13 19 3 5 6 5 1 3 7 9 3 10 7 16 20 3 10 10 17 4 37 4 18 9 6 9 16 6 4 9 7 7 12 54 9 4 1 9 38 14 21 9 19 8 18 7 43 13 62 4 10 2 15 1 2 5 9 8 16 1 1 -1 8 11 16 6 6 4 21 5 29 5 37 5 23 14 4 19 18 1 4 9 11 6 11 57 4 3 21 11 9 30 9 17 32 7 13 2 3 12 -6 9 13 20 19 2 13 8 1 17 7 17 15 34 17 4 7 3 17 16 -1 13 9 18 4 28 16 47 6 10 5 10 16 8 5 4 8 8 18 10 11 -4 14 -3 7 5 7 3 9 12 46 11 15 35 6 2 4 3 7 2 9 6 14 12 5 8 17 6 9 4 5 8 14 12 1 8 3 41 11 16 19 7 6 27 13 10 5 11 26 9 55 8 50 3 11 2 2 7 22 21 8 6 7 10 6 39 5 2 12 10 13 9 19 16 11 4 9 4 8 10 9 4 10 25 5 7 11 10 11 2 3 10 8 22 10 5 -1 7 10 7 9 3 12 13 10 8 7 11 18 52 1 6 2 17 3 0 9 19 8 -2 3 31 7 5 6 24 6 6 6 4 12 18 6 21 -6 5 14 1 5 3 10 11 9 5 21 12 28 6 15 10 14 19 13 10 15 5 9 3 8 6 9 4 20 3 9 7 3 10 17 19 3 10 14 3 6 6 3 5 1 15 7 6 6 9 3 10 3 3 4 15 11 7 7 6 9 4 12 4 15 6 4 17 7 1 45 18 7 11 11 24 3 8 13 5 5 6 8 2 29 26 5 4 4 7 10 9 5 20 6 12 9 5 1 24 19 51 9 5 1 15 9 28 12 23 11 6 22 9 16 4 6 69 4 12 5 3 9 30 6 4 15 51 4 9 4 5 16 63 11 8 12 8 1 14 10 11 1 7 68 3 7 3 27 17 5 28 10 10 12 9 5 21 7 39 7 12 11 31 5 14 6 -3 19 7 17 15 -2 5 3 2 28 28 12 1 19 9 2 13 16 6 2 5 25 4 25 14 19 29 9 8 13 5 1 17 8 3 21 23 7 5 14 20 13 -1 2 27 12 -3 12 14 0 9 14 41 1 3 -4 7 7 7 2 11 7 12 21 10 84 5 -4 5 10 10 1 7 12 9 28 0 9 27 1 5 8 5 9 5 8 16 7 28 5 4 8 5 28 5 9 3 12 -6 6 28 1 9 9 7 5 7 18 8 6 -4 4 8 10 8 9 6 9 25 14 36 4 12 16 6 16 48 2 10 3 2 55 6 13 9 39 13 8 2 7 6 1 12 1 4 13 13 4 7 32 -1 4 1 0 8 10 7 12 -1 33 5 9 2 4 11 7 6 7 16 17 5 7 2 12 11 5 2 27 3 0 1 29 5 8 24 25 16 55 7 13 22 14 1 29 6 1 4 6 7 -5 9 4 11 9 34 9 25 12 3 3 2 9 7 11 7 41 0 9 8 9 13 13 26 3 3 24 9 -3 4 15</t>
+  </si>
+  <si>
+    <t>5 15 -1 5 9 -2 10 4 -1 1 2 1 4 4 10 -1 2 2 1 0 3 3 5 1 1 2 5 1 1 8 2 1 4 3 0 -1 6 2 0 -4 13 1 12 -1 7 -3 1 -1 4 4 0 1 1 7 3 2 3 1 9 9 5 6 3 2 4 4 0 7 3 5 2 11 7 4 11 -1 -1 3 10 9 5 7 -2 2 10 -2 1 3 10 8 2 10 10 3 0 0 8 3 4 2 0 6 7 6 3 16 2 3 2 3 20 7 3 4 12 -2 2 1 25 6 4 4 12 3 2 9 -1 0 0 8 4 9 5 1 -1 0 2 3 3 5 7 0 5 3 18 9 0 0 2 15 12 32 9 6 -5 3 4 5 -3 4 12 3 3 2 3 2 -1 3 1 1 3 4 1 14 2 1 6 7 7 -1 5 2 -6 1 3 2 0 1 5 3 1 1 6 3 7 -1 7 -1 1 1 17 13 6 -1 7 16 13 4 5 3 1 4 0 5 3 1 -4 2 3 6 3 3 4 2 2 3 -2 -3 8 1 2 2 12 0 0 11 0 1 8 0 20 5 13 6 6 2 1 1 0 7 2 5 4 1 -1 6 4 5 3 3 0 5 9 2 3 60 13 4 3 13 23 3 4 0 3 1 5 3 6 -1 11 4 6 0 1 -2 2 2 3 2 2 12 -3 9 -5 3 3 3 2 5 3 2 4 3 11 -1 4 9 1 2 2 4 1 4 12 -1 1 6 7 2 5 9 3 4 3 4 3 3 3 3 -2 0 1 1 7 2 14 7 23 3 4 2 5 5 -2 3 0 3 -1 8 12 6 0 7 7 0 0 3 7 8 2 -1 3 18 -4 4 3 -1 2 1 5 7 4 4 1 4 5 2 9 8 7 8 2 3 0 2 3 2 -1 -3 20 5 -3 15 5 3 4 2 2 6 6 1 8 4 5 1 1 3 6 0 6 6 5 1 0 1 6 7 4 8 9 2 -3 3 2 3 1 1 2 4 3 2 -2 4 9 4 8 3 12 1 1 7 3 8 1 -2 2 7 0 1 4 7 3 2 4 8 4 1 11 3 4 -2 9 2 6 7 0 60 3 6 2 19 0 3 8 4 4 1 0 12 4 1 4 7 1 3 1 4 8 2 2 12 2 2 9 3 4 3 6 3 -1 5 0 2 24 9 2 3 4 13 2 0 1 1 -2 2 3 5 6 9 2 7 4 2 8 4 5 5 -1 5 15 7 -1 1 6 7 2 4 3 3 6 1 7 7 1 4 3 -3 10 2 6 15 3 6 0 1 3 -1 7 5 29 8 -1 0 2 12 0 2 -1 0 4 1 5 0 -2 1 6 1 25 2 4 1 4 4 5 0 1 6 -1 10 11 2 1 4 9 3 10 5 4 -3 5 4 2 3 1 3 4 3 2 0 0 2 18 3 -1 6 2 5 -3 3 9 1 7 1 12 4 -2 4 14 4 1 3 2 4 4 3 4 8 8 1 4 3 7 4 5 3 11 5 -1 3 7 5 8 1 2 0 2 0 5 4 7 2 1 6 2 2 5 4 3 4 2 2 5 2 0 2 2 0 7 0 8 4 2 1 2 2 5 2 0 7 -1 3 0 0 6 1 2 5 4 2 7 6 3 11 4 1 2 6 7 3 8 4 5 1 0 4 3 4 4 3 1 1 0 1 5 7 3 4 4 3 10 10 2 1 6 3 0 0 7 4 1 7 5 17 1 2 0 2 2 1 -1 4 5 0 6 2 7 5 2 9 2 4 0 2 2 5 4 0 2 6 3 1 -1 4 0 1 6 5 -6 2 10 0 2 2 -1 5 2 9 0 -3 0 8 3 5 -4 7 4 3 5 2 10 0 -2 1 4 1 2 6 1 2 3 9 39 0 0 6 6 10 3 0 17 1 -4 4 4 11 2 2 -2 8 3 2 -2 0 0 1 -2 1 12 8 3 -4 4 4 -1 9 2 20 3 0 -1 1</t>
+  </si>
+  <si>
+    <t>19 12 28 0 27 15 16 11 4 5 13 10 4 44 1 11 7 19 8 12 18 18 15 13 7 4 24 4 10 12 1 2 12 -1 7 16 15 14 8 19 18 -2 16 7 26 12 17 4 9 2 49 16 3 1 20 8 -2 12 16 33 13 3 17 18 12 6 5 4 7 28 0 28 28 -6 13 22 40 5 10 -4 10 1 52 42 20 10 9 43 19 -2 10 8 3 6 2 10 6 2 4 8 8 14 9 5 9 18 15 15 26 11 17 9 3 12 21 6 5 12 1 4 17 4 9 -4 16 9 11 10 18 18 8 23 11 5 13 7 7 9 9 7 10 8 14 9 3 -5 3 25 9 10 14 3 12 11 11 6 10 0 -2 16 35 19 1 12 2 13 41 7 9 12 15 6 5 21 -4 7 18 7 8 18 13 3 6 3 11 8 11 16 7 9 7 19 8 9 13 6 2 10 14 3 -6 6 12 9 25 12 4 9 9 33 2 20 11 14 17 29 7 3 6 14 25 15 13 9 7 22 5 1 18 9 10 5 12 3 18 21 21 11 4 4 23 6 39 -2 20 25 11 33 7 8 5 11 31 39 14 16 8 9 9 11 10 9 15 7 11 8 5 17 21 5 7 9 7 -3 8 5 3 1 7 25 18 5 13 11 6 7 13 14 4 6 3 8 4 11 2 19 4 23 18 3 6 6 6 12 11 3 1 6 10 8 2 3 3 9 9 17 16 0 5 3 7 3 5 11 10 6 27 -1 8 17 33 9 22 16 14 11 3 7 -2 3 6 8 6 14 9 17 3 16 6 8 14 6 5 34 4 3 -2 9 -2 0 0 9 1 11 2 11 20 13 3 10 4 18 -2 5 30 5 1 0 9 7 17 17 3 12 13 5 10 9 6 6 5 2 10 9 5 11 5 9 12 19 11 8 6 6 13 11 2 5 3 13 2 4 22 9 6 11 26 8 13 3 3 1 -5 45 4 14 2 4 9 3 6 41 27 5 13 12 5 5 19 21 8 12 14 3 1 15 13 44 6 4 44 20 6 7 9 15 10 6 10 7 24 6 10 14 10 8 4 5 7 15 16 8 9 7 8 13 7 1 16 11 19 10 6 14 13 5 17 51 15 15 19 6 15 15 22 12 12 5 15 16 10 14 4 9 12 4 5 6 20 17 8 10 7 6 23 26 7 15 7 4 7 9 16 3 -4 15 5 8 9 -1 21 11 28 4 14 15 2 11 9 8 21 9 18 21 7 15 14 26 7 10 8 8 14 10 12 12 7 8 -1 16 11 9 4 17 17 25 5 9 5 8 6 7 9 68 20 20 13 3 23 1 24 33 13 7 9 2 7 9 12 6 4 12 5 6 5 12 9 6 5 2 1 15 14 23 6 12 4 12 7 12 2 3 13 8 6 23 7 14 5 9 14 6 31 15 -5 6 7 13 8 11 13 6 1 7 5 17 9 10 13 7 7 10 3 9 7 0 7 6 3 6 11 9 8 11 7 4 5 9 10 9 5 8 3 41 9 4 6 12 6 34 3 4 14 8 10 6 4 23 24 4 7 8 5 50 7 4 8 17 5 7 11 1 -5 31 7 1 12 25 2 10 20 6 11 4 21 6 -2 14 7 5 16 5 3 10 9 15 7 3 12 20 5 4 15 2 8 6 0 1 1 12 9 8 14 9 16 10 20 2 9 11 11 6 3 12 6 8 24 8 28 12 4 7 9 8 9 48 3 21 13 29 11 18 14 10 7 16 7 17 13 30 5 10 7 0 15 8 11 15 15 12 6 9 18 7 11 -2 19 10 7 11 9 11 12 4 17 6 18 7 2 6 8 7 0 1 14 18 5 11 12 9 9 3 2 42 5 32 6 -1 24 5 11 29 4 1 10 0 8 15 9 15 7 5 16 2 15 16 10 16 14 11 5 30 10 14 15</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>67 67 66 70 36 62 59 69 67 62 64 62 70 67 62 64 64 66 66 66 64 66 62 60 63 65 68 61 45 61 63 62 59 61 60 58 63 63 60 70 65 69 63 68 51 64 63 65 66 66 61 55 65 66 58 55 65 66 65 66 69 64 39 68 62 61 68 60 59 55 65 62 55 58 66 61 50 63 65</t>
-  </si>
-  <si>
-    <t>30 24 17 28 5 20 17 21 20 18 20 16 60 20 20 17 24 25 20 11 20 20 17 18 40 23 18 66 11 20 22 20 14 26 22 11 18 26 36 22 19 19 14 19 13 19 16 24 16 26 7 21 16 25 20 12 37 19 17 33 20 15 13 25 22 32 26 0 27 12 31 12 12 23 13 24 11 32 14</t>
-  </si>
-  <si>
-    <t>19 24 24 44 21 9 17 6 29 20 9 21 17 17 22 32 33 49 25 20 21 25 22 23 18 28 26 27 58 24 22 7 18 21 33 18 24 22 0 0 34 38 25 17 23 13 21 24 32 23 20 27 27 27 22 23 25 33 26 19 15 18 25</t>
-  </si>
-  <si>
-    <t>53 44 46 48 33 54 63 50 56 52 64 52 67 45 47 34 58 35 46 48 37 39 66 48 64 39 65 48 53 40 50 57 45 49 42 38 57 56 43 46 33 37 60 66 43 40 55 40 51 57 36 52 56 51 48 47 63 61 43 52 47 53 48 59 56 57 55 71 25 49 40 36 35 66 52 40 59 46 47 43 45 50 60 34 55 62 51 50 43 31 51 52 68 57 43 24 47 42 39 65 47 65 51 32 44 50 48 44 34 41 59 46 45 36 35 51 61 53 42 60 50 52 48 55 54 38 54 50 48 50 65 36 54 41 48 48 32 40 47 54 59 48 49</t>
-  </si>
-  <si>
-    <t>0 0 0 8 0 0 12 0 7 19 0 0 6 1 0 0 11 0 0 9 0 0 0 10 20 0 0 0 11 0 0 15 6 2 0 0 7 12 0 0 0 0 0 0 11 0 0 0 11 -1 0 1 0 6 1 5 0 5 21 5 0 0 0 0 0 0 9 0 0 7 0 0 0 0 0 0 10 13 9 13 -1 10 10 0 10 12 0 0 0 0 0 11 0 6 0 0 0 0 0 14 9 0 2 0 0 0 0 13 0 0 4 9 0 0 4 0 16 8 0 0 12 0 0 0 0 0 0 8 0 0 22 0 -4 0 2 0 0 0 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 9 22 9 5 0</t>
+    <t>67 67 66 70 36 62 59 69 67 62 64 62 70 67 62 64 64 66 66 66 64 66 62 60 63 65 68 61 45 61 63 62 59 61 60 58 63 63 60 70 65 69 63 68 51 64 63 65 66 66 61 55 65 66 58 55 65 66 65 66 69 64 39 68 62 61 68 60 59 55 65 62 55 58 66 61 50 63 65 60 62 60 53 54</t>
+  </si>
+  <si>
+    <t>30 24 17 28 5 20 17 21 20 18 20 16 60 20 20 17 24 25 20 11 20 20 17 18 40 23 18 66 11 20 22 20 14 26 22 11 18 26 36 22 19 19 14 19 13 19 16 24 16 26 7 21 16 25 20 12 37 19 17 33 20 15 13 25 22 32 26 0 27 12 31 12 12 23 13 24 11 32 14 22 30 20 8 14</t>
+  </si>
+  <si>
+    <t>19 24 24 44 21 9 17 6 29 20 9 21 17 17 22 32 33 49 25 20 21 25 22 23 18 28 26 27 58 24 22 7 18 21 33 18 24 22 0 0 34 38 25 17 23 13 21 24 32 23 20 27 27 27 22 23 25 33 26 19 15 18 25 23 40 13 16</t>
+  </si>
+  <si>
+    <t>53 44 46 48 33 54 63 50 56 52 64 52 67 45 47 34 58 35 46 48 37 39 66 48 64 39 65 48 53 40 50 57 45 49 42 38 57 56 43 46 33 37 60 66 43 40 55 40 51 57 36 52 56 51 48 47 63 61 43 52 47 53 48 59 56 57 55 71 25 49 40 36 35 66 52 40 59 46 47 43 45 50 60 34 55 62 51 50 43 31 51 52 68 57 43 24 47 42 39 65 47 65 51 32 44 50 48 44 34 41 59 46 45 36 35 51 61 53 42 60 50 52 48 55 54 38 54 50 48 50 65 36 54 41 48 48 32 40 47 54 59 48 49 41 41 25 41</t>
+  </si>
+  <si>
+    <t>0 0 0 8 0 0 12 0 7 19 0 0 6 1 0 0 11 0 0 9 0 0 0 10 20 0 0 0 11 0 0 15 6 2 0 0 7 12 0 0 0 0 0 0 11 0 0 0 11 -1 0 1 0 6 1 5 0 5 21 5 0 0 0 0 0 0 9 0 0 7 0 0 0 0 0 0 10 13 9 13 -1 10 10 0 10 12 0 0 0 0 0 11 0 6 0 0 0 0 0 14 9 0 2 0 0 0 0 13 0 0 4 9 0 0 4 0 16 8 0 0 12 0 0 0 0 0 0 8 0 0 22 0 -4 0 2 0 0 0 0 0 0 0 0 4 28 0 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 9 22 9 5 0 0 0 15</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="D2">
+        <v>23</v>
+      </c>
+      <c r="E2">
         <v>22</v>
       </c>
-      <c r="E2">
-        <v>21</v>
-      </c>
       <c r="F2">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H2">
         <v>18</v>
@@ -695,22 +695,22 @@
         <v>25</v>
       </c>
       <c r="L2">
-        <v>472</v>
+        <v>499</v>
       </c>
       <c r="M2">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="N2">
         <v>42</v>
       </c>
       <c r="O2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P2">
         <v>12</v>
       </c>
       <c r="Q2">
-        <v>901</v>
+        <v>960</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F3">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G3">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H3">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I3">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J3">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>349</v>
       </c>
       <c r="N3">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,19 +943,19 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -964,28 +964,28 @@
         <v>15</v>
       </c>
       <c r="J2">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>578</v>
+        <v>613</v>
       </c>
       <c r="M2">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="N2">
         <v>41</v>
       </c>
       <c r="O2">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q2">
-        <v>1032</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F3">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="G3">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H3">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I3">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J3">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>459</v>
       </c>
       <c r="N3">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -1239,10 +1239,10 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L2">
         <v>60</v>
@@ -1354,7 +1354,7 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Seahawks/Team Data.xlsx
+++ b/Base/Teams/Seahawks/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>4 5 28 0 9 2 4 11 2 2 -2 4 12 1 -3 1 3 1 1 4 7 5 6 2 21 3 5 0 1 9 2 0 5 10 3 5 13 7 3 6 8 2 6 3 3 5 6 3 12 2 23 2 -1 1 4 11 1 1 0 0 9 1 4 -1 8 4 5 0 2 7 4 13 2 2 7 7 2 1 -1 2 6 7 8 0 4 8 9 2 3 18 -4 8 8 2 1 4 3 3 5 1 19 5 4 7 12 3 6 0 6 29 6 3 1 1 0 17 10 5 8 4 7 3 2 1 7 34 24 22 13 5 6 12 5 1 6 -1 2 3 4 3 9 3 1 7 0 -6 -3 5 -1 13 4 3 5 -1 21 9 4 2 1 0 6 15 4 0 0 1 4 4 1 6 1 9 8 10 0 4 3 -3 0 8 4 -2 -3 4 5 -2 11 2 5 13 1 1 9 -1 5 11 3 3 3 5 5 7 2 0 3 2 5 14 15 5 2 5 -1 9 3 0 5 1 5 5 12 17 1 6 7 13 10 3 15 2 4 15 3 4 2 4 9 0 0 4 1 6 3 1 2 1 1 1 -3 0 7 8 16 2 9 4 0 5 10 -1 -2 -2 -3 -2 1 4 11 11 0 7 12 4 7 2 0 7 3 1 19 11 3 0 1 1 1 5 2 3 4 9 10 19 4 6 15 18 1 -1 1 2 5 5 6 -4 4 -1 4 28 8 0 5 1 2 4 2 0 1 0 15 5 0 -2 -1 10 11 5 5 10 5 5 -3 4 3 4 1 6 38 3 13 9 50 0 6 0 3 -4 4 1 3 10 1 5 11 4 6 6 2 1 3 4 0 6 3 15 0 3 3 4 1 -2 3 3 7 2 0 1 4 5 2 2 2 1 9 1 9 5 11 3 16 9 1 6 6 8 8 2 14 6 10 4 5 3 4 6 17 1 0 7 2 10 1 3 6 3 1 4 0 5 -1 4 2 11 5 4 33 4 5 4 4 2 13 3 2 0 5 9 1 1 4 6 9 5 4 -3 6 -3 2 7 5 1 0 2 4 4 2 25 1 8 1 -3 -1 5 2 12 2 7 4 2 2 1 8 8 1 11 8 3 3 30 5 6 1 4 2 4 2 -2 -1 5 4 3 5 2 12 -1 6 8 6 16 1 6 4 3 -2 4 14 0 1 5 3 13 1 4 4 0 7 4 2 3 4 4 3 6 -4 5 4 2 2 6 2 1 5 12 7 7 6 -1 5 11 21 5 7 7 5 0 2 0 3 1 14 3 26 5 10 -1 -1 6 1 -4 3 6 0 0 1 8 12 3 -3 1 1 5 12 2 14 3 6 1 4 5 0 1 -1 5 4 -1 -1 12 9 2 5 0 0 0 2 7 5 -5 4 3 -5 2 2 3 7 6 4 2 -2 -2 7 2 7 10 6 0 5 4 5 1 4 7 1 12 5 2 4 18 4 5 2 3 11 4 0 4 9 2 0 1 2 -4 7 15 2 1 -1 2 7 5 0 0 1 3 0 1 12 4 -5 0 11 12 0 7 4 2 1 4 2 3 3 3 3 2 0 4 1 10 4 2 0 -1 9 13 -1 3 -3 5 3 32 7 -3 8 5 9 3 13 -1 3 13 3 0 3 6 3 47 4 3 0 4 2 10 2 2 1 7 6 7 6 1 8 4 2 8 4 2 2 4 5 -1 3 3 -1 25 5 0 2 3 2 6 5 7 3 10 6 2 32 3 7 32 3 3 7 2</t>
-  </si>
-  <si>
-    <t>15 9 9 6 7 3 13 19 3 5 6 5 1 3 7 9 3 10 7 16 20 3 10 10 17 4 37 4 18 9 6 9 16 6 4 9 7 7 12 54 9 4 1 9 38 14 21 9 19 8 18 7 43 13 62 4 10 2 15 1 2 5 9 8 16 1 1 -1 8 11 16 6 6 4 21 5 29 5 37 5 23 14 4 19 18 1 4 9 11 6 11 57 4 3 21 11 9 30 9 17 32 7 13 2 3 12 -6 9 13 20 19 2 13 8 1 17 7 17 15 34 17 4 7 3 17 16 -1 13 9 18 4 28 16 47 6 10 5 10 16 8 5 4 8 8 18 10 11 -4 14 -3 7 5 7 3 9 12 46 11 15 35 6 2 4 3 7 2 9 6 14 12 5 8 17 6 9 4 5 8 14 12 1 8 3 41 11 16 19 7 6 27 13 10 5 11 26 9 55 8 50 3 11 2 2 7 22 21 8 6 7 10 6 39 5 2 12 10 13 9 19 16 11 4 9 4 8 10 9 4 10 25 5 7 11 10 11 2 3 10 8 22 10 5 -1 7 10 7 9 3 12 13 10 8 7 11 18 52 1 6 2 17 3 0 9 19 8 -2 3 31 7 5 6 24 6 6 6 4 12 18 6 21 -6 5 14 1 5 3 10 11 9 5 21 12 28 6 15 10 14 19 13 10 15 5 9 3 8 6 9 4 20 3 9 7 3 10 17 19 3 10 14 3 6 6 3 5 1 15 7 6 6 9 3 10 3 3 4 15 11 7 7 6 9 4 12 4 15 6 4 17 7 1 45 18 7 11 11 24 3 8 13 5 5 6 8 2 29 26 5 4 4 7 10 9 5 20 6 12 9 5 1 24 19 51 9 5 1 15 9 28 12 23 11 6 22 9 16 4 6 69 4 12 5 3 9 30 6 4 15 51 4 9 4 5 16 63 11 8 12 8 1 14 10 11 1 7 68 3 7 3 27 17 5 28 10 10 12 9 5 21 7 39 7 12 11 31 5 14 6 -3 19 7 17 15 -2 5 3 2 28 28 12 1 19 9 2 13 16 6 2 5 25 4 25 14 19 29 9 8 13 5 1 17 8 3 21 23 7 5 14 20 13 -1 2 27 12 -3 12 14 0 9 14 41 1 3 -4 7 7 7 2 11 7 12 21 10 84 5 -4 5 10 10 1 7 12 9 28 0 9 27 1 5 8 5 9 5 8 16 7 28 5 4 8 5 28 5 9 3 12 -6 6 28 1 9 9 7 5 7 18 8 6 -4 4 8 10 8 9 6 9 25 14 36 4 12 16 6 16 48 2 10 3 2 55 6 13 9 39 13 8 2 7 6 1 12 1 4 13 13 4 7 32 -1 4 1 0 8 10 7 12 -1 33 5 9 2 4 11 7 6 7 16 17 5 7 2 12 11 5 2 27 3 0 1 29 5 8 24 25 16 55 7 13 22 14 1 29 6 1 4 6 7 -5 9 4 11 9 34 9 25 12 3 3 2 9 7 11 7 41 0 9 8 9 13 13 26 3 3 24 9 -3 4 15</t>
-  </si>
-  <si>
-    <t>5 15 -1 5 9 -2 10 4 -1 1 2 1 4 4 10 -1 2 2 1 0 3 3 5 1 1 2 5 1 1 8 2 1 4 3 0 -1 6 2 0 -4 13 1 12 -1 7 -3 1 -1 4 4 0 1 1 7 3 2 3 1 9 9 5 6 3 2 4 4 0 7 3 5 2 11 7 4 11 -1 -1 3 10 9 5 7 -2 2 10 -2 1 3 10 8 2 10 10 3 0 0 8 3 4 2 0 6 7 6 3 16 2 3 2 3 20 7 3 4 12 -2 2 1 25 6 4 4 12 3 2 9 -1 0 0 8 4 9 5 1 -1 0 2 3 3 5 7 0 5 3 18 9 0 0 2 15 12 32 9 6 -5 3 4 5 -3 4 12 3 3 2 3 2 -1 3 1 1 3 4 1 14 2 1 6 7 7 -1 5 2 -6 1 3 2 0 1 5 3 1 1 6 3 7 -1 7 -1 1 1 17 13 6 -1 7 16 13 4 5 3 1 4 0 5 3 1 -4 2 3 6 3 3 4 2 2 3 -2 -3 8 1 2 2 12 0 0 11 0 1 8 0 20 5 13 6 6 2 1 1 0 7 2 5 4 1 -1 6 4 5 3 3 0 5 9 2 3 60 13 4 3 13 23 3 4 0 3 1 5 3 6 -1 11 4 6 0 1 -2 2 2 3 2 2 12 -3 9 -5 3 3 3 2 5 3 2 4 3 11 -1 4 9 1 2 2 4 1 4 12 -1 1 6 7 2 5 9 3 4 3 4 3 3 3 3 -2 0 1 1 7 2 14 7 23 3 4 2 5 5 -2 3 0 3 -1 8 12 6 0 7 7 0 0 3 7 8 2 -1 3 18 -4 4 3 -1 2 1 5 7 4 4 1 4 5 2 9 8 7 8 2 3 0 2 3 2 -1 -3 20 5 -3 15 5 3 4 2 2 6 6 1 8 4 5 1 1 3 6 0 6 6 5 1 0 1 6 7 4 8 9 2 -3 3 2 3 1 1 2 4 3 2 -2 4 9 4 8 3 12 1 1 7 3 8 1 -2 2 7 0 1 4 7 3 2 4 8 4 1 11 3 4 -2 9 2 6 7 0 60 3 6 2 19 0 3 8 4 4 1 0 12 4 1 4 7 1 3 1 4 8 2 2 12 2 2 9 3 4 3 6 3 -1 5 0 2 24 9 2 3 4 13 2 0 1 1 -2 2 3 5 6 9 2 7 4 2 8 4 5 5 -1 5 15 7 -1 1 6 7 2 4 3 3 6 1 7 7 1 4 3 -3 10 2 6 15 3 6 0 1 3 -1 7 5 29 8 -1 0 2 12 0 2 -1 0 4 1 5 0 -2 1 6 1 25 2 4 1 4 4 5 0 1 6 -1 10 11 2 1 4 9 3 10 5 4 -3 5 4 2 3 1 3 4 3 2 0 0 2 18 3 -1 6 2 5 -3 3 9 1 7 1 12 4 -2 4 14 4 1 3 2 4 4 3 4 8 8 1 4 3 7 4 5 3 11 5 -1 3 7 5 8 1 2 0 2 0 5 4 7 2 1 6 2 2 5 4 3 4 2 2 5 2 0 2 2 0 7 0 8 4 2 1 2 2 5 2 0 7 -1 3 0 0 6 1 2 5 4 2 7 6 3 11 4 1 2 6 7 3 8 4 5 1 0 4 3 4 4 3 1 1 0 1 5 7 3 4 4 3 10 10 2 1 6 3 0 0 7 4 1 7 5 17 1 2 0 2 2 1 -1 4 5 0 6 2 7 5 2 9 2 4 0 2 2 5 4 0 2 6 3 1 -1 4 0 1 6 5 -6 2 10 0 2 2 -1 5 2 9 0 -3 0 8 3 5 -4 7 4 3 5 2 10 0 -2 1 4 1 2 6 1 2 3 9 39 0 0 6 6 10 3 0 17 1 -4 4 4 11 2 2 -2 8 3 2 -2 0 0 1 -2 1 12 8 3 -4 4 4 -1 9 2 20 3 0 -1 1</t>
-  </si>
-  <si>
-    <t>19 12 28 0 27 15 16 11 4 5 13 10 4 44 1 11 7 19 8 12 18 18 15 13 7 4 24 4 10 12 1 2 12 -1 7 16 15 14 8 19 18 -2 16 7 26 12 17 4 9 2 49 16 3 1 20 8 -2 12 16 33 13 3 17 18 12 6 5 4 7 28 0 28 28 -6 13 22 40 5 10 -4 10 1 52 42 20 10 9 43 19 -2 10 8 3 6 2 10 6 2 4 8 8 14 9 5 9 18 15 15 26 11 17 9 3 12 21 6 5 12 1 4 17 4 9 -4 16 9 11 10 18 18 8 23 11 5 13 7 7 9 9 7 10 8 14 9 3 -5 3 25 9 10 14 3 12 11 11 6 10 0 -2 16 35 19 1 12 2 13 41 7 9 12 15 6 5 21 -4 7 18 7 8 18 13 3 6 3 11 8 11 16 7 9 7 19 8 9 13 6 2 10 14 3 -6 6 12 9 25 12 4 9 9 33 2 20 11 14 17 29 7 3 6 14 25 15 13 9 7 22 5 1 18 9 10 5 12 3 18 21 21 11 4 4 23 6 39 -2 20 25 11 33 7 8 5 11 31 39 14 16 8 9 9 11 10 9 15 7 11 8 5 17 21 5 7 9 7 -3 8 5 3 1 7 25 18 5 13 11 6 7 13 14 4 6 3 8 4 11 2 19 4 23 18 3 6 6 6 12 11 3 1 6 10 8 2 3 3 9 9 17 16 0 5 3 7 3 5 11 10 6 27 -1 8 17 33 9 22 16 14 11 3 7 -2 3 6 8 6 14 9 17 3 16 6 8 14 6 5 34 4 3 -2 9 -2 0 0 9 1 11 2 11 20 13 3 10 4 18 -2 5 30 5 1 0 9 7 17 17 3 12 13 5 10 9 6 6 5 2 10 9 5 11 5 9 12 19 11 8 6 6 13 11 2 5 3 13 2 4 22 9 6 11 26 8 13 3 3 1 -5 45 4 14 2 4 9 3 6 41 27 5 13 12 5 5 19 21 8 12 14 3 1 15 13 44 6 4 44 20 6 7 9 15 10 6 10 7 24 6 10 14 10 8 4 5 7 15 16 8 9 7 8 13 7 1 16 11 19 10 6 14 13 5 17 51 15 15 19 6 15 15 22 12 12 5 15 16 10 14 4 9 12 4 5 6 20 17 8 10 7 6 23 26 7 15 7 4 7 9 16 3 -4 15 5 8 9 -1 21 11 28 4 14 15 2 11 9 8 21 9 18 21 7 15 14 26 7 10 8 8 14 10 12 12 7 8 -1 16 11 9 4 17 17 25 5 9 5 8 6 7 9 68 20 20 13 3 23 1 24 33 13 7 9 2 7 9 12 6 4 12 5 6 5 12 9 6 5 2 1 15 14 23 6 12 4 12 7 12 2 3 13 8 6 23 7 14 5 9 14 6 31 15 -5 6 7 13 8 11 13 6 1 7 5 17 9 10 13 7 7 10 3 9 7 0 7 6 3 6 11 9 8 11 7 4 5 9 10 9 5 8 3 41 9 4 6 12 6 34 3 4 14 8 10 6 4 23 24 4 7 8 5 50 7 4 8 17 5 7 11 1 -5 31 7 1 12 25 2 10 20 6 11 4 21 6 -2 14 7 5 16 5 3 10 9 15 7 3 12 20 5 4 15 2 8 6 0 1 1 12 9 8 14 9 16 10 20 2 9 11 11 6 3 12 6 8 24 8 28 12 4 7 9 8 9 48 3 21 13 29 11 18 14 10 7 16 7 17 13 30 5 10 7 0 15 8 11 15 15 12 6 9 18 7 11 -2 19 10 7 11 9 11 12 4 17 6 18 7 2 6 8 7 0 1 14 18 5 11 12 9 9 3 2 42 5 32 6 -1 24 5 11 29 4 1 10 0 8 15 9 15 7 5 16 2 15 16 10 16 14 11 5 30 10 14 15</t>
+    <t>4 5 28 0 9 2 4 11 2 2 -2 4 12 1 -3 1 3 1 1 4 7 5 6 2 21 3 5 0 1 9 2 0 5 10 3 5 13 7 3 6 8 2 6 3 3 5 6 3 12 2 23 2 -1 1 4 11 1 1 0 0 9 1 4 -1 8 4 5 0 2 7 4 13 2 2 7 7 2 1 -1 2 6 7 8 0 4 8 9 2 3 18 -4 8 8 2 1 4 3 3 5 1 19 5 4 7 12 3 6 0 6 29 6 3 1 1 0 17 10 5 8 4 7 3 2 1 7 34 24 22 13 5 6 12 5 1 6 -1 2 3 4 3 9 3 1 7 0 -6 -3 5 -1 13 4 3 5 -1 21 9 4 2 1 0 6 15 4 0 0 1 4 4 1 6 1 9 8 10 0 4 3 -3 0 8 4 -2 -3 4 5 -2 11 2 5 13 1 1 9 -1 5 11 3 3 3 5 5 7 2 0 3 2 5 14 15 5 2 5 -1 9 3 0 5 1 5 5 12 17 1 6 7 13 10 3 15 2 4 15 3 4 2 4 9 0 0 4 1 6 3 1 2 1 1 1 -3 0 7 8 16 2 9 4 0 5 10 -1 -2 -2 -3 -2 1 4 11 11 0 7 12 4 7 2 0 7 3 1 19 11 3 0 1 1 1 5 2 3 4 9 10 19 4 6 15 18 1 -1 1 2 5 5 6 -4 4 -1 4 28 8 0 5 1 2 4 2 0 1 0 15 5 0 -2 -1 10 11 5 5 10 5 5 -3 4 3 4 1 6 38 3 13 9 50 0 6 0 3 -4 4 1 3 10 1 5 11 4 6 6 2 1 3 4 0 6 3 15 0 3 3 4 1 -2 3 3 7 2 0 1 4 5 2 2 2 1 9 1 9 5 11 3 16 9 1 6 6 8 8 2 14 6 10 4 5 3 4 6 17 1 0 7 2 10 1 3 6 3 1 4 0 5 -1 4 2 11 5 4 33 4 5 4 4 2 13 3 2 0 5 9 1 1 4 6 9 5 4 -3 6 -3 2 7 5 1 0 2 4 4 2 25 1 8 1 -3 -1 5 2 12 2 7 4 2 2 1 8 8 1 11 8 3 3 30 5 6 1 4 2 4 2 -2 -1 5 4 3 5 2 12 -1 6 8 6 16 1 6 4 3 -2 4 14 0 1 5 3 13 1 4 4 0 7 4 2 3 4 4 3 6 -4 5 4 2 2 6 2 1 5 12 7 7 6 -1 5 11 21 5 7 7 5 0 2 0 3 1 14 3 26 5 10 -1 -1 6 1 -4 3 6 0 0 1 8 12 3 -3 1 1 5 12 2 14 3 6 1 4 5 0 1 -1 5 4 -1 -1 12 9 2 5 0 0 0 2 7 5 -5 4 3 -5 2 2 3 7 6 4 2 -2 -2 7 2 7 10 6 0 5 4 5 1 4 7 1 12 5 2 4 18 4 5 2 3 11 4 0 4 9 2 0 1 2 -4 7 15 2 1 -1 2 7 5 0 0 1 3 0 1 12 4 -5 0 11 12 0 7 4 2 1 4 2 3 3 3 3 2 0 4 1 10 4 2 0 -1 9 13 -1 3 -3 5 3 32 7 -3 8 5 9 3 13 -1 3 13 3 0 3 6 3 47 4 3 0 4 2 10 2 2 1 7 6 7 6 1 8 4 2 8 4 2 2 4 5 -1 3 3 -1 25 5 0 2 3 2 6 5 7 3 10 6 2 32 3 7 32 3 3 7 2 3 -1 1 20 15 13 23 1 6 4 2 5 5 2 37 7 3 3 6 13 8 0 3 1 2 9 1 6 17 7 0 -2 0 6 3 4 1 30</t>
+  </si>
+  <si>
+    <t>15 9 9 6 7 3 13 19 3 5 6 5 1 3 7 9 3 10 7 16 20 3 10 10 17 4 37 4 18 9 6 9 16 6 4 9 7 7 12 54 9 4 1 9 38 14 21 9 19 8 18 7 43 13 62 4 10 2 15 1 2 5 9 8 16 1 1 -1 8 11 16 6 6 4 21 5 29 5 37 5 23 14 4 19 18 1 4 9 11 6 11 57 4 3 21 11 9 30 9 17 32 7 13 2 3 12 -6 9 13 20 19 2 13 8 1 17 7 17 15 34 17 4 7 3 17 16 -1 13 9 18 4 28 16 47 6 10 5 10 16 8 5 4 8 8 18 10 11 -4 14 -3 7 5 7 3 9 12 46 11 15 35 6 2 4 3 7 2 9 6 14 12 5 8 17 6 9 4 5 8 14 12 1 8 3 41 11 16 19 7 6 27 13 10 5 11 26 9 55 8 50 3 11 2 2 7 22 21 8 6 7 10 6 39 5 2 12 10 13 9 19 16 11 4 9 4 8 10 9 4 10 25 5 7 11 10 11 2 3 10 8 22 10 5 -1 7 10 7 9 3 12 13 10 8 7 11 18 52 1 6 2 17 3 0 9 19 8 -2 3 31 7 5 6 24 6 6 6 4 12 18 6 21 -6 5 14 1 5 3 10 11 9 5 21 12 28 6 15 10 14 19 13 10 15 5 9 3 8 6 9 4 20 3 9 7 3 10 17 19 3 10 14 3 6 6 3 5 1 15 7 6 6 9 3 10 3 3 4 15 11 7 7 6 9 4 12 4 15 6 4 17 7 1 45 18 7 11 11 24 3 8 13 5 5 6 8 2 29 26 5 4 4 7 10 9 5 20 6 12 9 5 1 24 19 51 9 5 1 15 9 28 12 23 11 6 22 9 16 4 6 69 4 12 5 3 9 30 6 4 15 51 4 9 4 5 16 63 11 8 12 8 1 14 10 11 1 7 68 3 7 3 27 17 5 28 10 10 12 9 5 21 7 39 7 12 11 31 5 14 6 -3 19 7 17 15 -2 5 3 2 28 28 12 1 19 9 2 13 16 6 2 5 25 4 25 14 19 29 9 8 13 5 1 17 8 3 21 23 7 5 14 20 13 -1 2 27 12 -3 12 14 0 9 14 41 1 3 -4 7 7 7 2 11 7 12 21 10 84 5 -4 5 10 10 1 7 12 9 28 0 9 27 1 5 8 5 9 5 8 16 7 28 5 4 8 5 28 5 9 3 12 -6 6 28 1 9 9 7 5 7 18 8 6 -4 4 8 10 8 9 6 9 25 14 36 4 12 16 6 16 48 2 10 3 2 55 6 13 9 39 13 8 2 7 6 1 12 1 4 13 13 4 7 32 -1 4 1 0 8 10 7 12 -1 33 5 9 2 4 11 7 6 7 16 17 5 7 2 12 11 5 2 27 3 0 1 29 5 8 24 25 16 55 7 13 22 14 1 29 6 1 4 6 7 -5 9 4 11 9 34 9 25 12 3 3 2 9 7 11 7 41 0 9 8 9 13 13 26 3 3 24 9 -3 4 15 12 7 4 8 9 -5 58 11 28 6 7 13 8 1 13 11 12 17 1 15</t>
+  </si>
+  <si>
+    <t>5 15 -1 5 9 -2 10 4 -1 1 2 1 4 4 10 -1 2 2 1 0 3 3 5 1 1 2 5 1 1 8 2 1 4 3 0 -1 6 2 0 -4 13 1 12 -1 7 -3 1 -1 4 4 0 1 1 7 3 2 3 1 9 9 5 6 3 2 4 4 0 7 3 5 2 11 7 4 11 -1 -1 3 10 9 5 7 -2 2 10 -2 1 3 10 8 2 10 10 3 0 0 8 3 4 2 0 6 7 6 3 16 2 3 2 3 20 7 3 4 12 -2 2 1 25 6 4 4 12 3 2 9 -1 0 0 8 4 9 5 1 -1 0 2 3 3 5 7 0 5 3 18 9 0 0 2 15 12 32 9 6 -5 3 4 5 -3 4 12 3 3 2 3 2 -1 3 1 1 3 4 1 14 2 1 6 7 7 -1 5 2 -6 1 3 2 0 1 5 3 1 1 6 3 7 -1 7 -1 1 1 17 13 6 -1 7 16 13 4 5 3 1 4 0 5 3 1 -4 2 3 6 3 3 4 2 2 3 -2 -3 8 1 2 2 12 0 0 11 0 1 8 0 20 5 13 6 6 2 1 1 0 7 2 5 4 1 -1 6 4 5 3 3 0 5 9 2 3 60 13 4 3 13 23 3 4 0 3 1 5 3 6 -1 11 4 6 0 1 -2 2 2 3 2 2 12 -3 9 -5 3 3 3 2 5 3 2 4 3 11 -1 4 9 1 2 2 4 1 4 12 -1 1 6 7 2 5 9 3 4 3 4 3 3 3 3 -2 0 1 1 7 2 14 7 23 3 4 2 5 5 -2 3 0 3 -1 8 12 6 0 7 7 0 0 3 7 8 2 -1 3 18 -4 4 3 -1 2 1 5 7 4 4 1 4 5 2 9 8 7 8 2 3 0 2 3 2 -1 -3 20 5 -3 15 5 3 4 2 2 6 6 1 8 4 5 1 1 3 6 0 6 6 5 1 0 1 6 7 4 8 9 2 -3 3 2 3 1 1 2 4 3 2 -2 4 9 4 8 3 12 1 1 7 3 8 1 -2 2 7 0 1 4 7 3 2 4 8 4 1 11 3 4 -2 9 2 6 7 0 60 3 6 2 19 0 3 8 4 4 1 0 12 4 1 4 7 1 3 1 4 8 2 2 12 2 2 9 3 4 3 6 3 -1 5 0 2 24 9 2 3 4 13 2 0 1 1 -2 2 3 5 6 9 2 7 4 2 8 4 5 5 -1 5 15 7 -1 1 6 7 2 4 3 3 6 1 7 7 1 4 3 -3 10 2 6 15 3 6 0 1 3 -1 7 5 29 8 -1 0 2 12 0 2 -1 0 4 1 5 0 -2 1 6 1 25 2 4 1 4 4 5 0 1 6 -1 10 11 2 1 4 9 3 10 5 4 -3 5 4 2 3 1 3 4 3 2 0 0 2 18 3 -1 6 2 5 -3 3 9 1 7 1 12 4 -2 4 14 4 1 3 2 4 4 3 4 8 8 1 4 3 7 4 5 3 11 5 -1 3 7 5 8 1 2 0 2 0 5 4 7 2 1 6 2 2 5 4 3 4 2 2 5 2 0 2 2 0 7 0 8 4 2 1 2 2 5 2 0 7 -1 3 0 0 6 1 2 5 4 2 7 6 3 11 4 1 2 6 7 3 8 4 5 1 0 4 3 4 4 3 1 1 0 1 5 7 3 4 4 3 10 10 2 1 6 3 0 0 7 4 1 7 5 17 1 2 0 2 2 1 -1 4 5 0 6 2 7 5 2 9 2 4 0 2 2 5 4 0 2 6 3 1 -1 4 0 1 6 5 -6 2 10 0 2 2 -1 5 2 9 0 -3 0 8 3 5 -4 7 4 3 5 2 10 0 -2 1 4 1 2 6 1 2 3 9 39 0 0 6 6 10 3 0 17 1 -4 4 4 11 2 2 -2 8 3 2 -2 0 0 1 -2 1 12 8 3 -4 4 4 -1 9 2 20 3 0 -1 1 -1 6 2 1 1 2 0 3 -3 3 26 31 5 0 -1 3 2 0 14 0 1</t>
+  </si>
+  <si>
+    <t>19 12 28 0 27 15 16 11 4 5 13 10 4 44 1 11 7 19 8 12 18 18 15 13 7 4 24 4 10 12 1 2 12 -1 7 16 15 14 8 19 18 -2 16 7 26 12 17 4 9 2 49 16 3 1 20 8 -2 12 16 33 13 3 17 18 12 6 5 4 7 28 0 28 28 -6 13 22 40 5 10 -4 10 1 52 42 20 10 9 43 19 -2 10 8 3 6 2 10 6 2 4 8 8 14 9 5 9 18 15 15 26 11 17 9 3 12 21 6 5 12 1 4 17 4 9 -4 16 9 11 10 18 18 8 23 11 5 13 7 7 9 9 7 10 8 14 9 3 -5 3 25 9 10 14 3 12 11 11 6 10 0 -2 16 35 19 1 12 2 13 41 7 9 12 15 6 5 21 -4 7 18 7 8 18 13 3 6 3 11 8 11 16 7 9 7 19 8 9 13 6 2 10 14 3 -6 6 12 9 25 12 4 9 9 33 2 20 11 14 17 29 7 3 6 14 25 15 13 9 7 22 5 1 18 9 10 5 12 3 18 21 21 11 4 4 23 6 39 -2 20 25 11 33 7 8 5 11 31 39 14 16 8 9 9 11 10 9 15 7 11 8 5 17 21 5 7 9 7 -3 8 5 3 1 7 25 18 5 13 11 6 7 13 14 4 6 3 8 4 11 2 19 4 23 18 3 6 6 6 12 11 3 1 6 10 8 2 3 3 9 9 17 16 0 5 3 7 3 5 11 10 6 27 -1 8 17 33 9 22 16 14 11 3 7 -2 3 6 8 6 14 9 17 3 16 6 8 14 6 5 34 4 3 -2 9 -2 0 0 9 1 11 2 11 20 13 3 10 4 18 -2 5 30 5 1 0 9 7 17 17 3 12 13 5 10 9 6 6 5 2 10 9 5 11 5 9 12 19 11 8 6 6 13 11 2 5 3 13 2 4 22 9 6 11 26 8 13 3 3 1 -5 45 4 14 2 4 9 3 6 41 27 5 13 12 5 5 19 21 8 12 14 3 1 15 13 44 6 4 44 20 6 7 9 15 10 6 10 7 24 6 10 14 10 8 4 5 7 15 16 8 9 7 8 13 7 1 16 11 19 10 6 14 13 5 17 51 15 15 19 6 15 15 22 12 12 5 15 16 10 14 4 9 12 4 5 6 20 17 8 10 7 6 23 26 7 15 7 4 7 9 16 3 -4 15 5 8 9 -1 21 11 28 4 14 15 2 11 9 8 21 9 18 21 7 15 14 26 7 10 8 8 14 10 12 12 7 8 -1 16 11 9 4 17 17 25 5 9 5 8 6 7 9 68 20 20 13 3 23 1 24 33 13 7 9 2 7 9 12 6 4 12 5 6 5 12 9 6 5 2 1 15 14 23 6 12 4 12 7 12 2 3 13 8 6 23 7 14 5 9 14 6 31 15 -5 6 7 13 8 11 13 6 1 7 5 17 9 10 13 7 7 10 3 9 7 0 7 6 3 6 11 9 8 11 7 4 5 9 10 9 5 8 3 41 9 4 6 12 6 34 3 4 14 8 10 6 4 23 24 4 7 8 5 50 7 4 8 17 5 7 11 1 -5 31 7 1 12 25 2 10 20 6 11 4 21 6 -2 14 7 5 16 5 3 10 9 15 7 3 12 20 5 4 15 2 8 6 0 1 1 12 9 8 14 9 16 10 20 2 9 11 11 6 3 12 6 8 24 8 28 12 4 7 9 8 9 48 3 21 13 29 11 18 14 10 7 16 7 17 13 30 5 10 7 0 15 8 11 15 15 12 6 9 18 7 11 -2 19 10 7 11 9 11 12 4 17 6 18 7 2 6 8 7 0 1 14 18 5 11 12 9 9 3 2 42 5 32 6 -1 24 5 11 29 4 1 10 0 8 15 9 15 7 5 16 2 15 16 10 16 14 11 5 30 10 14 15 6 12 15 13 16 1 6 20 42 7 16 11 5 6 6 8 9 11 23 4 4</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>67 67 66 70 36 62 59 69 67 62 64 62 70 67 62 64 64 66 66 66 64 66 62 60 63 65 68 61 45 61 63 62 59 61 60 58 63 63 60 70 65 69 63 68 51 64 63 65 66 66 61 55 65 66 58 55 65 66 65 66 69 64 39 68 62 61 68 60 59 55 65 62 55 58 66 61 50 63 65 60 62 60 53 54</t>
-  </si>
-  <si>
-    <t>30 24 17 28 5 20 17 21 20 18 20 16 60 20 20 17 24 25 20 11 20 20 17 18 40 23 18 66 11 20 22 20 14 26 22 11 18 26 36 22 19 19 14 19 13 19 16 24 16 26 7 21 16 25 20 12 37 19 17 33 20 15 13 25 22 32 26 0 27 12 31 12 12 23 13 24 11 32 14 22 30 20 8 14</t>
-  </si>
-  <si>
-    <t>19 24 24 44 21 9 17 6 29 20 9 21 17 17 22 32 33 49 25 20 21 25 22 23 18 28 26 27 58 24 22 7 18 21 33 18 24 22 0 0 34 38 25 17 23 13 21 24 32 23 20 27 27 27 22 23 25 33 26 19 15 18 25 23 40 13 16</t>
-  </si>
-  <si>
-    <t>53 44 46 48 33 54 63 50 56 52 64 52 67 45 47 34 58 35 46 48 37 39 66 48 64 39 65 48 53 40 50 57 45 49 42 38 57 56 43 46 33 37 60 66 43 40 55 40 51 57 36 52 56 51 48 47 63 61 43 52 47 53 48 59 56 57 55 71 25 49 40 36 35 66 52 40 59 46 47 43 45 50 60 34 55 62 51 50 43 31 51 52 68 57 43 24 47 42 39 65 47 65 51 32 44 50 48 44 34 41 59 46 45 36 35 51 61 53 42 60 50 52 48 55 54 38 54 50 48 50 65 36 54 41 48 48 32 40 47 54 59 48 49 41 41 25 41</t>
-  </si>
-  <si>
-    <t>0 0 0 8 0 0 12 0 7 19 0 0 6 1 0 0 11 0 0 9 0 0 0 10 20 0 0 0 11 0 0 15 6 2 0 0 7 12 0 0 0 0 0 0 11 0 0 0 11 -1 0 1 0 6 1 5 0 5 21 5 0 0 0 0 0 0 9 0 0 7 0 0 0 0 0 0 10 13 9 13 -1 10 10 0 10 12 0 0 0 0 0 11 0 6 0 0 0 0 0 14 9 0 2 0 0 0 0 13 0 0 4 9 0 0 4 0 16 8 0 0 12 0 0 0 0 0 0 8 0 0 22 0 -4 0 2 0 0 0 0 0 0 0 0 4 28 0 0</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 9 22 9 5 0 0 0 15</t>
+    <t>67 67 66 70 36 62 59 69 67 62 64 62 70 67 62 64 64 66 66 66 64 66 62 60 63 65 68 61 45 61 63 62 59 61 60 58 63 63 60 70 65 69 63 68 51 64 63 65 66 66 61 55 65 66 58 55 65 66 65 66 69 64 39 68 62 61 68 60 59 55 65 62 55 58 66 61 50 63 65 60 62 60 53 54 57 65</t>
+  </si>
+  <si>
+    <t>30 24 17 28 5 20 17 21 20 18 20 16 60 20 20 17 24 25 20 11 20 20 17 18 40 23 18 66 11 20 22 20 14 26 22 11 18 26 36 22 19 19 14 19 13 19 16 24 16 26 7 21 16 25 20 12 37 19 17 33 20 15 13 25 22 32 26 0 27 12 31 12 12 23 13 24 11 32 14 22 30 20 8 14 47 27</t>
+  </si>
+  <si>
+    <t>19 24 24 44 21 9 17 6 29 20 9 21 17 17 22 32 33 49 25 20 21 25 22 23 18 28 26 27 58 24 22 7 18 21 33 18 24 22 0 0 34 38 25 17 23 13 21 24 32 23 20 27 27 27 22 23 25 33 26 19 15 18 25 23 40 13 16 21 27</t>
+  </si>
+  <si>
+    <t>53 44 46 48 33 54 63 50 56 52 64 52 67 45 47 34 58 35 46 48 37 39 66 48 64 39 65 48 53 40 50 57 45 49 42 38 57 56 43 46 33 37 60 66 43 40 55 40 51 57 36 52 56 51 48 47 63 61 43 52 47 53 48 59 56 57 55 71 25 49 40 36 35 66 52 40 59 46 47 43 45 50 60 34 55 62 51 50 43 31 51 52 68 57 43 24 47 42 39 65 47 65 51 32 44 50 48 44 34 41 59 46 45 36 35 51 61 53 42 60 50 52 48 55 54 38 54 50 48 50 65 36 54 41 48 48 32 40 47 54 59 48 49 41 41 25 41 45</t>
+  </si>
+  <si>
+    <t>0 0 0 8 0 0 12 0 7 19 0 0 6 1 0 0 11 0 0 9 0 0 0 10 20 0 0 0 11 0 0 15 6 2 0 0 7 12 0 0 0 0 0 0 11 0 0 0 11 -1 0 1 0 6 1 5 0 5 21 5 0 0 0 0 0 0 9 0 0 7 0 0 0 0 0 0 10 13 9 13 -1 10 10 0 10 12 0 0 0 0 0 11 0 6 0 0 0 0 0 14 9 0 2 0 0 0 0 13 0 0 4 9 0 0 4 0 16 8 0 0 12 0 0 0 0 0 0 8 0 0 22 0 -4 0 2 0 0 0 0 0 0 0 0 4 28 0 0 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 9 22 9 5 0 0 0 15 3 0 30</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,22 +665,22 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="D2">
         <v>23</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F2">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G2">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="H2">
         <v>18</v>
@@ -689,28 +689,28 @@
         <v>11</v>
       </c>
       <c r="J2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>499</v>
+        <v>528</v>
       </c>
       <c r="M2">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="N2">
         <v>42</v>
       </c>
       <c r="O2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q2">
-        <v>960</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F3">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I3">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J3">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>349</v>
       </c>
       <c r="N3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,49 +943,49 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H2">
         <v>7</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>613</v>
+        <v>650</v>
       </c>
       <c r="M2">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="N2">
         <v>41</v>
       </c>
       <c r="O2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q2">
-        <v>1105</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F3">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="G3">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H3">
         <v>56</v>
       </c>
       <c r="I3">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="J3">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -1239,22 +1239,22 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1348,7 +1348,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>13</v>
@@ -1371,7 +1371,7 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1423,7 +1423,7 @@
         <v>57</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/Base/Teams/Seahawks/Team Data.xlsx
+++ b/Base/Teams/Seahawks/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>4 5 28 0 9 2 4 11 2 2 -2 4 12 1 -3 1 3 1 1 4 7 5 6 2 21 3 5 0 1 9 2 0 5 10 3 5 13 7 3 6 8 2 6 3 3 5 6 3 12 2 23 2 -1 1 4 11 1 1 0 0 9 1 4 -1 8 4 5 0 2 7 4 13 2 2 7 7 2 1 -1 2 6 7 8 0 4 8 9 2 3 18 -4 8 8 2 1 4 3 3 5 1 19 5 4 7 12 3 6 0 6 29 6 3 1 1 0 17 10 5 8 4 7 3 2 1 7 34 24 22 13 5 6 12 5 1 6 -1 2 3 4 3 9 3 1 7 0 -6 -3 5 -1 13 4 3 5 -1 21 9 4 2 1 0 6 15 4 0 0 1 4 4 1 6 1 9 8 10 0 4 3 -3 0 8 4 -2 -3 4 5 -2 11 2 5 13 1 1 9 -1 5 11 3 3 3 5 5 7 2 0 3 2 5 14 15 5 2 5 -1 9 3 0 5 1 5 5 12 17 1 6 7 13 10 3 15 2 4 15 3 4 2 4 9 0 0 4 1 6 3 1 2 1 1 1 -3 0 7 8 16 2 9 4 0 5 10 -1 -2 -2 -3 -2 1 4 11 11 0 7 12 4 7 2 0 7 3 1 19 11 3 0 1 1 1 5 2 3 4 9 10 19 4 6 15 18 1 -1 1 2 5 5 6 -4 4 -1 4 28 8 0 5 1 2 4 2 0 1 0 15 5 0 -2 -1 10 11 5 5 10 5 5 -3 4 3 4 1 6 38 3 13 9 50 0 6 0 3 -4 4 1 3 10 1 5 11 4 6 6 2 1 3 4 0 6 3 15 0 3 3 4 1 -2 3 3 7 2 0 1 4 5 2 2 2 1 9 1 9 5 11 3 16 9 1 6 6 8 8 2 14 6 10 4 5 3 4 6 17 1 0 7 2 10 1 3 6 3 1 4 0 5 -1 4 2 11 5 4 33 4 5 4 4 2 13 3 2 0 5 9 1 1 4 6 9 5 4 -3 6 -3 2 7 5 1 0 2 4 4 2 25 1 8 1 -3 -1 5 2 12 2 7 4 2 2 1 8 8 1 11 8 3 3 30 5 6 1 4 2 4 2 -2 -1 5 4 3 5 2 12 -1 6 8 6 16 1 6 4 3 -2 4 14 0 1 5 3 13 1 4 4 0 7 4 2 3 4 4 3 6 -4 5 4 2 2 6 2 1 5 12 7 7 6 -1 5 11 21 5 7 7 5 0 2 0 3 1 14 3 26 5 10 -1 -1 6 1 -4 3 6 0 0 1 8 12 3 -3 1 1 5 12 2 14 3 6 1 4 5 0 1 -1 5 4 -1 -1 12 9 2 5 0 0 0 2 7 5 -5 4 3 -5 2 2 3 7 6 4 2 -2 -2 7 2 7 10 6 0 5 4 5 1 4 7 1 12 5 2 4 18 4 5 2 3 11 4 0 4 9 2 0 1 2 -4 7 15 2 1 -1 2 7 5 0 0 1 3 0 1 12 4 -5 0 11 12 0 7 4 2 1 4 2 3 3 3 3 2 0 4 1 10 4 2 0 -1 9 13 -1 3 -3 5 3 32 7 -3 8 5 9 3 13 -1 3 13 3 0 3 6 3 47 4 3 0 4 2 10 2 2 1 7 6 7 6 1 8 4 2 8 4 2 2 4 5 -1 3 3 -1 25 5 0 2 3 2 6 5 7 3 10 6 2 32 3 7 32 3 3 7 2 3 -1 1 20 15 13 23 1 6 4 2 5 5 2 37 7 3 3 6 13 8 0 3 1 2 9 1 6 17 7 0 -2 0 6 3 4 1 30</t>
-  </si>
-  <si>
-    <t>15 9 9 6 7 3 13 19 3 5 6 5 1 3 7 9 3 10 7 16 20 3 10 10 17 4 37 4 18 9 6 9 16 6 4 9 7 7 12 54 9 4 1 9 38 14 21 9 19 8 18 7 43 13 62 4 10 2 15 1 2 5 9 8 16 1 1 -1 8 11 16 6 6 4 21 5 29 5 37 5 23 14 4 19 18 1 4 9 11 6 11 57 4 3 21 11 9 30 9 17 32 7 13 2 3 12 -6 9 13 20 19 2 13 8 1 17 7 17 15 34 17 4 7 3 17 16 -1 13 9 18 4 28 16 47 6 10 5 10 16 8 5 4 8 8 18 10 11 -4 14 -3 7 5 7 3 9 12 46 11 15 35 6 2 4 3 7 2 9 6 14 12 5 8 17 6 9 4 5 8 14 12 1 8 3 41 11 16 19 7 6 27 13 10 5 11 26 9 55 8 50 3 11 2 2 7 22 21 8 6 7 10 6 39 5 2 12 10 13 9 19 16 11 4 9 4 8 10 9 4 10 25 5 7 11 10 11 2 3 10 8 22 10 5 -1 7 10 7 9 3 12 13 10 8 7 11 18 52 1 6 2 17 3 0 9 19 8 -2 3 31 7 5 6 24 6 6 6 4 12 18 6 21 -6 5 14 1 5 3 10 11 9 5 21 12 28 6 15 10 14 19 13 10 15 5 9 3 8 6 9 4 20 3 9 7 3 10 17 19 3 10 14 3 6 6 3 5 1 15 7 6 6 9 3 10 3 3 4 15 11 7 7 6 9 4 12 4 15 6 4 17 7 1 45 18 7 11 11 24 3 8 13 5 5 6 8 2 29 26 5 4 4 7 10 9 5 20 6 12 9 5 1 24 19 51 9 5 1 15 9 28 12 23 11 6 22 9 16 4 6 69 4 12 5 3 9 30 6 4 15 51 4 9 4 5 16 63 11 8 12 8 1 14 10 11 1 7 68 3 7 3 27 17 5 28 10 10 12 9 5 21 7 39 7 12 11 31 5 14 6 -3 19 7 17 15 -2 5 3 2 28 28 12 1 19 9 2 13 16 6 2 5 25 4 25 14 19 29 9 8 13 5 1 17 8 3 21 23 7 5 14 20 13 -1 2 27 12 -3 12 14 0 9 14 41 1 3 -4 7 7 7 2 11 7 12 21 10 84 5 -4 5 10 10 1 7 12 9 28 0 9 27 1 5 8 5 9 5 8 16 7 28 5 4 8 5 28 5 9 3 12 -6 6 28 1 9 9 7 5 7 18 8 6 -4 4 8 10 8 9 6 9 25 14 36 4 12 16 6 16 48 2 10 3 2 55 6 13 9 39 13 8 2 7 6 1 12 1 4 13 13 4 7 32 -1 4 1 0 8 10 7 12 -1 33 5 9 2 4 11 7 6 7 16 17 5 7 2 12 11 5 2 27 3 0 1 29 5 8 24 25 16 55 7 13 22 14 1 29 6 1 4 6 7 -5 9 4 11 9 34 9 25 12 3 3 2 9 7 11 7 41 0 9 8 9 13 13 26 3 3 24 9 -3 4 15 12 7 4 8 9 -5 58 11 28 6 7 13 8 1 13 11 12 17 1 15</t>
-  </si>
-  <si>
-    <t>5 15 -1 5 9 -2 10 4 -1 1 2 1 4 4 10 -1 2 2 1 0 3 3 5 1 1 2 5 1 1 8 2 1 4 3 0 -1 6 2 0 -4 13 1 12 -1 7 -3 1 -1 4 4 0 1 1 7 3 2 3 1 9 9 5 6 3 2 4 4 0 7 3 5 2 11 7 4 11 -1 -1 3 10 9 5 7 -2 2 10 -2 1 3 10 8 2 10 10 3 0 0 8 3 4 2 0 6 7 6 3 16 2 3 2 3 20 7 3 4 12 -2 2 1 25 6 4 4 12 3 2 9 -1 0 0 8 4 9 5 1 -1 0 2 3 3 5 7 0 5 3 18 9 0 0 2 15 12 32 9 6 -5 3 4 5 -3 4 12 3 3 2 3 2 -1 3 1 1 3 4 1 14 2 1 6 7 7 -1 5 2 -6 1 3 2 0 1 5 3 1 1 6 3 7 -1 7 -1 1 1 17 13 6 -1 7 16 13 4 5 3 1 4 0 5 3 1 -4 2 3 6 3 3 4 2 2 3 -2 -3 8 1 2 2 12 0 0 11 0 1 8 0 20 5 13 6 6 2 1 1 0 7 2 5 4 1 -1 6 4 5 3 3 0 5 9 2 3 60 13 4 3 13 23 3 4 0 3 1 5 3 6 -1 11 4 6 0 1 -2 2 2 3 2 2 12 -3 9 -5 3 3 3 2 5 3 2 4 3 11 -1 4 9 1 2 2 4 1 4 12 -1 1 6 7 2 5 9 3 4 3 4 3 3 3 3 -2 0 1 1 7 2 14 7 23 3 4 2 5 5 -2 3 0 3 -1 8 12 6 0 7 7 0 0 3 7 8 2 -1 3 18 -4 4 3 -1 2 1 5 7 4 4 1 4 5 2 9 8 7 8 2 3 0 2 3 2 -1 -3 20 5 -3 15 5 3 4 2 2 6 6 1 8 4 5 1 1 3 6 0 6 6 5 1 0 1 6 7 4 8 9 2 -3 3 2 3 1 1 2 4 3 2 -2 4 9 4 8 3 12 1 1 7 3 8 1 -2 2 7 0 1 4 7 3 2 4 8 4 1 11 3 4 -2 9 2 6 7 0 60 3 6 2 19 0 3 8 4 4 1 0 12 4 1 4 7 1 3 1 4 8 2 2 12 2 2 9 3 4 3 6 3 -1 5 0 2 24 9 2 3 4 13 2 0 1 1 -2 2 3 5 6 9 2 7 4 2 8 4 5 5 -1 5 15 7 -1 1 6 7 2 4 3 3 6 1 7 7 1 4 3 -3 10 2 6 15 3 6 0 1 3 -1 7 5 29 8 -1 0 2 12 0 2 -1 0 4 1 5 0 -2 1 6 1 25 2 4 1 4 4 5 0 1 6 -1 10 11 2 1 4 9 3 10 5 4 -3 5 4 2 3 1 3 4 3 2 0 0 2 18 3 -1 6 2 5 -3 3 9 1 7 1 12 4 -2 4 14 4 1 3 2 4 4 3 4 8 8 1 4 3 7 4 5 3 11 5 -1 3 7 5 8 1 2 0 2 0 5 4 7 2 1 6 2 2 5 4 3 4 2 2 5 2 0 2 2 0 7 0 8 4 2 1 2 2 5 2 0 7 -1 3 0 0 6 1 2 5 4 2 7 6 3 11 4 1 2 6 7 3 8 4 5 1 0 4 3 4 4 3 1 1 0 1 5 7 3 4 4 3 10 10 2 1 6 3 0 0 7 4 1 7 5 17 1 2 0 2 2 1 -1 4 5 0 6 2 7 5 2 9 2 4 0 2 2 5 4 0 2 6 3 1 -1 4 0 1 6 5 -6 2 10 0 2 2 -1 5 2 9 0 -3 0 8 3 5 -4 7 4 3 5 2 10 0 -2 1 4 1 2 6 1 2 3 9 39 0 0 6 6 10 3 0 17 1 -4 4 4 11 2 2 -2 8 3 2 -2 0 0 1 -2 1 12 8 3 -4 4 4 -1 9 2 20 3 0 -1 1 -1 6 2 1 1 2 0 3 -3 3 26 31 5 0 -1 3 2 0 14 0 1</t>
-  </si>
-  <si>
-    <t>19 12 28 0 27 15 16 11 4 5 13 10 4 44 1 11 7 19 8 12 18 18 15 13 7 4 24 4 10 12 1 2 12 -1 7 16 15 14 8 19 18 -2 16 7 26 12 17 4 9 2 49 16 3 1 20 8 -2 12 16 33 13 3 17 18 12 6 5 4 7 28 0 28 28 -6 13 22 40 5 10 -4 10 1 52 42 20 10 9 43 19 -2 10 8 3 6 2 10 6 2 4 8 8 14 9 5 9 18 15 15 26 11 17 9 3 12 21 6 5 12 1 4 17 4 9 -4 16 9 11 10 18 18 8 23 11 5 13 7 7 9 9 7 10 8 14 9 3 -5 3 25 9 10 14 3 12 11 11 6 10 0 -2 16 35 19 1 12 2 13 41 7 9 12 15 6 5 21 -4 7 18 7 8 18 13 3 6 3 11 8 11 16 7 9 7 19 8 9 13 6 2 10 14 3 -6 6 12 9 25 12 4 9 9 33 2 20 11 14 17 29 7 3 6 14 25 15 13 9 7 22 5 1 18 9 10 5 12 3 18 21 21 11 4 4 23 6 39 -2 20 25 11 33 7 8 5 11 31 39 14 16 8 9 9 11 10 9 15 7 11 8 5 17 21 5 7 9 7 -3 8 5 3 1 7 25 18 5 13 11 6 7 13 14 4 6 3 8 4 11 2 19 4 23 18 3 6 6 6 12 11 3 1 6 10 8 2 3 3 9 9 17 16 0 5 3 7 3 5 11 10 6 27 -1 8 17 33 9 22 16 14 11 3 7 -2 3 6 8 6 14 9 17 3 16 6 8 14 6 5 34 4 3 -2 9 -2 0 0 9 1 11 2 11 20 13 3 10 4 18 -2 5 30 5 1 0 9 7 17 17 3 12 13 5 10 9 6 6 5 2 10 9 5 11 5 9 12 19 11 8 6 6 13 11 2 5 3 13 2 4 22 9 6 11 26 8 13 3 3 1 -5 45 4 14 2 4 9 3 6 41 27 5 13 12 5 5 19 21 8 12 14 3 1 15 13 44 6 4 44 20 6 7 9 15 10 6 10 7 24 6 10 14 10 8 4 5 7 15 16 8 9 7 8 13 7 1 16 11 19 10 6 14 13 5 17 51 15 15 19 6 15 15 22 12 12 5 15 16 10 14 4 9 12 4 5 6 20 17 8 10 7 6 23 26 7 15 7 4 7 9 16 3 -4 15 5 8 9 -1 21 11 28 4 14 15 2 11 9 8 21 9 18 21 7 15 14 26 7 10 8 8 14 10 12 12 7 8 -1 16 11 9 4 17 17 25 5 9 5 8 6 7 9 68 20 20 13 3 23 1 24 33 13 7 9 2 7 9 12 6 4 12 5 6 5 12 9 6 5 2 1 15 14 23 6 12 4 12 7 12 2 3 13 8 6 23 7 14 5 9 14 6 31 15 -5 6 7 13 8 11 13 6 1 7 5 17 9 10 13 7 7 10 3 9 7 0 7 6 3 6 11 9 8 11 7 4 5 9 10 9 5 8 3 41 9 4 6 12 6 34 3 4 14 8 10 6 4 23 24 4 7 8 5 50 7 4 8 17 5 7 11 1 -5 31 7 1 12 25 2 10 20 6 11 4 21 6 -2 14 7 5 16 5 3 10 9 15 7 3 12 20 5 4 15 2 8 6 0 1 1 12 9 8 14 9 16 10 20 2 9 11 11 6 3 12 6 8 24 8 28 12 4 7 9 8 9 48 3 21 13 29 11 18 14 10 7 16 7 17 13 30 5 10 7 0 15 8 11 15 15 12 6 9 18 7 11 -2 19 10 7 11 9 11 12 4 17 6 18 7 2 6 8 7 0 1 14 18 5 11 12 9 9 3 2 42 5 32 6 -1 24 5 11 29 4 1 10 0 8 15 9 15 7 5 16 2 15 16 10 16 14 11 5 30 10 14 15 6 12 15 13 16 1 6 20 42 7 16 11 5 6 6 8 9 11 23 4 4</t>
+    <t>4 5 28 0 9 2 4 11 2 2 -2 4 12 1 -3 1 3 1 1 4 7 5 6 2 21 3 5 0 1 9 2 0 5 10 3 5 13 7 3 6 8 2 6 3 3 5 6 3 12 2 23 2 -1 1 4 11 1 1 0 0 9 1 4 -1 8 4 5 0 2 7 4 13 2 2 7 7 2 1 -1 2 6 7 8 0 4 8 9 2 3 18 -4 8 8 2 1 4 3 3 5 1 19 5 4 7 12 3 6 0 6 29 6 3 1 1 0 17 10 5 8 4 7 3 2 1 7 34 24 22 13 5 6 12 5 1 6 -1 2 3 4 3 9 3 1 7 0 -6 -3 5 -1 13 4 3 5 -1 21 9 4 2 1 0 6 15 4 0 0 1 4 4 1 6 1 9 8 10 0 4 3 -3 0 8 4 -2 -3 4 5 -2 11 2 5 13 1 1 9 -1 5 11 3 3 3 5 5 7 2 0 3 2 5 14 15 5 2 5 -1 9 3 0 5 1 5 5 12 17 1 6 7 13 10 3 15 2 4 15 3 4 2 4 9 0 0 4 1 6 3 1 2 1 1 1 -3 0 7 8 16 2 9 4 0 5 10 -1 -2 -2 -3 -2 1 4 11 11 0 7 12 4 7 2 0 7 3 1 19 11 3 0 1 1 1 5 2 3 4 9 10 19 4 6 15 18 1 -1 1 2 5 5 6 -4 4 -1 4 28 8 0 5 1 2 4 2 0 1 0 15 5 0 -2 -1 10 11 5 5 10 5 5 -3 4 3 4 1 6 38 3 13 9 50 0 6 0 3 -4 4 1 3 10 1 5 11 4 6 6 2 1 3 4 0 6 3 15 0 3 3 4 1 -2 3 3 7 2 0 1 4 5 2 2 2 1 9 1 9 5 11 3 16 9 1 6 6 8 8 2 14 6 10 4 5 3 4 6 17 1 0 7 2 10 1 3 6 3 1 4 0 5 -1 4 2 11 5 4 33 4 5 4 4 2 13 3 2 0 5 9 1 1 4 6 9 5 4 -3 6 -3 2 7 5 1 0 2 4 4 2 25 1 8 1 -3 -1 5 2 12 2 7 4 2 2 1 8 8 1 11 8 3 3 30 5 6 1 4 2 4 2 -2 -1 5 4 3 5 2 12 -1 6 8 6 16 1 6 4 3 -2 4 14 0 1 5 3 13 1 4 4 0 7 4 2 3 4 4 3 6 -4 5 4 2 2 6 2 1 5 12 7 7 6 -1 5 11 21 5 7 7 5 0 2 0 3 1 14 3 26 5 10 -1 -1 6 1 -4 3 6 0 0 1 8 12 3 -3 1 1 5 12 2 14 3 6 1 4 5 0 1 -1 5 4 -1 -1 12 9 2 5 0 0 0 2 7 5 -5 4 3 -5 2 2 3 7 6 4 2 -2 -2 7 2 7 10 6 0 5 4 5 1 4 7 1 12 5 2 4 18 4 5 2 3 11 4 0 4 9 2 0 1 2 -4 7 15 2 1 -1 2 7 5 0 0 1 3 0 1 12 4 -5 0 11 12 0 7 4 2 1 4 2 3 3 3 3 2 0 4 1 10 4 2 0 -1 9 13 -1 3 -3 5 3 32 7 -3 8 5 9 3 13 -1 3 13 3 0 3 6 3 47 4 3 0 4 2 10 2 2 1 7 6 7 6 1 8 4 2 8 4 2 2 4 5 -1 3 3 -1 25 5 0 2 3 2 6 5 7 3 10 6 2 32 3 7 32 3 3 7 2 3 -1 1 20 15 13 23 1 6 4 2 5 5 2 37 7 3 3 6 13 8 0 3 1 2 9 1 6 17 7 0 -2 0 6 3 4 1 30 4 20 6 10 0 2 -2 2 2 0 0 7 8 4 4 3 3 2 1 0 7 29 5 1 4 2 62 9 8</t>
+  </si>
+  <si>
+    <t>15 9 9 6 7 3 13 19 3 5 6 5 1 3 7 9 3 10 7 16 20 3 10 10 17 4 37 4 18 9 6 9 16 6 4 9 7 7 12 54 9 4 1 9 38 14 21 9 19 8 18 7 43 13 62 4 10 2 15 1 2 5 9 8 16 1 1 -1 8 11 16 6 6 4 21 5 29 5 37 5 23 14 4 19 18 1 4 9 11 6 11 57 4 3 21 11 9 30 9 17 32 7 13 2 3 12 -6 9 13 20 19 2 13 8 1 17 7 17 15 34 17 4 7 3 17 16 -1 13 9 18 4 28 16 47 6 10 5 10 16 8 5 4 8 8 18 10 11 -4 14 -3 7 5 7 3 9 12 46 11 15 35 6 2 4 3 7 2 9 6 14 12 5 8 17 6 9 4 5 8 14 12 1 8 3 41 11 16 19 7 6 27 13 10 5 11 26 9 55 8 50 3 11 2 2 7 22 21 8 6 7 10 6 39 5 2 12 10 13 9 19 16 11 4 9 4 8 10 9 4 10 25 5 7 11 10 11 2 3 10 8 22 10 5 -1 7 10 7 9 3 12 13 10 8 7 11 18 52 1 6 2 17 3 0 9 19 8 -2 3 31 7 5 6 24 6 6 6 4 12 18 6 21 -6 5 14 1 5 3 10 11 9 5 21 12 28 6 15 10 14 19 13 10 15 5 9 3 8 6 9 4 20 3 9 7 3 10 17 19 3 10 14 3 6 6 3 5 1 15 7 6 6 9 3 10 3 3 4 15 11 7 7 6 9 4 12 4 15 6 4 17 7 1 45 18 7 11 11 24 3 8 13 5 5 6 8 2 29 26 5 4 4 7 10 9 5 20 6 12 9 5 1 24 19 51 9 5 1 15 9 28 12 23 11 6 22 9 16 4 6 69 4 12 5 3 9 30 6 4 15 51 4 9 4 5 16 63 11 8 12 8 1 14 10 11 1 7 68 3 7 3 27 17 5 28 10 10 12 9 5 21 7 39 7 12 11 31 5 14 6 -3 19 7 17 15 -2 5 3 2 28 28 12 1 19 9 2 13 16 6 2 5 25 4 25 14 19 29 9 8 13 5 1 17 8 3 21 23 7 5 14 20 13 -1 2 27 12 -3 12 14 0 9 14 41 1 3 -4 7 7 7 2 11 7 12 21 10 84 5 -4 5 10 10 1 7 12 9 28 0 9 27 1 5 8 5 9 5 8 16 7 28 5 4 8 5 28 5 9 3 12 -6 6 28 1 9 9 7 5 7 18 8 6 -4 4 8 10 8 9 6 9 25 14 36 4 12 16 6 16 48 2 10 3 2 55 6 13 9 39 13 8 2 7 6 1 12 1 4 13 13 4 7 32 -1 4 1 0 8 10 7 12 -1 33 5 9 2 4 11 7 6 7 16 17 5 7 2 12 11 5 2 27 3 0 1 29 5 8 24 25 16 55 7 13 22 14 1 29 6 1 4 6 7 -5 9 4 11 9 34 9 25 12 3 3 2 9 7 11 7 41 0 9 8 9 13 13 26 3 3 24 9 -3 4 15 12 7 4 8 9 -5 58 11 28 6 7 13 8 1 13 11 12 17 1 15 2 43 9 7 23 31 12 5 22 17 20 9 2 25 11</t>
+  </si>
+  <si>
+    <t>5 15 -1 5 9 -2 10 4 -1 1 2 1 4 4 10 -1 2 2 1 0 3 3 5 1 1 2 5 1 1 8 2 1 4 3 0 -1 6 2 0 -4 13 1 12 -1 7 -3 1 -1 4 4 0 1 1 7 3 2 3 1 9 9 5 6 3 2 4 4 0 7 3 5 2 11 7 4 11 -1 -1 3 10 9 5 7 -2 2 10 -2 1 3 10 8 2 10 10 3 0 0 8 3 4 2 0 6 7 6 3 16 2 3 2 3 20 7 3 4 12 -2 2 1 25 6 4 4 12 3 2 9 -1 0 0 8 4 9 5 1 -1 0 2 3 3 5 7 0 5 3 18 9 0 0 2 15 12 32 9 6 -5 3 4 5 -3 4 12 3 3 2 3 2 -1 3 1 1 3 4 1 14 2 1 6 7 7 -1 5 2 -6 1 3 2 0 1 5 3 1 1 6 3 7 -1 7 -1 1 1 17 13 6 -1 7 16 13 4 5 3 1 4 0 5 3 1 -4 2 3 6 3 3 4 2 2 3 -2 -3 8 1 2 2 12 0 0 11 0 1 8 0 20 5 13 6 6 2 1 1 0 7 2 5 4 1 -1 6 4 5 3 3 0 5 9 2 3 60 13 4 3 13 23 3 4 0 3 1 5 3 6 -1 11 4 6 0 1 -2 2 2 3 2 2 12 -3 9 -5 3 3 3 2 5 3 2 4 3 11 -1 4 9 1 2 2 4 1 4 12 -1 1 6 7 2 5 9 3 4 3 4 3 3 3 3 -2 0 1 1 7 2 14 7 23 3 4 2 5 5 -2 3 0 3 -1 8 12 6 0 7 7 0 0 3 7 8 2 -1 3 18 -4 4 3 -1 2 1 5 7 4 4 1 4 5 2 9 8 7 8 2 3 0 2 3 2 -1 -3 20 5 -3 15 5 3 4 2 2 6 6 1 8 4 5 1 1 3 6 0 6 6 5 1 0 1 6 7 4 8 9 2 -3 3 2 3 1 1 2 4 3 2 -2 4 9 4 8 3 12 1 1 7 3 8 1 -2 2 7 0 1 4 7 3 2 4 8 4 1 11 3 4 -2 9 2 6 7 0 60 3 6 2 19 0 3 8 4 4 1 0 12 4 1 4 7 1 3 1 4 8 2 2 12 2 2 9 3 4 3 6 3 -1 5 0 2 24 9 2 3 4 13 2 0 1 1 -2 2 3 5 6 9 2 7 4 2 8 4 5 5 -1 5 15 7 -1 1 6 7 2 4 3 3 6 1 7 7 1 4 3 -3 10 2 6 15 3 6 0 1 3 -1 7 5 29 8 -1 0 2 12 0 2 -1 0 4 1 5 0 -2 1 6 1 25 2 4 1 4 4 5 0 1 6 -1 10 11 2 1 4 9 3 10 5 4 -3 5 4 2 3 1 3 4 3 2 0 0 2 18 3 -1 6 2 5 -3 3 9 1 7 1 12 4 -2 4 14 4 1 3 2 4 4 3 4 8 8 1 4 3 7 4 5 3 11 5 -1 3 7 5 8 1 2 0 2 0 5 4 7 2 1 6 2 2 5 4 3 4 2 2 5 2 0 2 2 0 7 0 8 4 2 1 2 2 5 2 0 7 -1 3 0 0 6 1 2 5 4 2 7 6 3 11 4 1 2 6 7 3 8 4 5 1 0 4 3 4 4 3 1 1 0 1 5 7 3 4 4 3 10 10 2 1 6 3 0 0 7 4 1 7 5 17 1 2 0 2 2 1 -1 4 5 0 6 2 7 5 2 9 2 4 0 2 2 5 4 0 2 6 3 1 -1 4 0 1 6 5 -6 2 10 0 2 2 -1 5 2 9 0 -3 0 8 3 5 -4 7 4 3 5 2 10 0 -2 1 4 1 2 6 1 2 3 9 39 0 0 6 6 10 3 0 17 1 -4 4 4 11 2 2 -2 8 3 2 -2 0 0 1 -2 1 12 8 3 -4 4 4 -1 9 2 20 3 0 -1 1 -1 6 2 1 1 2 0 3 -3 3 26 31 5 0 -1 3 2 0 14 0 1 3 2 6 2 6 5 4 2 -2 6 2 1 0 1 9 0 8 2 19 1 8 11 5 -4 9 10</t>
+  </si>
+  <si>
+    <t>19 12 28 0 27 15 16 11 4 5 13 10 4 44 1 11 7 19 8 12 18 18 15 13 7 4 24 4 10 12 1 2 12 -1 7 16 15 14 8 19 18 -2 16 7 26 12 17 4 9 2 49 16 3 1 20 8 -2 12 16 33 13 3 17 18 12 6 5 4 7 28 0 28 28 -6 13 22 40 5 10 -4 10 1 52 42 20 10 9 43 19 -2 10 8 3 6 2 10 6 2 4 8 8 14 9 5 9 18 15 15 26 11 17 9 3 12 21 6 5 12 1 4 17 4 9 -4 16 9 11 10 18 18 8 23 11 5 13 7 7 9 9 7 10 8 14 9 3 -5 3 25 9 10 14 3 12 11 11 6 10 0 -2 16 35 19 1 12 2 13 41 7 9 12 15 6 5 21 -4 7 18 7 8 18 13 3 6 3 11 8 11 16 7 9 7 19 8 9 13 6 2 10 14 3 -6 6 12 9 25 12 4 9 9 33 2 20 11 14 17 29 7 3 6 14 25 15 13 9 7 22 5 1 18 9 10 5 12 3 18 21 21 11 4 4 23 6 39 -2 20 25 11 33 7 8 5 11 31 39 14 16 8 9 9 11 10 9 15 7 11 8 5 17 21 5 7 9 7 -3 8 5 3 1 7 25 18 5 13 11 6 7 13 14 4 6 3 8 4 11 2 19 4 23 18 3 6 6 6 12 11 3 1 6 10 8 2 3 3 9 9 17 16 0 5 3 7 3 5 11 10 6 27 -1 8 17 33 9 22 16 14 11 3 7 -2 3 6 8 6 14 9 17 3 16 6 8 14 6 5 34 4 3 -2 9 -2 0 0 9 1 11 2 11 20 13 3 10 4 18 -2 5 30 5 1 0 9 7 17 17 3 12 13 5 10 9 6 6 5 2 10 9 5 11 5 9 12 19 11 8 6 6 13 11 2 5 3 13 2 4 22 9 6 11 26 8 13 3 3 1 -5 45 4 14 2 4 9 3 6 41 27 5 13 12 5 5 19 21 8 12 14 3 1 15 13 44 6 4 44 20 6 7 9 15 10 6 10 7 24 6 10 14 10 8 4 5 7 15 16 8 9 7 8 13 7 1 16 11 19 10 6 14 13 5 17 51 15 15 19 6 15 15 22 12 12 5 15 16 10 14 4 9 12 4 5 6 20 17 8 10 7 6 23 26 7 15 7 4 7 9 16 3 -4 15 5 8 9 -1 21 11 28 4 14 15 2 11 9 8 21 9 18 21 7 15 14 26 7 10 8 8 14 10 12 12 7 8 -1 16 11 9 4 17 17 25 5 9 5 8 6 7 9 68 20 20 13 3 23 1 24 33 13 7 9 2 7 9 12 6 4 12 5 6 5 12 9 6 5 2 1 15 14 23 6 12 4 12 7 12 2 3 13 8 6 23 7 14 5 9 14 6 31 15 -5 6 7 13 8 11 13 6 1 7 5 17 9 10 13 7 7 10 3 9 7 0 7 6 3 6 11 9 8 11 7 4 5 9 10 9 5 8 3 41 9 4 6 12 6 34 3 4 14 8 10 6 4 23 24 4 7 8 5 50 7 4 8 17 5 7 11 1 -5 31 7 1 12 25 2 10 20 6 11 4 21 6 -2 14 7 5 16 5 3 10 9 15 7 3 12 20 5 4 15 2 8 6 0 1 1 12 9 8 14 9 16 10 20 2 9 11 11 6 3 12 6 8 24 8 28 12 4 7 9 8 9 48 3 21 13 29 11 18 14 10 7 16 7 17 13 30 5 10 7 0 15 8 11 15 15 12 6 9 18 7 11 -2 19 10 7 11 9 11 12 4 17 6 18 7 2 6 8 7 0 1 14 18 5 11 12 9 9 3 2 42 5 32 6 -1 24 5 11 29 4 1 10 0 8 15 9 15 7 5 16 2 15 16 10 16 14 11 5 30 10 14 15 6 12 15 13 16 1 6 20 42 7 16 11 5 6 6 8 9 11 23 4 4 1 0 13 5 7 4 2 4 5 8 1 8 13 9 8 35 14 20 19 10 6 9 9 15 -4 9 10 0</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>67 67 66 70 36 62 59 69 67 62 64 62 70 67 62 64 64 66 66 66 64 66 62 60 63 65 68 61 45 61 63 62 59 61 60 58 63 63 60 70 65 69 63 68 51 64 63 65 66 66 61 55 65 66 58 55 65 66 65 66 69 64 39 68 62 61 68 60 59 55 65 62 55 58 66 61 50 63 65 60 62 60 53 54 57 65</t>
-  </si>
-  <si>
-    <t>30 24 17 28 5 20 17 21 20 18 20 16 60 20 20 17 24 25 20 11 20 20 17 18 40 23 18 66 11 20 22 20 14 26 22 11 18 26 36 22 19 19 14 19 13 19 16 24 16 26 7 21 16 25 20 12 37 19 17 33 20 15 13 25 22 32 26 0 27 12 31 12 12 23 13 24 11 32 14 22 30 20 8 14 47 27</t>
+    <t>67 67 66 70 36 62 59 69 67 62 64 62 70 67 62 64 64 66 66 66 64 66 62 60 63 65 68 61 45 61 63 62 59 61 60 58 63 63 60 70 65 69 63 68 51 64 63 65 66 66 61 55 65 66 58 55 65 66 65 66 69 64 39 68 62 61 68 60 59 55 65 62 55 58 66 61 50 63 65 60 62 60 53 54 57 65 48 58</t>
+  </si>
+  <si>
+    <t>30 24 17 28 5 20 17 21 20 18 20 16 60 20 20 17 24 25 20 11 20 20 17 18 40 23 18 66 11 20 22 20 14 26 22 11 18 26 36 22 19 19 14 19 13 19 16 24 16 26 7 21 16 25 20 12 37 19 17 33 20 15 13 25 22 32 26 0 27 12 31 12 12 23 13 24 11 32 14 22 30 20 8 14 47 27 6 14</t>
   </si>
   <si>
     <t>19 24 24 44 21 9 17 6 29 20 9 21 17 17 22 32 33 49 25 20 21 25 22 23 18 28 26 27 58 24 22 7 18 21 33 18 24 22 0 0 34 38 25 17 23 13 21 24 32 23 20 27 27 27 22 23 25 33 26 19 15 18 25 23 40 13 16 21 27</t>
   </si>
   <si>
-    <t>53 44 46 48 33 54 63 50 56 52 64 52 67 45 47 34 58 35 46 48 37 39 66 48 64 39 65 48 53 40 50 57 45 49 42 38 57 56 43 46 33 37 60 66 43 40 55 40 51 57 36 52 56 51 48 47 63 61 43 52 47 53 48 59 56 57 55 71 25 49 40 36 35 66 52 40 59 46 47 43 45 50 60 34 55 62 51 50 43 31 51 52 68 57 43 24 47 42 39 65 47 65 51 32 44 50 48 44 34 41 59 46 45 36 35 51 61 53 42 60 50 52 48 55 54 38 54 50 48 50 65 36 54 41 48 48 32 40 47 54 59 48 49 41 41 25 41 45</t>
-  </si>
-  <si>
-    <t>0 0 0 8 0 0 12 0 7 19 0 0 6 1 0 0 11 0 0 9 0 0 0 10 20 0 0 0 11 0 0 15 6 2 0 0 7 12 0 0 0 0 0 0 11 0 0 0 11 -1 0 1 0 6 1 5 0 5 21 5 0 0 0 0 0 0 9 0 0 7 0 0 0 0 0 0 10 13 9 13 -1 10 10 0 10 12 0 0 0 0 0 11 0 6 0 0 0 0 0 14 9 0 2 0 0 0 0 13 0 0 4 9 0 0 4 0 16 8 0 0 12 0 0 0 0 0 0 8 0 0 22 0 -4 0 2 0 0 0 0 0 0 0 0 4 28 0 0 0</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 9 22 9 5 0 0 0 15 3 0 30</t>
+    <t>53 44 46 48 33 54 63 50 56 52 64 52 67 45 47 34 58 35 46 48 37 39 66 48 64 39 65 48 53 40 50 57 45 49 42 38 57 56 43 46 33 37 60 66 43 40 55 40 51 57 36 52 56 51 48 47 63 61 43 52 47 53 48 59 56 57 55 71 25 49 40 36 35 66 52 40 59 46 47 43 45 50 60 34 55 62 51 50 43 31 51 52 68 57 43 24 47 42 39 65 47 65 51 32 44 50 48 44 34 41 59 46 45 36 35 51 61 53 42 60 50 52 48 55 54 38 54 50 48 50 65 36 54 41 48 48 32 40 47 54 59 48 49 41 41 25 41 45 41 37</t>
+  </si>
+  <si>
+    <t>0 0 0 8 0 0 12 0 7 19 0 0 6 1 0 0 11 0 0 9 0 0 0 10 20 0 0 0 11 0 0 15 6 2 0 0 7 12 0 0 0 0 0 0 11 0 0 0 11 -1 0 1 0 6 1 5 0 5 21 5 0 0 0 0 0 0 9 0 0 7 0 0 0 0 0 0 10 13 9 13 -1 10 10 0 10 12 0 0 0 0 0 11 0 6 0 0 0 0 0 14 9 0 2 0 0 0 0 13 0 0 4 9 0 0 4 0 16 8 0 0 12 0 0 0 0 0 0 8 0 0 22 0 -4 0 2 0 0 0 0 0 0 0 0 4 28 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 9 22 9 5 0 0 0 15 3 0 30 13 0 7</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="D2">
         <v>23</v>
@@ -677,10 +677,10 @@
         <v>24</v>
       </c>
       <c r="F2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G2">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H2">
         <v>18</v>
@@ -689,7 +689,7 @@
         <v>11</v>
       </c>
       <c r="J2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,7 +701,7 @@
         <v>357</v>
       </c>
       <c r="N2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O2">
         <v>28</v>
@@ -721,37 +721,37 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>69</v>
       </c>
       <c r="F3">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="G3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I3">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J3">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>528</v>
+        <v>554</v>
       </c>
       <c r="M3">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="N3">
         <v>55</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>940</v>
+        <v>997</v>
       </c>
     </row>
   </sheetData>
@@ -940,31 +940,31 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>130</v>
       </c>
       <c r="G2">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2">
         <v>16</v>
       </c>
       <c r="J2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>418</v>
       </c>
       <c r="N2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="O2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q2">
         <v>1170</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F3">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="G3">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H3">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I3">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J3">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>662</v>
+        <v>701</v>
       </c>
       <c r="M3">
-        <v>459</v>
+        <v>487</v>
       </c>
       <c r="N3">
         <v>37</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>1136</v>
+        <v>1213</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -1239,10 +1239,10 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L2">
         <v>61</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,13 +1362,13 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>11</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>11</v>
@@ -1409,7 +1409,7 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1431,7 +1431,7 @@
         <v>58</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>58</v>
